--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_528.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_528.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32177-d142256-Reviews-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>187</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Carson.h4167.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085635736&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=b0d675e7-8646-4078-ae33-067917d56d49&amp;mctc=9&amp;exp_dp=101.99&amp;exp_ts=1529085636567&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_528.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="739">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2177 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r541017108-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>32177</t>
+  </si>
+  <si>
+    <t>142256</t>
+  </si>
+  <si>
+    <t>541017108</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Good value, Clean</t>
+  </si>
+  <si>
+    <t>Room was a very good value very clean and spacious. Had a small booth like area for the table and another free standing chair on the other side.  No carpet, which was fine with me because motel carpets are using filthy anyway. The bedding and bathroom were very clean. My only complaint was parking in back there were no lights and a little iffy.Would stay there again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r538082675-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>538082675</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Nice place to be</t>
+  </si>
+  <si>
+    <t>Clean rooms, nice surroundings with restaurants. Friendly staff. The prive was ok too.We spent one night here before we started our tour through CA. It was the perfect place to start off for that tour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r531814078-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>531814078</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Lav standard og larm. Low standard and noisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel 6 i Carson hører til i den lavere ende af det anbefalelsesværdige. Larm og slidte faciliteter er de primære årsager. Motel 6 Carson is at the low end of recommendable motels. Noise from San Diego freeway and worn down facilitys are the main reasons </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r511475756-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>511475756</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Good for a budget hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 1 night.  We were going to a concert at the Forum and didn't want to drive all the way home to San Diego.  This hotel was a good deal, seemed like a pretty safe neighborhood, right off the freeway.  Clean rooms, friendly and helpful staff.  Did find it interesting that there is no blow dryer or iron and no shampoo, conditioner, or lotion, only 2 small bars of soap.  Happy with the price I paid and the room was clean so the minor things weren't a big deal.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r507450169-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>507450169</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Front building and back building are like 2 different hotels - choose the front</t>
+  </si>
+  <si>
+    <t>We're here for a several-day event. 
+The first night we were in the back building and were very nearly ready to bail and pay twice the price somewhere else. The back building is 2 stars. You are safe and can sleep, but don't want to stay for long.
+It's a non-smoking hotel but people smoke in the back building. It is not as recently or nicely renovated. The AC doesn't work as well. The windows don't seem to be as nice. The smell is what my kid described as a bowling alley that people have been smoking and spraying air freshener in for years. 
+The front building, however, is cool, clean, more recently remodeled, and smells neutral - it's a much different stay. Once we changed rooms everything was fine and it was the nice budget-friendly hotel we were hoping for. It gets 4 stars in the budget hotel category.
+The front desk and housekeeping have been nice with each encounter. I don't think the housekeeping in the back building can fight a fair fight - it's not their fault it feels less clean than the front building. 
+There is a laundromat ($4 /load to wash and dry) and a pool. 
+If you go, insist on a room in the front building. 
+Motel 6: You should fully renovate the back building and find a way to discourage smokers. It's like a completely different hotel. If you stick people back there,...We're here for a several-day event. The first night we were in the back building and were very nearly ready to bail and pay twice the price somewhere else. The back building is 2 stars. You are safe and can sleep, but don't want to stay for long.It's a non-smoking hotel but people smoke in the back building. It is not as recently or nicely renovated. The AC doesn't work as well. The windows don't seem to be as nice. The smell is what my kid described as a bowling alley that people have been smoking and spraying air freshener in for years. The front building, however, is cool, clean, more recently remodeled, and smells neutral - it's a much different stay. Once we changed rooms everything was fine and it was the nice budget-friendly hotel we were hoping for. It gets 4 stars in the budget hotel category.The front desk and housekeeping have been nice with each encounter. I don't think the housekeeping in the back building can fight a fair fight - it's not their fault it feels less clean than the front building. There is a laundromat ($4 /load to wash and dry) and a pool. If you go, insist on a room in the front building. Motel 6: You should fully renovate the back building and find a way to discourage smokers. It's like a completely different hotel. If you stick people back there, you should only charge them half price. Or just turn it into a smoking building.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We're here for a several-day event. 
+The first night we were in the back building and were very nearly ready to bail and pay twice the price somewhere else. The back building is 2 stars. You are safe and can sleep, but don't want to stay for long.
+It's a non-smoking hotel but people smoke in the back building. It is not as recently or nicely renovated. The AC doesn't work as well. The windows don't seem to be as nice. The smell is what my kid described as a bowling alley that people have been smoking and spraying air freshener in for years. 
+The front building, however, is cool, clean, more recently remodeled, and smells neutral - it's a much different stay. Once we changed rooms everything was fine and it was the nice budget-friendly hotel we were hoping for. It gets 4 stars in the budget hotel category.
+The front desk and housekeeping have been nice with each encounter. I don't think the housekeeping in the back building can fight a fair fight - it's not their fault it feels less clean than the front building. 
+There is a laundromat ($4 /load to wash and dry) and a pool. 
+If you go, insist on a room in the front building. 
+Motel 6: You should fully renovate the back building and find a way to discourage smokers. It's like a completely different hotel. If you stick people back there,...We're here for a several-day event. The first night we were in the back building and were very nearly ready to bail and pay twice the price somewhere else. The back building is 2 stars. You are safe and can sleep, but don't want to stay for long.It's a non-smoking hotel but people smoke in the back building. It is not as recently or nicely renovated. The AC doesn't work as well. The windows don't seem to be as nice. The smell is what my kid described as a bowling alley that people have been smoking and spraying air freshener in for years. The front building, however, is cool, clean, more recently remodeled, and smells neutral - it's a much different stay. Once we changed rooms everything was fine and it was the nice budget-friendly hotel we were hoping for. It gets 4 stars in the budget hotel category.The front desk and housekeeping have been nice with each encounter. I don't think the housekeeping in the back building can fight a fair fight - it's not their fault it feels less clean than the front building. There is a laundromat ($4 /load to wash and dry) and a pool. If you go, insist on a room in the front building. Motel 6: You should fully renovate the back building and find a way to discourage smokers. It's like a completely different hotel. If you stick people back there, you should only charge them half price. Or just turn it into a smoking building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r499944442-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>499944442</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>I get that it's a motel, but...</t>
+  </si>
+  <si>
+    <t>I chose to stay at a Motel 6 for the first part of our California vacation to save a little money, and because for the 2 days we'd be in that area, we wouldn't be in the hotel much anyway. The outside of the hotel looked more modern, and I liked the fact that you had to go into the hotel to get to your room...no rooms opened directly to the outside.  The rooms were also pretty spacious, with plenty of room to accommodate a rollaway bed.  The room had a mini fridge and microwave, and I thought the beds were comfortable.
+However, there were a few downsides.  
+FRONT DESK STAFF:
+Never in view at the front desk, they were always sitting just out of sight so you'd have to stand there and wait or say "excuse me" to get their attention.  I will say that all of the staff I dealt with at the front desk were polite, but not all were professional.  One girl was sitting off to the side of the desk eating I guess, and after waiting to be helped for a while, she finally emerged with a mouth full of food and I'm guessing she said, "Can I help you?", but honestly I could not understand because she literally had her mouth FULL OF FOOD.
+NOISE LEVEL:
+It was noisy all the time.  Our room was down the hall just past the front desk, so...I chose to stay at a Motel 6 for the first part of our California vacation to save a little money, and because for the 2 days we'd be in that area, we wouldn't be in the hotel much anyway. The outside of the hotel looked more modern, and I liked the fact that you had to go into the hotel to get to your room...no rooms opened directly to the outside.  The rooms were also pretty spacious, with plenty of room to accommodate a rollaway bed.  The room had a mini fridge and microwave, and I thought the beds were comfortable.However, there were a few downsides.  FRONT DESK STAFF:Never in view at the front desk, they were always sitting just out of sight so you'd have to stand there and wait or say "excuse me" to get their attention.  I will say that all of the staff I dealt with at the front desk were polite, but not all were professional.  One girl was sitting off to the side of the desk eating I guess, and after waiting to be helped for a while, she finally emerged with a mouth full of food and I'm guessing she said, "Can I help you?", but honestly I could not understand because she literally had her mouth FULL OF FOOD.NOISE LEVEL:It was noisy all the time.  Our room was down the hall just past the front desk, so I know they were aware of the noise level in the halls, and they didn't address it.  People were really loud and kids were running up and down the halls yelling and playing.ROOM:Our room was incredibly humid.  We had the a/c cranked up in the room and all that did was make it cold and humid.  The sheets felt wet, and papers I had in the room were wet from humidity.  It was a very gross feeling.  BATHROOM:The sink did not have hot water, and the water pressure was very weak.  Brushing your teeth and washing hands was time consuming because the water was just slightly stronger than a slow trickle.  When I washed my hands, I had to move every square inch of my hand under the tiny stream of water to get all the soap off.  The water pressure in the shower was just ok.  Not as bad as the sink, but could have been stronger.  The toilet was another issue.  We had to flush 2 or 3 times to get the toilet to completely flush.  It also was running constantly.  When we left the room one morning to go to Universal Studios, I asked them at the front desk if maintenance could check it out while we were gone, and she called to have it looked at while I was standing there.  When we came back that evening, it had not changed.  We could hear it running all night long, and it still required repeated flushing to get it to work.POOL:The pool closes at 7?? After a day out in the sun at Universal, we were looking forward to swimming that evening.  What hotel pool closes at 7 pm?  I found that surprising.I wasn't looking for a resort experience at the Motel 6, but I do want a room that's in working order and is clean and comfortable.  At $110 a night, I certainly don't think that's too much to expect.  I do not feel it was worth the money.  We spent the next two nights at the Marriott Vacation Club Pulse in downtown San Diego, and for only $48 more a night, we had a COMPLETELY different experience.  I think this Motel 6 needs to step up their game.MoreShow less</t>
+  </si>
+  <si>
+    <t>Liz C, Manager at Motel 6 Carson, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>I chose to stay at a Motel 6 for the first part of our California vacation to save a little money, and because for the 2 days we'd be in that area, we wouldn't be in the hotel much anyway. The outside of the hotel looked more modern, and I liked the fact that you had to go into the hotel to get to your room...no rooms opened directly to the outside.  The rooms were also pretty spacious, with plenty of room to accommodate a rollaway bed.  The room had a mini fridge and microwave, and I thought the beds were comfortable.
+However, there were a few downsides.  
+FRONT DESK STAFF:
+Never in view at the front desk, they were always sitting just out of sight so you'd have to stand there and wait or say "excuse me" to get their attention.  I will say that all of the staff I dealt with at the front desk were polite, but not all were professional.  One girl was sitting off to the side of the desk eating I guess, and after waiting to be helped for a while, she finally emerged with a mouth full of food and I'm guessing she said, "Can I help you?", but honestly I could not understand because she literally had her mouth FULL OF FOOD.
+NOISE LEVEL:
+It was noisy all the time.  Our room was down the hall just past the front desk, so...I chose to stay at a Motel 6 for the first part of our California vacation to save a little money, and because for the 2 days we'd be in that area, we wouldn't be in the hotel much anyway. The outside of the hotel looked more modern, and I liked the fact that you had to go into the hotel to get to your room...no rooms opened directly to the outside.  The rooms were also pretty spacious, with plenty of room to accommodate a rollaway bed.  The room had a mini fridge and microwave, and I thought the beds were comfortable.However, there were a few downsides.  FRONT DESK STAFF:Never in view at the front desk, they were always sitting just out of sight so you'd have to stand there and wait or say "excuse me" to get their attention.  I will say that all of the staff I dealt with at the front desk were polite, but not all were professional.  One girl was sitting off to the side of the desk eating I guess, and after waiting to be helped for a while, she finally emerged with a mouth full of food and I'm guessing she said, "Can I help you?", but honestly I could not understand because she literally had her mouth FULL OF FOOD.NOISE LEVEL:It was noisy all the time.  Our room was down the hall just past the front desk, so I know they were aware of the noise level in the halls, and they didn't address it.  People were really loud and kids were running up and down the halls yelling and playing.ROOM:Our room was incredibly humid.  We had the a/c cranked up in the room and all that did was make it cold and humid.  The sheets felt wet, and papers I had in the room were wet from humidity.  It was a very gross feeling.  BATHROOM:The sink did not have hot water, and the water pressure was very weak.  Brushing your teeth and washing hands was time consuming because the water was just slightly stronger than a slow trickle.  When I washed my hands, I had to move every square inch of my hand under the tiny stream of water to get all the soap off.  The water pressure in the shower was just ok.  Not as bad as the sink, but could have been stronger.  The toilet was another issue.  We had to flush 2 or 3 times to get the toilet to completely flush.  It also was running constantly.  When we left the room one morning to go to Universal Studios, I asked them at the front desk if maintenance could check it out while we were gone, and she called to have it looked at while I was standing there.  When we came back that evening, it had not changed.  We could hear it running all night long, and it still required repeated flushing to get it to work.POOL:The pool closes at 7?? After a day out in the sun at Universal, we were looking forward to swimming that evening.  What hotel pool closes at 7 pm?  I found that surprising.I wasn't looking for a resort experience at the Motel 6, but I do want a room that's in working order and is clean and comfortable.  At $110 a night, I certainly don't think that's too much to expect.  I do not feel it was worth the money.  We spent the next two nights at the Marriott Vacation Club Pulse in downtown San Diego, and for only $48 more a night, we had a COMPLETELY different experience.  I think this Motel 6 needs to step up their game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r490255971-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>490255971</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We rented 3 rooms because our adult children were with us. We all had rooms on the first floor. Staff was courteous and helpful. Rooms were super clean. Our beds were very very comfortable with clean smelling linen every day. Rates were affordable. Motel located across the street from a huge mall. We were conveniently close to everything to include being close to many great places to eat. Motel is close to the freeway. Highly recommend this hotel for families and people on a limited budget. Don't forget to bring your own shampoo and conditioner  and a blow dryer. There's a refrigerator and microwave in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We rented 3 rooms because our adult children were with us. We all had rooms on the first floor. Staff was courteous and helpful. Rooms were super clean. Our beds were very very comfortable with clean smelling linen every day. Rates were affordable. Motel located across the street from a huge mall. We were conveniently close to everything to include being close to many great places to eat. Motel is close to the freeway. Highly recommend this hotel for families and people on a limited budget. Don't forget to bring your own shampoo and conditioner  and a blow dryer. There's a refrigerator and microwave in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r487803124-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>487803124</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Yes It's A Motel</t>
+  </si>
+  <si>
+    <t>What I Like- Location- Easy check out- Free coffee in the morning til 10am- clean room- enough towels providedDon't Like- Hallway smell is awful- Windows unlocked and screen broken. Easy access to criminals. - Water on bathroom sink is weak. - Our booking was cancelled because my card was declined. I didn't get any notification from hotel nor booking.com.   Motel told me they are not obligated to tell me as per policy. This policy is not customer centric and should be changed. Is it really that hard to inform customers? Good thing it was not high season they still have empty rooms. i paid the rooms using the same card.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>What I Like- Location- Easy check out- Free coffee in the morning til 10am- clean room- enough towels providedDon't Like- Hallway smell is awful- Windows unlocked and screen broken. Easy access to criminals. - Water on bathroom sink is weak. - Our booking was cancelled because my card was declined. I didn't get any notification from hotel nor booking.com.   Motel told me they are not obligated to tell me as per policy. This policy is not customer centric and should be changed. Is it really that hard to inform customers? Good thing it was not high season they still have empty rooms. i paid the rooms using the same card.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r484479638-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>484479638</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Comfort with a Reasonable Price</t>
+  </si>
+  <si>
+    <t>I must admit, I HAVE NEVER STAYED AT ANY HOTEL'S 6 in my life....but I must admit, when I searched online and reviewed other comments...I said ok.  I am stationed in Germany, and I had to go back to Southern California to see my sister who is dying from Cancer, and I needed a place basically just to lay my head, take a hot shower and return to the hospital.  My EXPECTATIONS of what a Motel 6 looked like was totally wrong.  My king size bed was comfortable....I think my bathroom was for accessible handicap...but it still was all good.  If I had to return to southern California, I would go back to the Motel 6, in Carson California....the staff was nice and helpful, when the batteries was low in the remote control, and they gave me batteries with no problems...there is a laundry facility and business center...the only thing I would add is to put a desk or small table w/chair in the room so others can work on their labtops.  I would recommend this Motel 6 to friends and familyMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I must admit, I HAVE NEVER STAYED AT ANY HOTEL'S 6 in my life....but I must admit, when I searched online and reviewed other comments...I said ok.  I am stationed in Germany, and I had to go back to Southern California to see my sister who is dying from Cancer, and I needed a place basically just to lay my head, take a hot shower and return to the hospital.  My EXPECTATIONS of what a Motel 6 looked like was totally wrong.  My king size bed was comfortable....I think my bathroom was for accessible handicap...but it still was all good.  If I had to return to southern California, I would go back to the Motel 6, in Carson California....the staff was nice and helpful, when the batteries was low in the remote control, and they gave me batteries with no problems...there is a laundry facility and business center...the only thing I would add is to put a desk or small table w/chair in the room so others can work on their labtops.  I would recommend this Motel 6 to friends and familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r455680402-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>455680402</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Great stay, great value!</t>
+  </si>
+  <si>
+    <t>Being from out of state I was very nervous about renting a room for 6 nights at Motel 6 but once we arrived in the parking lot, I knew it was the perfect property for my child and I to enjoy our trip! It was in a great part of town, restaurants and shopping centers surrounding the area. The room was clean, the A/C worked great (especially when that humidity hits and you are not used to it) and the staff was friendly. I plan on staying there when we go back this year.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Being from out of state I was very nervous about renting a room for 6 nights at Motel 6 but once we arrived in the parking lot, I knew it was the perfect property for my child and I to enjoy our trip! It was in a great part of town, restaurants and shopping centers surrounding the area. The room was clean, the A/C worked great (especially when that humidity hits and you are not used to it) and the staff was friendly. I plan on staying there when we go back this year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r441006438-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>441006438</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valente Sanchez </t>
+  </si>
+  <si>
+    <t>I like being here the people in the motel6 is very helpful and nice and i hope you visit and enjoy ,on my staying, (thankz to manager, Liz, front desk malyn Francis, Bayron and all house keeping all them are hard workers and all the other persons very niceMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>I like being here the people in the motel6 is very helpful and nice and i hope you visit and enjoy ,on my staying, (thankz to manager, Liz, front desk malyn Francis, Bayron and all house keeping all them are hard workers and all the other persons very niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r430153812-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>430153812</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Mechanics</t>
+  </si>
+  <si>
+    <t>No much to said on this one!!for pleasure it's no the right place to stay !i my body asked a question to the security guard ,and the security guard was very disrespectful and courteous personal from front desk good but very little of knowledge  to give you information about the area !to much traffic people going in and out !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Carson, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>No much to said on this one!!for pleasure it's no the right place to stay !i my body asked a question to the security guard ,and the security guard was very disrespectful and courteous personal from front desk good but very little of knowledge  to give you information about the area !to much traffic people going in and out !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r418577633-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>418577633</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>The Shopping Mall and restaurants</t>
+  </si>
+  <si>
+    <t>Great Place to stay, clean.  It was spacious, rooms kept up well, maintenance of the hotel was great, nice environment and friendly staff.  Linens were changed everyday as requested.  New towels and hand towels put out every day if needed. Air conditioning shower and bath clean.  Microwave and Refrigerator clean when we arrived overall I think it is a great place for anyone to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Liz C, Manager at Motel 6 Carson, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay, clean.  It was spacious, rooms kept up well, maintenance of the hotel was great, nice environment and friendly staff.  Linens were changed everyday as requested.  New towels and hand towels put out every day if needed. Air conditioning shower and bath clean.  Microwave and Refrigerator clean when we arrived overall I think it is a great place for anyone to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r417336195-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>417336195</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Family stay</t>
+  </si>
+  <si>
+    <t>I first booked the trip through trip advisor and then it was booked through agoda. We went to the main office to check in and they said we did not have a reservation. And that I was to go to the motel 6 in Torrance but my confirmation was for the motel 6 in Carson. So it was a little bit of a run around. The rooms were average, not the cleanest but adequate. It wasn't the best for the money. MoreShow less</t>
+  </si>
+  <si>
+    <t>I first booked the trip through trip advisor and then it was booked through agoda. We went to the main office to check in and they said we did not have a reservation. And that I was to go to the motel 6 in Torrance but my confirmation was for the motel 6 in Carson. So it was a little bit of a run around. The rooms were average, not the cleanest but adequate. It wasn't the best for the money. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r403972976-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>403972976</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay, value for money</t>
+  </si>
+  <si>
+    <t>It had been a while since I last stayed in a Motel 6 (probably 8 years) so I was pleasantly surprised with their new look. I had a kingsize bedroom, and not only the bed was kingsize. The room was huge! I think two beds would have fitted in there as well. Very friendly staff upon check-in as well and a nice light and welcoming lobby.The motel is across from a mall and an Ikea which can be convenient if you want to go shopping. The Free Wifi worked fine. Overall I had a very pleasant stay here and good value for moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Liz C, General Manager at Motel 6 Carson, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>It had been a while since I last stayed in a Motel 6 (probably 8 years) so I was pleasantly surprised with their new look. I had a kingsize bedroom, and not only the bed was kingsize. The room was huge! I think two beds would have fitted in there as well. Very friendly staff upon check-in as well and a nice light and welcoming lobby.The motel is across from a mall and an Ikea which can be convenient if you want to go shopping. The Free Wifi worked fine. Overall I had a very pleasant stay here and good value for moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r380983176-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>380983176</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>good deal for $</t>
+  </si>
+  <si>
+    <t>Make sure to ask for a room away from pets.  We had 2 dogs barking in the room next to us all night.   We stayed here before our flight and it fit the bill.  Great price, big room, comfy bed and great A/C.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Liz C, General Manager at Motel 6 Carson, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Make sure to ask for a room away from pets.  We had 2 dogs barking in the room next to us all night.   We stayed here before our flight and it fit the bill.  Great price, big room, comfy bed and great A/C.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r380829833-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>380829833</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>My family and I came to visit family and vacation, we had a last minute change of plans and needed a hotel for the night.  Great place for us to stay. There was nothing really wrong with the room besides hairline cracks on some parts of the floor and the bathroom handle wouldn't lock, other them that we had a great stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I came to visit family and vacation, we had a last minute change of plans and needed a hotel for the night.  Great place for us to stay. There was nothing really wrong with the room besides hairline cracks on some parts of the floor and the bathroom handle wouldn't lock, other them that we had a great stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r363785099-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>363785099</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>QUALITY INN 1251 NORTH HARBOR BLVD</t>
+  </si>
+  <si>
+    <t>It is a good hotel for the price. The rooms are clean And the hotel is well kept up inside and out. The hotel has lots of parking. and it is near the hotel so you can hear people comming and going all night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>It is a good hotel for the price. The rooms are clean And the hotel is well kept up inside and out. The hotel has lots of parking. and it is near the hotel so you can hear people comming and going all night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r343032687-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>343032687</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Nice low budget!</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it was so close (within a mile) to the Stub Hub center the venue we were in town for. Lots of restaurants and food near the hotel, a Target and little mall is right across the street. The rooms are a nice size, nothing fancy, but definitely can tell they've been updated. Nice they all come with a micro/fridge. We didn't stay at the hotel long, other than to get ready and sleep. I wouldn't normally stay at a Motel 6, but the group I was with picked it for the location and it turned out to be a great experience for the price! Good location LAX is about 15 minutes away, Downtown is 30 minutes, and Long Beach is only about 15 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it was so close (within a mile) to the Stub Hub center the venue we were in town for. Lots of restaurants and food near the hotel, a Target and little mall is right across the street. The rooms are a nice size, nothing fancy, but definitely can tell they've been updated. Nice they all come with a micro/fridge. We didn't stay at the hotel long, other than to get ready and sleep. I wouldn't normally stay at a Motel 6, but the group I was with picked it for the location and it turned out to be a great experience for the price! Good location LAX is about 15 minutes away, Downtown is 30 minutes, and Long Beach is only about 15 minutes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r342927522-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>342927522</t>
+  </si>
+  <si>
+    <t>01/26/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We stayed here because its about 5 minutes from the stub hub center and my husband was trying out for that team. Hotel is nice on the outside. Room was very big, king size bed, wood flooring. There's a microwave and fridge included. When I opened the fridge there was a jamba juice container which stank up the room. Thankfully the windows open up all the way and we had to get a freshener from the front desk to make it smell better. The room felt empty though because at how big it was. A couch for sure can fit.The TV was horrible, basic channels and they were blurry with lines across from it. No hair dryer, iron or coffee provided. Also when you turn on the water to shower it is extremely noisy. I was woken up at 5 am from the people to the left of our room because they were showering. Close to the freeway to that was a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here because its about 5 minutes from the stub hub center and my husband was trying out for that team. Hotel is nice on the outside. Room was very big, king size bed, wood flooring. There's a microwave and fridge included. When I opened the fridge there was a jamba juice container which stank up the room. Thankfully the windows open up all the way and we had to get a freshener from the front desk to make it smell better. The room felt empty though because at how big it was. A couch for sure can fit.The TV was horrible, basic channels and they were blurry with lines across from it. No hair dryer, iron or coffee provided. Also when you turn on the water to shower it is extremely noisy. I was woken up at 5 am from the people to the left of our room because they were showering. Close to the freeway to that was a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r337616111-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>337616111</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Cute, Clean and Roomy.</t>
+  </si>
+  <si>
+    <t>I stayed here on Dec.24th and 25th looking for a place cheap, clean and quiet. The lobby was nice and clean and different from what I expected. I checked in with no problems and was surprised when I opened the door to my room (in a good way). My room was clean spacious had a microwave and mini frig and a little table to eat at.The bathroom was nice and clean and larger than usual. I just wanted to rest. The two problems I had was the second day kids were slamming the door and running down the hallway. Also my fitted sheet looked like it had a stain or two so I slept on top. Other than that loved it here and would visit again. I was very surprised being that it was a Motel 6 but the rate and experience was awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here on Dec.24th and 25th looking for a place cheap, clean and quiet. The lobby was nice and clean and different from what I expected. I checked in with no problems and was surprised when I opened the door to my room (in a good way). My room was clean spacious had a microwave and mini frig and a little table to eat at.The bathroom was nice and clean and larger than usual. I just wanted to rest. The two problems I had was the second day kids were slamming the door and running down the hallway. Also my fitted sheet looked like it had a stain or two so I slept on top. Other than that loved it here and would visit again. I was very surprised being that it was a Motel 6 but the rate and experience was awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r306436280-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>306436280</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>No Management, Lack of service, Bad customer service, STAY AWAY FROM THIS PLACE</t>
+  </si>
+  <si>
+    <t>They did not have the room available even though I had a guarantee reservation. The manager was off during the weekend and was told to take the room and call Monday to get a refund because they were sold out.  There were four of us and only one bed.  I called and emailed the general manager several times and she never responded.  I filled out a survey from Motel 6 and then she finally responded by email.  I replied and told her what had happened and also sent her numerous emails and she did not respond anymore.  I sent an email to the customer service department and she responded again. She claims that my CC was declined during the preauthorization and had to give my room to someone else.  The CC that was supposedly declined at 2 PM was the same one I used to pay the room at 3 PM.  She claims that she was available by phone that day but the front desk told us that she was gone for the weekend and to call her back on Monday.  Motel 6 website indicates that if they fail to provide a guaranteed room that they will pay for accommodations at other establishment and that was never offered.  The front desk never even mentioned that the CC was declined or that the room was given away to someone else.  We were told that it was a mistake between this motel...They did not have the room available even though I had a guarantee reservation. The manager was off during the weekend and was told to take the room and call Monday to get a refund because they were sold out.  There were four of us and only one bed.  I called and emailed the general manager several times and she never responded.  I filled out a survey from Motel 6 and then she finally responded by email.  I replied and told her what had happened and also sent her numerous emails and she did not respond anymore.  I sent an email to the customer service department and she responded again. She claims that my CC was declined during the preauthorization and had to give my room to someone else.  The CC that was supposedly declined at 2 PM was the same one I used to pay the room at 3 PM.  She claims that she was available by phone that day but the front desk told us that she was gone for the weekend and to call her back on Monday.  Motel 6 website indicates that if they fail to provide a guaranteed room that they will pay for accommodations at other establishment and that was never offered.  The front desk never even mentioned that the CC was declined or that the room was given away to someone else.  We were told that it was a mistake between this motel 6 and the reservation center.  The general manager just made up stories to not provide a refund.  She is not very honest and has a very good imagination to come up with all these excuses.  Stay away from this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Carson, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>They did not have the room available even though I had a guarantee reservation. The manager was off during the weekend and was told to take the room and call Monday to get a refund because they were sold out.  There were four of us and only one bed.  I called and emailed the general manager several times and she never responded.  I filled out a survey from Motel 6 and then she finally responded by email.  I replied and told her what had happened and also sent her numerous emails and she did not respond anymore.  I sent an email to the customer service department and she responded again. She claims that my CC was declined during the preauthorization and had to give my room to someone else.  The CC that was supposedly declined at 2 PM was the same one I used to pay the room at 3 PM.  She claims that she was available by phone that day but the front desk told us that she was gone for the weekend and to call her back on Monday.  Motel 6 website indicates that if they fail to provide a guaranteed room that they will pay for accommodations at other establishment and that was never offered.  The front desk never even mentioned that the CC was declined or that the room was given away to someone else.  We were told that it was a mistake between this motel...They did not have the room available even though I had a guarantee reservation. The manager was off during the weekend and was told to take the room and call Monday to get a refund because they were sold out.  There were four of us and only one bed.  I called and emailed the general manager several times and she never responded.  I filled out a survey from Motel 6 and then she finally responded by email.  I replied and told her what had happened and also sent her numerous emails and she did not respond anymore.  I sent an email to the customer service department and she responded again. She claims that my CC was declined during the preauthorization and had to give my room to someone else.  The CC that was supposedly declined at 2 PM was the same one I used to pay the room at 3 PM.  She claims that she was available by phone that day but the front desk told us that she was gone for the weekend and to call her back on Monday.  Motel 6 website indicates that if they fail to provide a guaranteed room that they will pay for accommodations at other establishment and that was never offered.  The front desk never even mentioned that the CC was declined or that the room was given away to someone else.  We were told that it was a mistake between this motel 6 and the reservation center.  The general manager just made up stories to not provide a refund.  She is not very honest and has a very good imagination to come up with all these excuses.  Stay away from this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r306406770-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>306406770</t>
+  </si>
+  <si>
+    <t>Security is Bad, Didn't feel Safe! Horrible Hotel</t>
+  </si>
+  <si>
+    <t>We had our family reunion at this hotel, so a lot of our family stayed here.  We reserved the conference room for our opening day's Meet &amp; Greet and the hotel staff did not have a key to let us in to setup. So, we were not let into the room until after our start time and the room was FILTHLY!  We had to clean it ourselves and setup the room. To top off our Meet &amp; Greet, the room's air conditioning did not work properly, so it felt like 100 degrees in there. None of the security doors/exits are secure. A few of the doors were propped open all weekend &amp; one door is jammed &amp; doesn't close all the way.  I heard there was a security guard, but didn't see him at all that entire weekend. Many people loitering in the hallways at all times of the day &amp; night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We had our family reunion at this hotel, so a lot of our family stayed here.  We reserved the conference room for our opening day's Meet &amp; Greet and the hotel staff did not have a key to let us in to setup. So, we were not let into the room until after our start time and the room was FILTHLY!  We had to clean it ourselves and setup the room. To top off our Meet &amp; Greet, the room's air conditioning did not work properly, so it felt like 100 degrees in there. None of the security doors/exits are secure. A few of the doors were propped open all weekend &amp; one door is jammed &amp; doesn't close all the way.  I heard there was a security guard, but didn't see him at all that entire weekend. Many people loitering in the hallways at all times of the day &amp; night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r295807635-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>295807635</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>The best motel I ever stayed at. The location is closed to everything. Is nice and clean and friendly people and works. This Motel got the best manager and fair with the people. I'm only review what I see and experience with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>The best motel I ever stayed at. The location is closed to everything. Is nice and clean and friendly people and works. This Motel got the best manager and fair with the people. I'm only review what I see and experience with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r267982102-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>267982102</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome &amp; Relaxing </t>
+  </si>
+  <si>
+    <t>Everything about the stay was great. The room was immaculate. Clean sheets, plenty of towels &amp; AC system was superb! Perfectly placed off the 405 Freeway with so many things to do within walking distance. I would definitely recommend this placeMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Everything about the stay was great. The room was immaculate. Clean sheets, plenty of towels &amp; AC system was superb! Perfectly placed off the 405 Freeway with so many things to do within walking distance. I would definitely recommend this placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r263779696-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>263779696</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant &amp; clean. </t>
+  </si>
+  <si>
+    <t>I came to the hotel in afternoon, I was impressed from the start. Lobby was beautiful, The price was cheaper than I thought it would be.  I originally booked for two nights, I had to stay and extra night and spoke to Jainine K.  Jainine was super friendly and made it super easy to stay longer.  Thanks!! We will be backMoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>I came to the hotel in afternoon, I was impressed from the start. Lobby was beautiful, The price was cheaper than I thought it would be.  I originally booked for two nights, I had to stay and extra night and spoke to Jainine K.  Jainine was super friendly and made it super easy to stay longer.  Thanks!! We will be backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r258442078-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>258442078</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Road Trip</t>
+  </si>
+  <si>
+    <t>The location of the hotel was convenient, but the prices were high for what we got.  The hotel seemed to be fairly clean, but it was also fairly dingy.  The walls were thin enough for occupants of the rooms to be heard in the hall and vice-versa.  The TV had poor picture quality, which made watching it frustrating.We slept well enough, but it was not up to some of the most basic standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>The location of the hotel was convenient, but the prices were high for what we got.  The hotel seemed to be fairly clean, but it was also fairly dingy.  The walls were thin enough for occupants of the rooms to be heard in the hall and vice-versa.  The TV had poor picture quality, which made watching it frustrating.We slept well enough, but it was not up to some of the most basic standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r255241214-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>255241214</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Ms. Khan goes above and Beyond</t>
+  </si>
+  <si>
+    <t>I recently had the extreme pleasure of staying at the motel 6 in Carson California, while attending a business conference in Long Beach. I was unfamiliar with the area, while in the lobby trying desperately to find my way, out of no where Ms. Khan came to my rescue, gave me directions, arranged for a car to come and pick me up, and to my utter surprise she even gave me names of good places to eat.  In this day and age where the business world moves at such a rapid pace, and there isn't much time for human interaction, Ms. Khan took the time to make me feel at ease, show me where I needed to be, and went out of her way to make sure I got to my conference on time, and without the stress I was feeling when we first met. As if that wasn't enough, later that afternoon, she called me to make sure that I had a ride back to the hotel. I was completely amazed at the care and concern that this beautiful young lady took to ensure my comfort. It's too bad this review only allows for 5 star rating, Ms. Khan is definitely a 10... look forward to my next conference.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded February 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2015</t>
+  </si>
+  <si>
+    <t>I recently had the extreme pleasure of staying at the motel 6 in Carson California, while attending a business conference in Long Beach. I was unfamiliar with the area, while in the lobby trying desperately to find my way, out of no where Ms. Khan came to my rescue, gave me directions, arranged for a car to come and pick me up, and to my utter surprise she even gave me names of good places to eat.  In this day and age where the business world moves at such a rapid pace, and there isn't much time for human interaction, Ms. Khan took the time to make me feel at ease, show me where I needed to be, and went out of her way to make sure I got to my conference on time, and without the stress I was feeling when we first met. As if that wasn't enough, later that afternoon, she called me to make sure that I had a ride back to the hotel. I was completely amazed at the care and concern that this beautiful young lady took to ensure my comfort. It's too bad this review only allows for 5 star rating, Ms. Khan is definitely a 10... look forward to my next conference.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r255138782-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>255138782</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>Not the first time I've stayed and it won't be the last. I always enjoy staying here when I am in the area. The staff is always friendly and helpful, the housekeepers are smiling and happy, the hotel is always very clean. I also used the meeting room for my training seminar and it worked out great!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2015</t>
+  </si>
+  <si>
+    <t>Not the first time I've stayed and it won't be the last. I always enjoy staying here when I am in the area. The staff is always friendly and helpful, the housekeepers are smiling and happy, the hotel is always very clean. I also used the meeting room for my training seminar and it worked out great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r252559314-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>252559314</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>We had a great time.....</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from Dec.27 2014 - Jan.17, and what can we say!?! We had the best time ever in the States and in this Motel. We ve never found a better Motel like this. The Stuff ist VERY friendly and helpful (best greeting to Liz; the Man with the short black hair and the glasses on (didn t remember his name..sorry Pal); and the man who fixed our safe)... but all in all....everyone in this Motel was very friendly. We re looking forward to see u guy again this year. :) To the Rooms : The Rooms are imho in a very good condition and the are very clean. Everything works like a charm (TV,Toilet etc). We had a Microwave Oven and a Fridge at our room. Free Wi-Fi with moderate speed was also for free.Be sure to tip the Housekeeping Ladys well....they did a great job. The Beds are very clean and very cozy and comfortable...i ve slept like a toddler...lol....Also the Motel is located in a good neighbourhood. You have everything around you....and when i say everything...i meant it.. Southbay Pavillion shopping centre, Gas Stations, Target, Ikea....you can shop what ever u want....it is and it was great.  The Motel for itself is in a great condition. The Pool was also very clean. Everything in and around the Motel was very clean. They have also washing machines and dryers...and if you don t have enough...We stayed at the hotel from Dec.27 2014 - Jan.17, and what can we say!?! We had the best time ever in the States and in this Motel. We ve never found a better Motel like this. The Stuff ist VERY friendly and helpful (best greeting to Liz; the Man with the short black hair and the glasses on (didn t remember his name..sorry Pal); and the man who fixed our safe)... but all in all....everyone in this Motel was very friendly. We re looking forward to see u guy again this year. :) To the Rooms : The Rooms are imho in a very good condition and the are very clean. Everything works like a charm (TV,Toilet etc). We had a Microwave Oven and a Fridge at our room. Free Wi-Fi with moderate speed was also for free.Be sure to tip the Housekeeping Ladys well....they did a great job. The Beds are very clean and very cozy and comfortable...i ve slept like a toddler...lol....Also the Motel is located in a good neighbourhood. You have everything around you....and when i say everything...i meant it.. Southbay Pavillion shopping centre, Gas Stations, Target, Ikea....you can shop what ever u want....it is and it was great.  The Motel for itself is in a great condition. The Pool was also very clean. Everything in and around the Motel was very clean. They have also washing machines and dryers...and if you don t have enough quarters....the staff will help you to change your singles. :)) Did i forgot somethin?? Hmm...let me think....oh yes...we stayed there for 3 WEEKS and we can t wait to come back. :))) If you re looking for one of the best Motel 6 ever on the Westcoast...don t look an further. You ve found it. Enjoy your stay...as much as we did. :)) Thank you for reading. Best regards...from the "2 Germans"...of Room 118.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded February 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from Dec.27 2014 - Jan.17, and what can we say!?! We had the best time ever in the States and in this Motel. We ve never found a better Motel like this. The Stuff ist VERY friendly and helpful (best greeting to Liz; the Man with the short black hair and the glasses on (didn t remember his name..sorry Pal); and the man who fixed our safe)... but all in all....everyone in this Motel was very friendly. We re looking forward to see u guy again this year. :) To the Rooms : The Rooms are imho in a very good condition and the are very clean. Everything works like a charm (TV,Toilet etc). We had a Microwave Oven and a Fridge at our room. Free Wi-Fi with moderate speed was also for free.Be sure to tip the Housekeeping Ladys well....they did a great job. The Beds are very clean and very cozy and comfortable...i ve slept like a toddler...lol....Also the Motel is located in a good neighbourhood. You have everything around you....and when i say everything...i meant it.. Southbay Pavillion shopping centre, Gas Stations, Target, Ikea....you can shop what ever u want....it is and it was great.  The Motel for itself is in a great condition. The Pool was also very clean. Everything in and around the Motel was very clean. They have also washing machines and dryers...and if you don t have enough...We stayed at the hotel from Dec.27 2014 - Jan.17, and what can we say!?! We had the best time ever in the States and in this Motel. We ve never found a better Motel like this. The Stuff ist VERY friendly and helpful (best greeting to Liz; the Man with the short black hair and the glasses on (didn t remember his name..sorry Pal); and the man who fixed our safe)... but all in all....everyone in this Motel was very friendly. We re looking forward to see u guy again this year. :) To the Rooms : The Rooms are imho in a very good condition and the are very clean. Everything works like a charm (TV,Toilet etc). We had a Microwave Oven and a Fridge at our room. Free Wi-Fi with moderate speed was also for free.Be sure to tip the Housekeeping Ladys well....they did a great job. The Beds are very clean and very cozy and comfortable...i ve slept like a toddler...lol....Also the Motel is located in a good neighbourhood. You have everything around you....and when i say everything...i meant it.. Southbay Pavillion shopping centre, Gas Stations, Target, Ikea....you can shop what ever u want....it is and it was great.  The Motel for itself is in a great condition. The Pool was also very clean. Everything in and around the Motel was very clean. They have also washing machines and dryers...and if you don t have enough quarters....the staff will help you to change your singles. :)) Did i forgot somethin?? Hmm...let me think....oh yes...we stayed there for 3 WEEKS and we can t wait to come back. :))) If you re looking for one of the best Motel 6 ever on the Westcoast...don t look an further. You ve found it. Enjoy your stay...as much as we did. :)) Thank you for reading. Best regards...from the "2 Germans"...of Room 118.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r243277326-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>243277326</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>nice place and kept up well but why is the lobby music blasting when people try and sleep ? especially when you're right near the lobby area...iron/blow dryer are upon request also. great area with many food places near by and places to shop..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded December 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2014</t>
+  </si>
+  <si>
+    <t>nice place and kept up well but why is the lobby music blasting when people try and sleep ? especially when you're right near the lobby area...iron/blow dryer are upon request also. great area with many food places near by and places to shop..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r238787552-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>238787552</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>This place is infected with roaches, I don't know how some people feel about that, as for me I'm just sick. I don't like roaches,or any other kind of pets they might have. Disappointed, Just disappointed. But they do have a few shops near by, "ikea, target, starbucks, etc.. Close to the freeway (405).. The staff was very kind, it was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded November 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2014</t>
+  </si>
+  <si>
+    <t>This place is infected with roaches, I don't know how some people feel about that, as for me I'm just sick. I don't like roaches,or any other kind of pets they might have. Disappointed, Just disappointed. But they do have a few shops near by, "ikea, target, starbucks, etc.. Close to the freeway (405).. The staff was very kind, it was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r237849424-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>237849424</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay</t>
+  </si>
+  <si>
+    <t>This hotel always pleases, the staff and management are excellent, friendly and helpful. The rooms are clean, everything functions properly and most important the beds are comfy. The hotel is across the street from many excellent restaurants and a shopping mall. This is the place to stay if you are looking for good value and convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This hotel always pleases, the staff and management are excellent, friendly and helpful. The rooms are clean, everything functions properly and most important the beds are comfy. The hotel is across the street from many excellent restaurants and a shopping mall. This is the place to stay if you are looking for good value and convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r234600064-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>234600064</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>This is the first review I've ever written but for this motel it will be easy.</t>
+  </si>
+  <si>
+    <t>Had to stay in Carson, CA for 3 weeks for work. Motel 6 was very well located with shopping and many restaurants across the street. The staff was extremely helpful. The young fellow who cleans the pool, grounds and appears to do just about anything asked of him on a daily basis, truly truly deserves a big raise. The most striking was his happy positive demeanor every day. The rooms were kept nicely cleaned and all indoor and out door facilities were well looked after.  We will definitely say here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Had to stay in Carson, CA for 3 weeks for work. Motel 6 was very well located with shopping and many restaurants across the street. The staff was extremely helpful. The young fellow who cleans the pool, grounds and appears to do just about anything asked of him on a daily basis, truly truly deserves a big raise. The most striking was his happy positive demeanor every day. The rooms were kept nicely cleaned and all indoor and out door facilities were well looked after.  We will definitely say here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r226965572-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>226965572</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Motel 6 Carson CA is NOT recommended for families</t>
+  </si>
+  <si>
+    <t>First off, the management at Motel 6 Carson is clueless. The property is in disrepair, and has been for over a year. They need to focus on improving the room lock system, as I had to have my key activated daily. There is the constant smell of marijuana in the hallways. The worst part, during weekends, numerous motorcycle gangs stay there, loud, loud, loud; cannot sleep, because the bikers are racing in the back parking lot. Another issue is the room rate, good luck getting a straight answer about how much the rooms cost; apparently, it's variable. Recommendation DO NOT BOOK A ROOM THERE! There are many more nice lodgings throughout the city. One last thing, don't bother speaking with the manager, it doesn't help.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>First off, the management at Motel 6 Carson is clueless. The property is in disrepair, and has been for over a year. They need to focus on improving the room lock system, as I had to have my key activated daily. There is the constant smell of marijuana in the hallways. The worst part, during weekends, numerous motorcycle gangs stay there, loud, loud, loud; cannot sleep, because the bikers are racing in the back parking lot. Another issue is the room rate, good luck getting a straight answer about how much the rooms cost; apparently, it's variable. Recommendation DO NOT BOOK A ROOM THERE! There are many more nice lodgings throughout the city. One last thing, don't bother speaking with the manager, it doesn't help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r226167143-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>226167143</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>A Welcoming Surprise</t>
+  </si>
+  <si>
+    <t>Stay August 27 until Aug 31. From the moment I checked in until I checked out I was surprise by the friendly and professional staff. They answered all my questions with a smile. The room was very cleaned with only the essentials. Located across the street from a major shopping center right off the 405 freeway there were restaurants in all price ranges within walking distant. The area is very safe and is within easy reach of all major areas of the Los Angeles region. I will definitely stay here when I return to Los Angeles.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Stay August 27 until Aug 31. From the moment I checked in until I checked out I was surprise by the friendly and professional staff. They answered all my questions with a smile. The room was very cleaned with only the essentials. Located across the street from a major shopping center right off the 405 freeway there were restaurants in all price ranges within walking distant. The area is very safe and is within easy reach of all major areas of the Los Angeles region. I will definitely stay here when I return to Los Angeles.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r216483733-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>216483733</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay</t>
+  </si>
+  <si>
+    <t>This place is a nice place to stay; the rooms were great. The only negative was there was alot of activity during the night. There appeared to be some partying going on. It wasn't too loud or disturbing, it just made me and my friends uncomfortable when walking to and from the parking lot. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>This place is a nice place to stay; the rooms were great. The only negative was there was alot of activity during the night. There appeared to be some partying going on. It wasn't too loud or disturbing, it just made me and my friends uncomfortable when walking to and from the parking lot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r215247459-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>215247459</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Great value, clean room, totally upgraded</t>
+  </si>
+  <si>
+    <t>Best Motel 6 I've ever stayed at. Friendly staff, totally modern lobby, and updated, clean rooms. Clean pool area and right across the street from a shopping center. Fridge, microwave and appreciating the powerful A/C on a hot summer day. Usual and towels are somewhat low quality but clean. No bathroom amenities but I'd rather have a clean room and comfortable bed then a cheap shampoo or lotion.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Best Motel 6 I've ever stayed at. Friendly staff, totally modern lobby, and updated, clean rooms. Clean pool area and right across the street from a shopping center. Fridge, microwave and appreciating the powerful A/C on a hot summer day. Usual and towels are somewhat low quality but clean. No bathroom amenities but I'd rather have a clean room and comfortable bed then a cheap shampoo or lotion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r212917445-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>212917445</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Pot Smoke, hookers and barking dogs</t>
+  </si>
+  <si>
+    <t>the management at this motel must be part of the problem, cause when reported at check out she said she would give us a refund of $153. and she only processed $25.00. Having test at Harbor General Hospital I needed to stay an extra day.It was worse every night hookers, pot smoke and barking dogs and day and night. The windows in rooms in back have no protection then the screen that pops off and the truckers drugs and hookers use this area for traffic of the illegal kind.had my children with me and had to put towels at door to block pot smell. The exterior/interior doors are open to the general public no locks. so if you do not want to get high or laid and be in a safe location do not stay at this motelMoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>the management at this motel must be part of the problem, cause when reported at check out she said she would give us a refund of $153. and she only processed $25.00. Having test at Harbor General Hospital I needed to stay an extra day.It was worse every night hookers, pot smoke and barking dogs and day and night. The windows in rooms in back have no protection then the screen that pops off and the truckers drugs and hookers use this area for traffic of the illegal kind.had my children with me and had to put towels at door to block pot smell. The exterior/interior doors are open to the general public no locks. so if you do not want to get high or laid and be in a safe location do not stay at this motelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r207033869-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>207033869</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>BEST EVER!!!!</t>
+  </si>
+  <si>
+    <t>By far the best Motel 6 I have ever seen or stayed in! Awesome location next to mall and a variety of restaurants and stores. The rooms are definitely up to par, very clean, comfortable, and beautifully put together. The best part of staying here is the staff. They give you the feeling that you are staying as guests with your family and not just renting a room. They all had great personalities and so friendly that they left a lasting impression on me. Bri, Mayra, and Jason just to name a few that I noticed working very hard while also smiling and being sociable with the customers. Housekeeping makes everything look brand new and maintenance leaves nothing unattended. The whole establishment was a really complete reflection of the general manager Jainine Khan who went above and beyond to make sure all of us Motel 6 customers were satisfied with our stay. Thanks a bunch! We will return again and again, as well as recommend this location to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>By far the best Motel 6 I have ever seen or stayed in! Awesome location next to mall and a variety of restaurants and stores. The rooms are definitely up to par, very clean, comfortable, and beautifully put together. The best part of staying here is the staff. They give you the feeling that you are staying as guests with your family and not just renting a room. They all had great personalities and so friendly that they left a lasting impression on me. Bri, Mayra, and Jason just to name a few that I noticed working very hard while also smiling and being sociable with the customers. Housekeeping makes everything look brand new and maintenance leaves nothing unattended. The whole establishment was a really complete reflection of the general manager Jainine Khan who went above and beyond to make sure all of us Motel 6 customers were satisfied with our stay. Thanks a bunch! We will return again and again, as well as recommend this location to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r204110655-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>204110655</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Good overall, newly renovated</t>
+  </si>
+  <si>
+    <t>Well, didnt expect too much as it was a Motel but overall pleased.-Newly renovated but don't expect too much-Adequate room space as we have lots of luggage-Cheap-Ample parking space-In front of target, ikea and about a dozen places to eat around.-Walking distance to starbucks-Close to freewaySome things I hope they can improve-Elevator (lack of it). Had to carry my 2 full size suit case up the stairs-No laundry areaMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2014</t>
+  </si>
+  <si>
+    <t>Well, didnt expect too much as it was a Motel but overall pleased.-Newly renovated but don't expect too much-Adequate room space as we have lots of luggage-Cheap-Ample parking space-In front of target, ikea and about a dozen places to eat around.-Walking distance to starbucks-Close to freewaySome things I hope they can improve-Elevator (lack of it). Had to carry my 2 full size suit case up the stairs-No laundry areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r202886519-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>202886519</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Complete Package</t>
+  </si>
+  <si>
+    <t>The staff at the motel were great. Rooms are good sized. I was able to request fridge, Microwave etc as I was staying a couple of weeks with the kids. The whole place was clean. Location was perfect for me. Shops, restaurants and things to do near by. Big thanks to housekeeping and maintenance crew who worked 6th-22 April, you were all great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>The staff at the motel were great. Rooms are good sized. I was able to request fridge, Microwave etc as I was staying a couple of weeks with the kids. The whole place was clean. Location was perfect for me. Shops, restaurants and things to do near by. Big thanks to housekeeping and maintenance crew who worked 6th-22 April, you were all great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r198790343-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>198790343</t>
+  </si>
+  <si>
+    <t>03/26/2014</t>
+  </si>
+  <si>
+    <t>Best Motel 6 I stayed at</t>
+  </si>
+  <si>
+    <t>The motel is clean, nice lobby, beds are comfy, great location for eating out.  The day I went I was able to check in early because the room was clean.  The  staff was great.  They do have transport truck and buses that park in lot when they stay there, so it takes up a lot of parking spaces.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded March 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2014</t>
+  </si>
+  <si>
+    <t>The motel is clean, nice lobby, beds are comfy, great location for eating out.  The day I went I was able to check in early because the room was clean.  The  staff was great.  They do have transport truck and buses that park in lot when they stay there, so it takes up a lot of parking spaces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r198694801-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>198694801</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>Great value, incredible staff, awesome location. All good. Kudos to management and staff</t>
+  </si>
+  <si>
+    <t>I have travelled worldwide and stayed in some of the finest hotels money can buy. I can unequivocally and wholeheartedly say with convictin that the service, staff, rooms and maintenance of this establishment exceeded even my high standards. They are pet friendly too which is a bonus and have a pool, gazebo and BBQ pit. Parking is always readily available and well lit, free coffee and a business center coming soon. In addition the location is conveniently located near the 405 freeway and major shops, restaurants and a gym. All around I would give this motel 6 a six star rating out of a possible 5 and u can rest assured Janine and her staff will do their utmost to ensure your stay is both pleasureable and memorable. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>I have travelled worldwide and stayed in some of the finest hotels money can buy. I can unequivocally and wholeheartedly say with convictin that the service, staff, rooms and maintenance of this establishment exceeded even my high standards. They are pet friendly too which is a bonus and have a pool, gazebo and BBQ pit. Parking is always readily available and well lit, free coffee and a business center coming soon. In addition the location is conveniently located near the 405 freeway and major shops, restaurants and a gym. All around I would give this motel 6 a six star rating out of a possible 5 and u can rest assured Janine and her staff will do their utmost to ensure your stay is both pleasureable and memorable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r198075016-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>198075016</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>Best Motel 6 we have stayed at</t>
+  </si>
+  <si>
+    <t>Ignor old reviews this is pretty much redone and very nice. Clean, comfy beds, great location for shopping and eating out. The only negatives I had were that we drive transport truck and arrived early after days of driving and no one would allow a check in till 3pm. We waited 8 hrs then stood in line to check in. People check out all morning and rooms cleaned throughout day but won't let you in. Other motels do. Really sucked after days on the road then to stand line? The other issue was if you want a bath I guess thats a perk you cant do unless you bring your own plug. They do not provide. Strange -i like a tub soak when off the road have showers all the time. Just plug it with something yourself. Room was large, wall mounted flat screen, table and chairs, microwave worked great but from some other decade, fridge worked good. Overall great upgrade would stay again. Pets free and truck parking. Our boss forgot to book smoking which sucked but at 3pm check in one came available for us. The pool was awesome too. Wifi not great cuts in and out constantly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded March 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2014</t>
+  </si>
+  <si>
+    <t>Ignor old reviews this is pretty much redone and very nice. Clean, comfy beds, great location for shopping and eating out. The only negatives I had were that we drive transport truck and arrived early after days of driving and no one would allow a check in till 3pm. We waited 8 hrs then stood in line to check in. People check out all morning and rooms cleaned throughout day but won't let you in. Other motels do. Really sucked after days on the road then to stand line? The other issue was if you want a bath I guess thats a perk you cant do unless you bring your own plug. They do not provide. Strange -i like a tub soak when off the road have showers all the time. Just plug it with something yourself. Room was large, wall mounted flat screen, table and chairs, microwave worked great but from some other decade, fridge worked good. Overall great upgrade would stay again. Pets free and truck parking. Our boss forgot to book smoking which sucked but at 3pm check in one came available for us. The pool was awesome too. Wifi not great cuts in and out constantly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r191585248-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>191585248</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>NOT your typical Motel 6</t>
+  </si>
+  <si>
+    <t>WOW...love this motel. The room was amazing. This is not your typical Motel 6. They are renovating now but it is still super clean and quiet. I will stay here everytime I am in town from now on. I also love the idea that my dogs get to stay for free. They also loved the huge room. It is right across the street from the mall and anything you would want to eat is within walking distance. Great job guys...MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>WOW...love this motel. The room was amazing. This is not your typical Motel 6. They are renovating now but it is still super clean and quiet. I will stay here everytime I am in town from now on. I also love the idea that my dogs get to stay for free. They also loved the huge room. It is right across the street from the mall and anything you would want to eat is within walking distance. Great job guys...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r189926808-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>189926808</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>PERFECT STAY !</t>
+  </si>
+  <si>
+    <t>we stayed here last december with my husband and we have a great stay. room is nice and clean as the frontdesk staff JOE was very nice to us also he even help us carry our luggages in the room though i we know his alone during the night.  We didnt worry about leaving our important things inside the room because i had a good impression to this motel. Security is always on the ground to check safetyness.I love staying in this hotel which exceeds my expectations.. thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded January 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2014</t>
+  </si>
+  <si>
+    <t>we stayed here last december with my husband and we have a great stay. room is nice and clean as the frontdesk staff JOE was very nice to us also he even help us carry our luggages in the room though i we know his alone during the night.  We didnt worry about leaving our important things inside the room because i had a good impression to this motel. Security is always on the ground to check safetyness.I love staying in this hotel which exceeds my expectations.. thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r189833584-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>189833584</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>EXCELLENT CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>Room is very nice and huge compare to other Motel 6 I stayed in. Staff (Jojo) was very helpful and accommodating when we checked out. I would definitely stay again here in the future and will recommend this Hotel to all of my friends. And in addition I feel very secured to this location that they have a security during night time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded January 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2014</t>
+  </si>
+  <si>
+    <t>Room is very nice and huge compare to other Motel 6 I stayed in. Staff (Jojo) was very helpful and accommodating when we checked out. I would definitely stay again here in the future and will recommend this Hotel to all of my friends. And in addition I feel very secured to this location that they have a security during night time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r185525774-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>185525774</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms great!</t>
+  </si>
+  <si>
+    <t>This is my second time to stay at this hotel and I had a better experience! Compared to the old rooms, the new rooms were much comfortable, with fluffier pillows, newly painted walls, easier access to the lobby, still very clean, new digital aircon/heater and overall, everything feels new. If available, do request for the new rooms!The downside is that they didn't allow local calls that time and the parking area is being renovated.I would stay again next time coz this is the most affordable you can get at a great location and good rooms. For sure when they are done renovating, this can earn 5 stars for a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded November 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2013</t>
+  </si>
+  <si>
+    <t>This is my second time to stay at this hotel and I had a better experience! Compared to the old rooms, the new rooms were much comfortable, with fluffier pillows, newly painted walls, easier access to the lobby, still very clean, new digital aircon/heater and overall, everything feels new. If available, do request for the new rooms!The downside is that they didn't allow local calls that time and the parking area is being renovated.I would stay again next time coz this is the most affordable you can get at a great location and good rooms. For sure when they are done renovating, this can earn 5 stars for a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r179419350-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>179419350</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for and less</t>
+  </si>
+  <si>
+    <t>They were doing construction which wasn't listed anywhere when I booked. The parking lot has massive pot holes and even the driveway entrance I thought the bottom of my car would be scrapped off. Telephone was missing buttons, microwave had wrong plate in it so couldn't use it. Vending machine were out of order and the comforter I had had burn holes in it. You can tell the maids barely cleaned the room because under bathroom sink there was trash and also under bed. Even though rooms are inside its not secure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded October 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2013</t>
+  </si>
+  <si>
+    <t>They were doing construction which wasn't listed anywhere when I booked. The parking lot has massive pot holes and even the driveway entrance I thought the bottom of my car would be scrapped off. Telephone was missing buttons, microwave had wrong plate in it so couldn't use it. Vending machine were out of order and the comforter I had had burn holes in it. You can tell the maids barely cleaned the room because under bathroom sink there was trash and also under bed. Even though rooms are inside its not secure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r175620102-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>175620102</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>The newly remodeled rooms are awesome!</t>
+  </si>
+  <si>
+    <t>I was in a newly remodeled room and it was awesome.  Above average size for a king room with a fridge and microwave.  LOVE the wood laminate floors.  You know if it's clean or not--unlike carpeting.  The bathroom had all new fixtures which worked wonderfully.    It does not matter to me,  but there is no furniture in the room except for the bed, built-in table and bench seat, and a chair-No dressers.  For me, I never use dressers in a hotel.  I literally live out of the suitcase.   The 32" flat screen TV is built-in and mounted on the wall opposite the bed.  Would be nice if there was HD programming for the HD-ready TV.  I was very pleased with the internet speed.  The free wifi is faster than most hotels.  
+There was a strange quirk with my room key--it kept getting demagnetized almost everyday.   I have never had that happen as often as this.  The staff said it was probably my phone demagnetizing it.  Mythbusters has debunked this, but I kept the keycard away from my phone thereafter, but it would still get demagnetized.  I am assuming it is the new locking software for Motel 6 just took over the property, so there could still be some software kinks to work out.  
+Also, because they just took over, there was also areas of the hotel still in need of renovation.  There were ladders and drop cloths in the lobby....I was in a newly remodeled room and it was awesome.  Above average size for a king room with a fridge and microwave.  LOVE the wood laminate floors.  You know if it's clean or not--unlike carpeting.  The bathroom had all new fixtures which worked wonderfully.    It does not matter to me,  but there is no furniture in the room except for the bed, built-in table and bench seat, and a chair-No dressers.  For me, I never use dressers in a hotel.  I literally live out of the suitcase.   The 32" flat screen TV is built-in and mounted on the wall opposite the bed.  Would be nice if there was HD programming for the HD-ready TV.  I was very pleased with the internet speed.  The free wifi is faster than most hotels.  There was a strange quirk with my room key--it kept getting demagnetized almost everyday.   I have never had that happen as often as this.  The staff said it was probably my phone demagnetizing it.  Mythbusters has debunked this, but I kept the keycard away from my phone thereafter, but it would still get demagnetized.  I am assuming it is the new locking software for Motel 6 just took over the property, so there could still be some software kinks to work out.  Also, because they just took over, there was also areas of the hotel still in need of renovation.  There were ladders and drop cloths in the lobby.  There were workers on the property daily but there was no noise during sleeping hours.  I am not letting the ongoing renovations bother me, for it is temporary.  The place will be awesome when they are done.  There was always plenty of parking.  Locationwise, there is a Target and mall food court for food across the street.  A few other restaurants including Chiles and Tony Romas are in the are.  Also, a 24 Hours fitness.  NO excuse to miss the gym when it's right there.I really appreciated the room.  I had never stayed in a Motel 6 before and I was very pleased.  The most pleasing aspect was most everything was new.  I hope Motel 6 maintains the property so this place is a nice one year, two years from now.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>I was in a newly remodeled room and it was awesome.  Above average size for a king room with a fridge and microwave.  LOVE the wood laminate floors.  You know if it's clean or not--unlike carpeting.  The bathroom had all new fixtures which worked wonderfully.    It does not matter to me,  but there is no furniture in the room except for the bed, built-in table and bench seat, and a chair-No dressers.  For me, I never use dressers in a hotel.  I literally live out of the suitcase.   The 32" flat screen TV is built-in and mounted on the wall opposite the bed.  Would be nice if there was HD programming for the HD-ready TV.  I was very pleased with the internet speed.  The free wifi is faster than most hotels.  
+There was a strange quirk with my room key--it kept getting demagnetized almost everyday.   I have never had that happen as often as this.  The staff said it was probably my phone demagnetizing it.  Mythbusters has debunked this, but I kept the keycard away from my phone thereafter, but it would still get demagnetized.  I am assuming it is the new locking software for Motel 6 just took over the property, so there could still be some software kinks to work out.  
+Also, because they just took over, there was also areas of the hotel still in need of renovation.  There were ladders and drop cloths in the lobby....I was in a newly remodeled room and it was awesome.  Above average size for a king room with a fridge and microwave.  LOVE the wood laminate floors.  You know if it's clean or not--unlike carpeting.  The bathroom had all new fixtures which worked wonderfully.    It does not matter to me,  but there is no furniture in the room except for the bed, built-in table and bench seat, and a chair-No dressers.  For me, I never use dressers in a hotel.  I literally live out of the suitcase.   The 32" flat screen TV is built-in and mounted on the wall opposite the bed.  Would be nice if there was HD programming for the HD-ready TV.  I was very pleased with the internet speed.  The free wifi is faster than most hotels.  There was a strange quirk with my room key--it kept getting demagnetized almost everyday.   I have never had that happen as often as this.  The staff said it was probably my phone demagnetizing it.  Mythbusters has debunked this, but I kept the keycard away from my phone thereafter, but it would still get demagnetized.  I am assuming it is the new locking software for Motel 6 just took over the property, so there could still be some software kinks to work out.  Also, because they just took over, there was also areas of the hotel still in need of renovation.  There were ladders and drop cloths in the lobby.  There were workers on the property daily but there was no noise during sleeping hours.  I am not letting the ongoing renovations bother me, for it is temporary.  The place will be awesome when they are done.  There was always plenty of parking.  Locationwise, there is a Target and mall food court for food across the street.  A few other restaurants including Chiles and Tony Romas are in the are.  Also, a 24 Hours fitness.  NO excuse to miss the gym when it's right there.I really appreciated the room.  I had never stayed in a Motel 6 before and I was very pleased.  The most pleasing aspect was most everything was new.  I hope Motel 6 maintains the property so this place is a nice one year, two years from now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r162571065-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>162571065</t>
+  </si>
+  <si>
+    <t>05/31/2013</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Great Location</t>
+  </si>
+  <si>
+    <t>I'm on my last day here at Motel 6 and I have to say that I enjoyed my stay here and will choose to stay here again on my next trip!
+THE GOOD: Love the location! It is in front of commercial establishments such as IKEA, Target, SouthBay Pavillion (JC Penny, Sears, small food court, and some stores) and there's Starbucks by the intersection. Beside Motel 6 is Carson Buffet for your hungry tummy!
+The Room: I got a 2-double bed room on the second floor with a toilet and bath, flat screen tv, heater/airconditioning, small refrigirator and microwave. Practically everything I need is here. Oh except for a hair dryer. Had to dry my hair by the A/C on fan mode. The bathroom is ok, with hot and cold shower. The view out my window is not much fun - just the driveway at the back. Room and toilet is generally clean and they will clean it everyday unless you post your do not disturb sign by the door knob.
+There is a swimming pool ang barbeque area which I believe can be used by everyone. It is quiet most of the times. There's coffee by the lobby ( I thnk its free but I didnt try it) and there's a vendo to buy your soda or bottled water.
+We got this room via AGODA on a very cheap deal of around &lt;$50 per night which is great!
+THE...I'm on my last day here at Motel 6 and I have to say that I enjoyed my stay here and will choose to stay here again on my next trip!THE GOOD: Love the location! It is in front of commercial establishments such as IKEA, Target, SouthBay Pavillion (JC Penny, Sears, small food court, and some stores) and there's Starbucks by the intersection. Beside Motel 6 is Carson Buffet for your hungry tummy!The Room: I got a 2-double bed room on the second floor with a toilet and bath, flat screen tv, heater/airconditioning, small refrigirator and microwave. Practically everything I need is here. Oh except for a hair dryer. Had to dry my hair by the A/C on fan mode. The bathroom is ok, with hot and cold shower. The view out my window is not much fun - just the driveway at the back. Room and toilet is generally clean and they will clean it everyday unless you post your do not disturb sign by the door knob.There is a swimming pool ang barbeque area which I believe can be used by everyone. It is quiet most of the times. There's coffee by the lobby ( I thnk its free but I didnt try it) and there's a vendo to buy your soda or bottled water.We got this room via AGODA on a very cheap deal of around &lt;$50 per night which is great!THE BAD: The hotel is being renovated so there are hammerings by noon which may bother anyone on jetlag. The toilet seat in my room kinda moves when you sit down but there are no leaks so had to bear with it. No free breakfast! No restaurant and no room service! Shower on the next room can be heard loudly on my room! There is no elevator so you have to drag your luggages up &amp; down the stairs.The key cards always lose the room programming and I had to to bring it to reception so I can open my door again! I think I had that done around 4- 5 times which sucks. Reception said they are cheap cards and expect that to happen every now &amp; then.For the price, i think we got a little more than what we paid for. :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Jainine J, General Manager at Motel 6 Carson, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>I'm on my last day here at Motel 6 and I have to say that I enjoyed my stay here and will choose to stay here again on my next trip!
+THE GOOD: Love the location! It is in front of commercial establishments such as IKEA, Target, SouthBay Pavillion (JC Penny, Sears, small food court, and some stores) and there's Starbucks by the intersection. Beside Motel 6 is Carson Buffet for your hungry tummy!
+The Room: I got a 2-double bed room on the second floor with a toilet and bath, flat screen tv, heater/airconditioning, small refrigirator and microwave. Practically everything I need is here. Oh except for a hair dryer. Had to dry my hair by the A/C on fan mode. The bathroom is ok, with hot and cold shower. The view out my window is not much fun - just the driveway at the back. Room and toilet is generally clean and they will clean it everyday unless you post your do not disturb sign by the door knob.
+There is a swimming pool ang barbeque area which I believe can be used by everyone. It is quiet most of the times. There's coffee by the lobby ( I thnk its free but I didnt try it) and there's a vendo to buy your soda or bottled water.
+We got this room via AGODA on a very cheap deal of around &lt;$50 per night which is great!
+THE...I'm on my last day here at Motel 6 and I have to say that I enjoyed my stay here and will choose to stay here again on my next trip!THE GOOD: Love the location! It is in front of commercial establishments such as IKEA, Target, SouthBay Pavillion (JC Penny, Sears, small food court, and some stores) and there's Starbucks by the intersection. Beside Motel 6 is Carson Buffet for your hungry tummy!The Room: I got a 2-double bed room on the second floor with a toilet and bath, flat screen tv, heater/airconditioning, small refrigirator and microwave. Practically everything I need is here. Oh except for a hair dryer. Had to dry my hair by the A/C on fan mode. The bathroom is ok, with hot and cold shower. The view out my window is not much fun - just the driveway at the back. Room and toilet is generally clean and they will clean it everyday unless you post your do not disturb sign by the door knob.There is a swimming pool ang barbeque area which I believe can be used by everyone. It is quiet most of the times. There's coffee by the lobby ( I thnk its free but I didnt try it) and there's a vendo to buy your soda or bottled water.We got this room via AGODA on a very cheap deal of around &lt;$50 per night which is great!THE BAD: The hotel is being renovated so there are hammerings by noon which may bother anyone on jetlag. The toilet seat in my room kinda moves when you sit down but there are no leaks so had to bear with it. No free breakfast! No restaurant and no room service! Shower on the next room can be heard loudly on my room! There is no elevator so you have to drag your luggages up &amp; down the stairs.The key cards always lose the room programming and I had to to bring it to reception so I can open my door again! I think I had that done around 4- 5 times which sucks. Reception said they are cheap cards and expect that to happen every now &amp; then.For the price, i think we got a little more than what we paid for. :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r160719724-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>160719724</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Great location, super good rates - even with active construction on site!</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it came up as being the closest hotel near the Home Depot Center (Wango Tango 2013), and it's reviews were fairly descent so I decided to give it a try. Pulling up to the hotel, it is very obvious that it's undergoing some much needed renovation but the clerk at the front desk (Maria) was really friendly and even gave us some great pointers when it came to the event we were to attend (parking, taking a taxi, calling us a taxi even!). The newly renovated rooms are very updated with minimal style, hard wood flooring and updated appliances. The beds were better than I expected, but bring your own pillows, the one's they give you are incredibly flat and overused. Overall, the location of this hotel is great, the mall and IKEA are literally right across the street and the best part is how cheap the nightly rate was! I would definitely recommend this hotel for anyone that is looking for a soft place to fall after a long day of shopping or rocking out at the Wango Tango concert!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it came up as being the closest hotel near the Home Depot Center (Wango Tango 2013), and it's reviews were fairly descent so I decided to give it a try. Pulling up to the hotel, it is very obvious that it's undergoing some much needed renovation but the clerk at the front desk (Maria) was really friendly and even gave us some great pointers when it came to the event we were to attend (parking, taking a taxi, calling us a taxi even!). The newly renovated rooms are very updated with minimal style, hard wood flooring and updated appliances. The beds were better than I expected, but bring your own pillows, the one's they give you are incredibly flat and overused. Overall, the location of this hotel is great, the mall and IKEA are literally right across the street and the best part is how cheap the nightly rate was! I would definitely recommend this hotel for anyone that is looking for a soft place to fall after a long day of shopping or rocking out at the Wango Tango concert!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r155019764-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>155019764</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>WOW!</t>
+  </si>
+  <si>
+    <t>I am from out of town working a construction job. Going to stay here for a month.Immediate Check-in. Awesome rate. Friendly staff.They are in the process of remodeling the other rooms. I have a Remodeled Room.Great Job Motel 6. This room is awesome. Ultra Modern with bamboo flooring. Nook cushion seat with fixed table. Modern Bath. Super Clean. Warm Colors.People complain the room is dark/depressing, Well, "turn on the lights and take your pills"The room is bright and "exciting".Fridge and Microwave.Free WiFi. I tested it, .92 mb download, .52 mb upload. Good for general use.There is a built in media hub below the T.V. Plug in your computer, Play Station, X-Box, IPOD, etc..(bring the proper connection cables for your device- DVI, HDMI, USB, RCA).Shopping Mall across the street and many places to eat.People complain/sent a review of "undesirable" people. LOL. Not here. I work construction to provide for my family. I am an upstanding citizen, and I would never hurt a soul. After work, I am dirty. Holes in my levi's, dirty work boots, I'm Tired and looking beat-up. Please don't judge me as "undesirable". Think first before you judge anyone.This is the best Motel 6 I have ever stayed in. Take the bad reviews with a grain of salt. Everybody likes to complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I am from out of town working a construction job. Going to stay here for a month.Immediate Check-in. Awesome rate. Friendly staff.They are in the process of remodeling the other rooms. I have a Remodeled Room.Great Job Motel 6. This room is awesome. Ultra Modern with bamboo flooring. Nook cushion seat with fixed table. Modern Bath. Super Clean. Warm Colors.People complain the room is dark/depressing, Well, "turn on the lights and take your pills"The room is bright and "exciting".Fridge and Microwave.Free WiFi. I tested it, .92 mb download, .52 mb upload. Good for general use.There is a built in media hub below the T.V. Plug in your computer, Play Station, X-Box, IPOD, etc..(bring the proper connection cables for your device- DVI, HDMI, USB, RCA).Shopping Mall across the street and many places to eat.People complain/sent a review of "undesirable" people. LOL. Not here. I work construction to provide for my family. I am an upstanding citizen, and I would never hurt a soul. After work, I am dirty. Holes in my levi's, dirty work boots, I'm Tired and looking beat-up. Please don't judge me as "undesirable". Think first before you judge anyone.This is the best Motel 6 I have ever stayed in. Take the bad reviews with a grain of salt. Everybody likes to complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r149042948-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>149042948</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Definitely No Hospitality, Poor Condition Rooms</t>
+  </si>
+  <si>
+    <t>You get what you pay for definitely.  The front desk receptionist does not care about their guests, no hospitality.  The television in the room did not work and the electric outlet did not work either, the bathroom water never had a steady temperature, warm water changes drastically to hot temperature while not even moving the temp water.  Very horrible experiences.  I typically go to Motel 6 but I don't think I'll ever consider going to any Motel 6 ever especially with this one experience.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r143958595-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>143958595</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>No Hospitality</t>
+  </si>
+  <si>
+    <t>The rooms were remodeled with laminate hard wood floors that were loud with every step.  The updated rooms were uninviting and made my mood depressed. That's not the worst part, the actual hotel owner was rude.  I didn't know some of the rooms had microwaves until I called the front desk to ask about having one brought to my room because I have 2 babies and needed to warm their bottles. The rep at the front desk told me I could not have one brought to my room, but I could, in the middle of the night, go to the front desk and have whoever was working at the front desk take to a vacant room where a microwave was so that I could use it.  When I spoke with the rude owner in the morning about the issue he informed that his hotel was not a 3 or 4 star.  Then I found out he blacklisted me from coming again to his hotel.  Wow, what a jerk.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>The rooms were remodeled with laminate hard wood floors that were loud with every step.  The updated rooms were uninviting and made my mood depressed. That's not the worst part, the actual hotel owner was rude.  I didn't know some of the rooms had microwaves until I called the front desk to ask about having one brought to my room because I have 2 babies and needed to warm their bottles. The rep at the front desk told me I could not have one brought to my room, but I could, in the middle of the night, go to the front desk and have whoever was working at the front desk take to a vacant room where a microwave was so that I could use it.  When I spoke with the rude owner in the morning about the issue he informed that his hotel was not a 3 or 4 star.  Then I found out he blacklisted me from coming again to his hotel.  Wow, what a jerk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r141052939-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>141052939</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Stayed here first part of September 2012. Checked in at around 11:30 p.m.; tired from a 6 hour road trip up north. We chose this motel cause it was close to some friends we were visiting. First thing was that the night counter person had a very poor attitude. The lady's cleaning the rooms are more friendly. If I hand you something I expect you to hand it back to me, not toss it back to me on the counter. There are no elevators and we had to carry our bags up this flight of stairs to the second floor, no problem. My thing is, the counter person did not even offer any kind of assistance.The good thing is that the room was clean and comfortable. There are a few shopping complex within walking distance.There is no laundry facility. Vending and ice machines only (high priced)(had to get food, drinks, etc. else where).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Stayed here first part of September 2012. Checked in at around 11:30 p.m.; tired from a 6 hour road trip up north. We chose this motel cause it was close to some friends we were visiting. First thing was that the night counter person had a very poor attitude. The lady's cleaning the rooms are more friendly. If I hand you something I expect you to hand it back to me, not toss it back to me on the counter. There are no elevators and we had to carry our bags up this flight of stairs to the second floor, no problem. My thing is, the counter person did not even offer any kind of assistance.The good thing is that the room was clean and comfortable. There are a few shopping complex within walking distance.There is no laundry facility. Vending and ice machines only (high priced)(had to get food, drinks, etc. else where).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r135021168-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>135021168</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Lots of MOLD in room 173! Watch out!</t>
+  </si>
+  <si>
+    <t>They tried to put us in a room that was damp with mold all in the bathroom and walls. Carpets were still damp. It was disgusting. They moved us but that's it. They didn't even assure us the room would be shut off! My lungs were hurting along with the other 3 people</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r134537105-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>134537105</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Stay somewhere else.</t>
+  </si>
+  <si>
+    <t>Reserved a NON smoking room. Hallway reeked of smoke. Room not too bad. Cigarette burns in the comforter. Air conditioner thermostat knob was broken off so only the fan worked. That was just the first 15 minutes. After spending the next day out, came back to the room in the evening, the room had not been serviced. Beds still unmade, no fresh towels/linens. Called to ask why and to at least get fresh towels and was told "all we have are hand towels you can try tomorrow." O...K...? Had plans so I wasn't able to pursue this further right then. Came back from event around 1:30am. Key card wouldn't unlock door!! Seriously!? 
+ We went to the front desk(1:30am) to figure out why. Somehow we had been checked out of our room and put in another.  ??? 
+ The night manager was the bright spot. Not the most talkative or engaging guy, He just took care of things. We asked about the towels and like a magician he produced 4 of everything. 
+ The following days were better. The day before checkout 1 of the key cards stopped working. We had 2 so didn't bother getting it fixed. The last morning we were woken,hours before check out, by a knock at the door. I answered it and it was the cleaning staff ready to service the room. He said (pointing to paperwork) "Oh, My list shows you as checked out already." I told...Reserved a NON smoking room. Hallway reeked of smoke. Room not too bad. Cigarette burns in the comforter. Air conditioner thermostat knob was broken off so only the fan worked. That was just the first 15 minutes. After spending the next day out, came back to the room in the evening, the room had not been serviced. Beds still unmade, no fresh towels/linens. Called to ask why and to at least get fresh towels and was told "all we have are hand towels you can try tomorrow." O...K...? Had plans so I wasn't able to pursue this further right then. Came back from event around 1:30am. Key card wouldn't unlock door!! Seriously!?  We went to the front desk(1:30am) to figure out why. Somehow we had been checked out of our room and put in another.  ???  The night manager was the bright spot. Not the most talkative or engaging guy, He just took care of things. We asked about the towels and like a magician he produced 4 of everything.  The following days were better. The day before checkout 1 of the key cards stopped working. We had 2 so didn't bother getting it fixed. The last morning we were woken,hours before check out, by a knock at the door. I answered it and it was the cleaning staff ready to service the room. He said (pointing to paperwork) "Oh, My list shows you as checked out already." I told him we were checking out today.We did get a $25 refund for our troubles. That was good. Bottom line, I would only stay here if everything else in a 30 mile radius was sold out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Reserved a NON smoking room. Hallway reeked of smoke. Room not too bad. Cigarette burns in the comforter. Air conditioner thermostat knob was broken off so only the fan worked. That was just the first 15 minutes. After spending the next day out, came back to the room in the evening, the room had not been serviced. Beds still unmade, no fresh towels/linens. Called to ask why and to at least get fresh towels and was told "all we have are hand towels you can try tomorrow." O...K...? Had plans so I wasn't able to pursue this further right then. Came back from event around 1:30am. Key card wouldn't unlock door!! Seriously!? 
+ We went to the front desk(1:30am) to figure out why. Somehow we had been checked out of our room and put in another.  ??? 
+ The night manager was the bright spot. Not the most talkative or engaging guy, He just took care of things. We asked about the towels and like a magician he produced 4 of everything. 
+ The following days were better. The day before checkout 1 of the key cards stopped working. We had 2 so didn't bother getting it fixed. The last morning we were woken,hours before check out, by a knock at the door. I answered it and it was the cleaning staff ready to service the room. He said (pointing to paperwork) "Oh, My list shows you as checked out already." I told...Reserved a NON smoking room. Hallway reeked of smoke. Room not too bad. Cigarette burns in the comforter. Air conditioner thermostat knob was broken off so only the fan worked. That was just the first 15 minutes. After spending the next day out, came back to the room in the evening, the room had not been serviced. Beds still unmade, no fresh towels/linens. Called to ask why and to at least get fresh towels and was told "all we have are hand towels you can try tomorrow." O...K...? Had plans so I wasn't able to pursue this further right then. Came back from event around 1:30am. Key card wouldn't unlock door!! Seriously!?  We went to the front desk(1:30am) to figure out why. Somehow we had been checked out of our room and put in another.  ???  The night manager was the bright spot. Not the most talkative or engaging guy, He just took care of things. We asked about the towels and like a magician he produced 4 of everything.  The following days were better. The day before checkout 1 of the key cards stopped working. We had 2 so didn't bother getting it fixed. The last morning we were woken,hours before check out, by a knock at the door. I answered it and it was the cleaning staff ready to service the room. He said (pointing to paperwork) "Oh, My list shows you as checked out already." I told him we were checking out today.We did get a $25 refund for our troubles. That was good. Bottom line, I would only stay here if everything else in a 30 mile radius was sold out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r131758037-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>131758037</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Don't believe the pictures!</t>
+  </si>
+  <si>
+    <t>The pictures show a couple of nicely renovated rooms and nice looking facility.  Do not believe your eyes.  This place was clean but had a strong odor of sickly sweet cleaning supply.  Our room had not been renovated in many years.  Bedding was old and the pillows were a joke.  There are transients living at the hotel as we saw the school bus pick the children up and bring them home. Outside doors were never locked allowing easy access to anyone off the street.    I will never stay in a hotel again that I haven't checked out personally. Other reviews have mentioned breakfast and coffee service.  There is no breakfast and the coffee is served from a machine.   This hotel gives Motel 6 a bad name in my opinion.  Felt we were overcharged for what we received.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The pictures show a couple of nicely renovated rooms and nice looking facility.  Do not believe your eyes.  This place was clean but had a strong odor of sickly sweet cleaning supply.  Our room had not been renovated in many years.  Bedding was old and the pillows were a joke.  There are transients living at the hotel as we saw the school bus pick the children up and bring them home. Outside doors were never locked allowing easy access to anyone off the street.    I will never stay in a hotel again that I haven't checked out personally. Other reviews have mentioned breakfast and coffee service.  There is no breakfast and the coffee is served from a machine.   This hotel gives Motel 6 a bad name in my opinion.  Felt we were overcharged for what we received.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r123878329-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>123878329</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Find Another Hotel</t>
+  </si>
+  <si>
+    <t>We originally booked this hotel through Hotwire back when it was a Clarion Inn. It was rated a 3-Star hotel with decent amenities. I never got a notice from Hotwire about the name change until I inquired about it a week before our trip. I was resent a confirmation for the Motel 6, also rated a 3-Star with the same amenities, so things seemed okay even for it being a Motel 6.We only planned to stay one night before flying out of LAX the next morning. However, when we checked in, things changed. C.J. at the front desk was extremely helpful. The hotel itself, sketchy and in a questionable part of town. From where our room was located, you had to walk outside around the hotel to the front desk due to major remodeling. The room itself had a broken window that was open, torn curtains, severely peeling wallpaper and a phone with no buttons. Furthermore, none of the amenities that Hotwire had indicated. While walking down the hall, another guest mentioned a group of teenagers had come into the building the night prior and had a loud gathering in the off-limits area of the remodeling. My wife, infant child, and I felt very unsafe and after complaining to Hotwire and having them reserve us a new hotel, we promptly packed up and left as fast as we could.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>We originally booked this hotel through Hotwire back when it was a Clarion Inn. It was rated a 3-Star hotel with decent amenities. I never got a notice from Hotwire about the name change until I inquired about it a week before our trip. I was resent a confirmation for the Motel 6, also rated a 3-Star with the same amenities, so things seemed okay even for it being a Motel 6.We only planned to stay one night before flying out of LAX the next morning. However, when we checked in, things changed. C.J. at the front desk was extremely helpful. The hotel itself, sketchy and in a questionable part of town. From where our room was located, you had to walk outside around the hotel to the front desk due to major remodeling. The room itself had a broken window that was open, torn curtains, severely peeling wallpaper and a phone with no buttons. Furthermore, none of the amenities that Hotwire had indicated. While walking down the hall, another guest mentioned a group of teenagers had come into the building the night prior and had a loud gathering in the off-limits area of the remodeling. My wife, infant child, and I felt very unsafe and after complaining to Hotwire and having them reserve us a new hotel, we promptly packed up and left as fast as we could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r121292566-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>121292566</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>Great staff, clean, but extremely "get what you pay for" in other regards</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were incredibly wonderful, helpful, and accommodating. The staff were lovely, and help make up for the deficits in other areas. The actual hotel itself was very low budget, although it was clean. There were no outlets in the bathroom, the hot water was only luke warm, the toilet seat was very scratched up, the blankets on the bed weren't very warm. It is definitely a "get what you pay for" hotel, and if you don't want to pay very much money and just want a place to lay your head, this is a good option.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r118494629-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>118494629</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>Although the Hotel was in the process of remodeling, the fitness center should not have been used as a storage for construction workers tools and beds from rooms being redone. The breakfast was actually pretty decent with a wide variety of choices. I think since the hotel was in the process of remodeling and there were many inconveniences for the guest, that their prices should have been reduced.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r116679827-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>116679827</t>
+  </si>
+  <si>
+    <t>08/13/2011</t>
+  </si>
+  <si>
+    <t>Nice sleep, convenient location</t>
+  </si>
+  <si>
+    <t>Had a wedding to attend the next morning -- this was a good choice.  Price was reasonable.  Room was comfortable and clean.   I was awakened by an angry woman in the hallway around 3 a.m., yelling on her cell.   No idea how she got in the locked hallway.   There is a smoky smell in the non-smoking hallways, I guess that's typical. right?  And the vending machines -- $2 for a bottle of warm water.   All in all, however, a decent one-night sleepover.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r115687908-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>115687908</t>
+  </si>
+  <si>
+    <t>07/23/2011</t>
+  </si>
+  <si>
+    <t>Decent place for the price</t>
+  </si>
+  <si>
+    <t>Booked three nights with priceline &amp; was a really good deal- hotel is average- nice staff - location is a little out of the way- but you can't beat the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r115641005-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>115641005</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>BEWARE THE BIG ROACHES</t>
+  </si>
+  <si>
+    <t>i stayed there for sometime, i would say a good month and one morning i woke up to get some breakfast and a dead ROACH was in the middle of the hallway. I called the front desk three times to get it up and they didnt! We also found one in are bath tub the size of a donut hole. We asked if we could getaway night free but the manger refuse and took 10 dollars off are bill. Also the pool was green for about 2 whole weeks, my husband and i will never stay at this hotel again. I rather stay at a hilton,where i know it will at least be clean and have a good staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>i stayed there for sometime, i would say a good month and one morning i woke up to get some breakfast and a dead ROACH was in the middle of the hallway. I called the front desk three times to get it up and they didnt! We also found one in are bath tub the size of a donut hole. We asked if we could getaway night free but the manger refuse and took 10 dollars off are bill. Also the pool was green for about 2 whole weeks, my husband and i will never stay at this hotel again. I rather stay at a hilton,where i know it will at least be clean and have a good staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r105715014-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>105715014</t>
+  </si>
+  <si>
+    <t>04/26/2011</t>
+  </si>
+  <si>
+    <t>Old hotel pay an extra $20 to get a better hotel nearby</t>
+  </si>
+  <si>
+    <t>This hotel was horrible, old, smelly and I just didn't feel safe. We ended up staying for one night since it was late but booked at a different hotel nearby first thing in the morning. All I need is a clean comfy room and I need to feel like it's a safe environment. This hotel did not provide that for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>clarionsouthbay, General Manager at Motel 6 Carson, responded to this reviewResponded May 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2011</t>
+  </si>
+  <si>
+    <t>This hotel was horrible, old, smelly and I just didn't feel safe. We ended up staying for one night since it was late but booked at a different hotel nearby first thing in the morning. All I need is a clean comfy room and I need to feel like it's a safe environment. This hotel did not provide that for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r100770093-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>100770093</t>
+  </si>
+  <si>
+    <t>03/19/2011</t>
+  </si>
+  <si>
+    <t>Good hotel... Location not so great</t>
+  </si>
+  <si>
+    <t>getting to the hotel didnt take very long; about 15 minutes from LAX. First impressions was it looked quiet good. The rooms were very cleans and the beds were comfy. We had cable in the room which gave a variety of channels so sometimes it felt good to stay in.
+Breakfast was a great start to the morning, especially the fresh waffles... the hotel provides the batter and you make the waffles yourself which was quite fun, there was other option such as cereal and toast etc. Hotel staff were very helpful and didn't seem too bothered by anything we asked of them.
+The mall across the street was very usful, there are many restaurants and shopping facilities so you didnt have to travel far to get a good meal. 
+You need to to travel on the trains to get to any of the main tourist attractions (namely hollywood) but this wasnt too much bother as the days were nice. Though it did usually take about a hour each way, which seems like such a long journey on the way back to the hotel.
+Downsides -  the hotel had a swimming pool but during our stay we were unable to use it due to some works going on with it, which was quite a disappointment.
+Also, at one point I keft my phone in the room and come back to find it was not there, on reporting this to reception...getting to the hotel didnt take very long; about 15 minutes from LAX. First impressions was it looked quiet good. The rooms were very cleans and the beds were comfy. We had cable in the room which gave a variety of channels so sometimes it felt good to stay in.Breakfast was a great start to the morning, especially the fresh waffles... the hotel provides the batter and you make the waffles yourself which was quite fun, there was other option such as cereal and toast etc. Hotel staff were very helpful and didn't seem too bothered by anything we asked of them.The mall across the street was very usful, there are many restaurants and shopping facilities so you didnt have to travel far to get a good meal. You need to to travel on the trains to get to any of the main tourist attractions (namely hollywood) but this wasnt too much bother as the days were nice. Though it did usually take about a hour each way, which seems like such a long journey on the way back to the hotel.Downsides -  the hotel had a swimming pool but during our stay we were unable to use it due to some works going on with it, which was quite a disappointment.Also, at one point I keft my phone in the room and come back to find it was not there, on reporting this to reception my phone mysteriously appeared back in my room later that day, which the language being change to spanish... so I do believe it was stolen, but I guess I did get it back.Its a good hotel but the location could be better for attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>clarionsouthbay, Manager at Motel 6 Carson, responded to this reviewResponded May 10, 2011</t>
+  </si>
+  <si>
+    <t>getting to the hotel didnt take very long; about 15 minutes from LAX. First impressions was it looked quiet good. The rooms were very cleans and the beds were comfy. We had cable in the room which gave a variety of channels so sometimes it felt good to stay in.
+Breakfast was a great start to the morning, especially the fresh waffles... the hotel provides the batter and you make the waffles yourself which was quite fun, there was other option such as cereal and toast etc. Hotel staff were very helpful and didn't seem too bothered by anything we asked of them.
+The mall across the street was very usful, there are many restaurants and shopping facilities so you didnt have to travel far to get a good meal. 
+You need to to travel on the trains to get to any of the main tourist attractions (namely hollywood) but this wasnt too much bother as the days were nice. Though it did usually take about a hour each way, which seems like such a long journey on the way back to the hotel.
+Downsides -  the hotel had a swimming pool but during our stay we were unable to use it due to some works going on with it, which was quite a disappointment.
+Also, at one point I keft my phone in the room and come back to find it was not there, on reporting this to reception...getting to the hotel didnt take very long; about 15 minutes from LAX. First impressions was it looked quiet good. The rooms were very cleans and the beds were comfy. We had cable in the room which gave a variety of channels so sometimes it felt good to stay in.Breakfast was a great start to the morning, especially the fresh waffles... the hotel provides the batter and you make the waffles yourself which was quite fun, there was other option such as cereal and toast etc. Hotel staff were very helpful and didn't seem too bothered by anything we asked of them.The mall across the street was very usful, there are many restaurants and shopping facilities so you didnt have to travel far to get a good meal. You need to to travel on the trains to get to any of the main tourist attractions (namely hollywood) but this wasnt too much bother as the days were nice. Though it did usually take about a hour each way, which seems like such a long journey on the way back to the hotel.Downsides -  the hotel had a swimming pool but during our stay we were unable to use it due to some works going on with it, which was quite a disappointment.Also, at one point I keft my phone in the room and come back to find it was not there, on reporting this to reception my phone mysteriously appeared back in my room later that day, which the language being change to spanish... so I do believe it was stolen, but I guess I did get it back.Its a good hotel but the location could be better for attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r99479552-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>99479552</t>
+  </si>
+  <si>
+    <t>03/08/2011</t>
+  </si>
+  <si>
+    <t>OMG, what a dump</t>
+  </si>
+  <si>
+    <t>The location is pretty good; shopping and freeways nearby.  That's absolutely all it has going for it.Aside from that, the property is a dump.  Old and threadbare; and it gets worse.  Free Wi-fi?  Doesn't work.  Potholes in the parking lot you could lose your car in.  You can see daylight around our room door.  Thought I had see it all, but this is a new low.  Dark, dingy hallways smelled of pot and fried chicken.  You can hear EVERY WORD EVERYONE SAYS ALL THE WAY UP AND DOWN THE HALL.  ARE YOU GETTING THE HINT?  IT'S *NOISY*.Today is Tuesday; supposed to leave on Friday.  Dunno if I can make it or not.Prepaid through Hotwire, so no refunds or early checkouts.  BTW, don't use Hotwire.  Ever.  They claimed that 80% would recommend this dump.  I don't believe that for a New York minute.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>The location is pretty good; shopping and freeways nearby.  That's absolutely all it has going for it.Aside from that, the property is a dump.  Old and threadbare; and it gets worse.  Free Wi-fi?  Doesn't work.  Potholes in the parking lot you could lose your car in.  You can see daylight around our room door.  Thought I had see it all, but this is a new low.  Dark, dingy hallways smelled of pot and fried chicken.  You can hear EVERY WORD EVERYONE SAYS ALL THE WAY UP AND DOWN THE HALL.  ARE YOU GETTING THE HINT?  IT'S *NOISY*.Today is Tuesday; supposed to leave on Friday.  Dunno if I can make it or not.Prepaid through Hotwire, so no refunds or early checkouts.  BTW, don't use Hotwire.  Ever.  They claimed that 80% would recommend this dump.  I don't believe that for a New York minute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r90257183-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>90257183</t>
+  </si>
+  <si>
+    <t>12/19/2010</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>I felt deceived by the pictures. The rooms look nothing like the pictures. We got a non-smoking room that smelled like smoke, because there are smoking rooms right across the hall, so the enitre hallway and rooms smelled like smoke. Carpets were dirty and had holes in them. Chairs were dirty, trim was coming off the wall. Water pressure in the shower was low. Fitness Center was not in use.Paid $88($97 with tax) for this horrible room. The only nice things were the bed were comfortable, and the lobby was nice(as seen in the picture).The area is not bad, its right across from a mall, lots of place to eat. Good thing we were only down there one night for the CIF football championships.My advice do not stay there until they fix it up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I felt deceived by the pictures. The rooms look nothing like the pictures. We got a non-smoking room that smelled like smoke, because there are smoking rooms right across the hall, so the enitre hallway and rooms smelled like smoke. Carpets were dirty and had holes in them. Chairs were dirty, trim was coming off the wall. Water pressure in the shower was low. Fitness Center was not in use.Paid $88($97 with tax) for this horrible room. The only nice things were the bed were comfortable, and the lobby was nice(as seen in the picture).The area is not bad, its right across from a mall, lots of place to eat. Good thing we were only down there one night for the CIF football championships.My advice do not stay there until they fix it up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r89101190-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>89101190</t>
+  </si>
+  <si>
+    <t>12/05/2010</t>
+  </si>
+  <si>
+    <t>Good price, relatively close by car to attractions,</t>
+  </si>
+  <si>
+    <t>This hotel was perfectly fine for a budget hotel in suburban LA.  It's close enough to the highway to find easily, without being noisy. You get a perfectly adequate breakfast.  It's nothing fancy by any means, but if you're looking to explore LA without spending too much, you could do a lot, lot worse.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r86530687-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>86530687</t>
+  </si>
+  <si>
+    <t>11/09/2010</t>
+  </si>
+  <si>
+    <t>Bedbugs &amp; Biker Gangs</t>
+  </si>
+  <si>
+    <t>I stayed in the Clarion in Carson for 6 nights in November 2010, to attend a course nearby in Torrance.
+On the third night I found a bedbug crawling on the sheets, and it had already bitten me as I could see the blood in it's abdomen, which was pretty gross. I requested to move rooms. The manager was apologetic but offered nothing in the way of a bill reduction or voucher or anything. 
+On the sixth and final night, a group of bikers had a meeting in the hotel, and stayed up until 4am revving engines and shouting, and at one point letting off fireworks, and as my new room was at the front ot the hotel I got 3 hours sleep before the red-eye the following morning.
+Even aside from these incidents, the hotel was pretty grim. It had a drak gloomy feeling, no elevator to the upper rooms, and just felt plain dirty and run-down. The free wifi was terribly slow, too slow to voice-only skype, and I wasn't comfortable at night with my rental car in the carpark, it wasn't very secure or monitored.
+By way of compensation, one of the workers offered three nights free of the six, but then the manager withdrew that offer and would only give one. After a lot of back and forth he offered 2 and eventualy I was able to get 3 back, as I had booked through Hotwire,...I stayed in the Clarion in Carson for 6 nights in November 2010, to attend a course nearby in Torrance. On the third night I found a bedbug crawling on the sheets, and it had already bitten me as I could see the blood in it's abdomen, which was pretty gross. I requested to move rooms. The manager was apologetic but offered nothing in the way of a bill reduction or voucher or anything. On the sixth and final night, a group of bikers had a meeting in the hotel, and stayed up until 4am revving engines and shouting, and at one point letting off fireworks, and as my new room was at the front ot the hotel I got 3 hours sleep before the red-eye the following morning.Even aside from these incidents, the hotel was pretty grim. It had a drak gloomy feeling, no elevator to the upper rooms, and just felt plain dirty and run-down. The free wifi was terribly slow, too slow to voice-only skype, and I wasn't comfortable at night with my rental car in the carpark, it wasn't very secure or monitored.By way of compensation, one of the workers offered three nights free of the six, but then the manager withdrew that offer and would only give one. After a lot of back and forth he offered 2 and eventualy I was able to get 3 back, as I had booked through Hotwire, so I only had to pay for 3 of the 6 but even then it wasn't worth it.Avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I stayed in the Clarion in Carson for 6 nights in November 2010, to attend a course nearby in Torrance.
+On the third night I found a bedbug crawling on the sheets, and it had already bitten me as I could see the blood in it's abdomen, which was pretty gross. I requested to move rooms. The manager was apologetic but offered nothing in the way of a bill reduction or voucher or anything. 
+On the sixth and final night, a group of bikers had a meeting in the hotel, and stayed up until 4am revving engines and shouting, and at one point letting off fireworks, and as my new room was at the front ot the hotel I got 3 hours sleep before the red-eye the following morning.
+Even aside from these incidents, the hotel was pretty grim. It had a drak gloomy feeling, no elevator to the upper rooms, and just felt plain dirty and run-down. The free wifi was terribly slow, too slow to voice-only skype, and I wasn't comfortable at night with my rental car in the carpark, it wasn't very secure or monitored.
+By way of compensation, one of the workers offered three nights free of the six, but then the manager withdrew that offer and would only give one. After a lot of back and forth he offered 2 and eventualy I was able to get 3 back, as I had booked through Hotwire,...I stayed in the Clarion in Carson for 6 nights in November 2010, to attend a course nearby in Torrance. On the third night I found a bedbug crawling on the sheets, and it had already bitten me as I could see the blood in it's abdomen, which was pretty gross. I requested to move rooms. The manager was apologetic but offered nothing in the way of a bill reduction or voucher or anything. On the sixth and final night, a group of bikers had a meeting in the hotel, and stayed up until 4am revving engines and shouting, and at one point letting off fireworks, and as my new room was at the front ot the hotel I got 3 hours sleep before the red-eye the following morning.Even aside from these incidents, the hotel was pretty grim. It had a drak gloomy feeling, no elevator to the upper rooms, and just felt plain dirty and run-down. The free wifi was terribly slow, too slow to voice-only skype, and I wasn't comfortable at night with my rental car in the carpark, it wasn't very secure or monitored.By way of compensation, one of the workers offered three nights free of the six, but then the manager withdrew that offer and would only give one. After a lot of back and forth he offered 2 and eventualy I was able to get 3 back, as I had booked through Hotwire, so I only had to pay for 3 of the 6 but even then it wasn't worth it.Avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r73965329-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>73965329</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>Dirty ,smelly, and scary!  Don't stay here!!!  Poor lighting.  Didn't feel safe.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r72827857-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>72827857</t>
+  </si>
+  <si>
+    <t>07/29/2010</t>
+  </si>
+  <si>
+    <t>This hotel does not even have an elevator, and the pics online must be from when it first opened</t>
+  </si>
+  <si>
+    <t>I booked this hotel after reading the reviews of it extensively. The pictures looked really nice, and it was rated at 3 stars. We get there, and as we walked in I noticed that the front doors were open and they had a fan on to cool the lobby, and a small fan at that. While standing at the check out counter I noticed that behind the desk the walls were tore up and in need of repair, and there was another fan going behind the desk to cool the employees. I got a bad feeling then. We head to our room with out ton of luggage only to discover that there was no elevator and we had to carry all of it ourselves.  We get to the room and it smelled like a bar, total cigarette overpowering us. We go down and explain that we requested a non-smoking room. They give us a new room. The room is not what was pictured. In the pictures it showed the beds as having down comforters on them and not the old, ugly, nasty bedspreads that cheap hotels usually have. It was in need of major renovations. We called Expedia, who we booked through, only to be told that nobody else had openings for the 10 days were gonna be there. So, we stayed here. There was free breakfast, free parking, two of the major reasons this hotel was picked to begin...I booked this hotel after reading the reviews of it extensively. The pictures looked really nice, and it was rated at 3 stars. We get there, and as we walked in I noticed that the front doors were open and they had a fan on to cool the lobby, and a small fan at that. While standing at the check out counter I noticed that behind the desk the walls were tore up and in need of repair, and there was another fan going behind the desk to cool the employees. I got a bad feeling then. We head to our room with out ton of luggage only to discover that there was no elevator and we had to carry all of it ourselves.  We get to the room and it smelled like a bar, total cigarette overpowering us. We go down and explain that we requested a non-smoking room. They give us a new room. The room is not what was pictured. In the pictures it showed the beds as having down comforters on them and not the old, ugly, nasty bedspreads that cheap hotels usually have. It was in need of major renovations. We called Expedia, who we booked through, only to be told that nobody else had openings for the 10 days were gonna be there. So, we stayed here. There was free breakfast, free parking, two of the major reasons this hotel was picked to begin with. The first morning we went down for breakfast, we were really disappointed. The selection was make your own waffles ( which I LOVE) a couple fo different fruite, 3 cereals, toast, and bagels and juice. I could not make myself eat the waffles. They were horrible. I have never turned down a waffle and I could not eat them. The rest of the trip I didn't even bother going down there. So, my advice to all travelers would be to NOT stay at this hotel. We had never stayed at a Clarion before, and will not in the future. I am not sure if they are all this bad, but my guess would be yes. Oh, and the walls were paper thin, you could here everyone's everything. The matresses were old and hard as bricks, the pillow they give you, and it is only one each was lumpy and bumpy. The spread on the bed had repairs on the other side and looked like it was about 30 years old. And to top it all off these room were obviously not deisgned with a traveler in mind. it was hard to get ready. There were hardly any elecrtical outlets, only a couple of mirrors. The bath tub filled up as you took a shower, The shower was so low I had to practically do a backbend to wash my hair. The bathroom didn't have good ventilation and so steamed up bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel after reading the reviews of it extensively. The pictures looked really nice, and it was rated at 3 stars. We get there, and as we walked in I noticed that the front doors were open and they had a fan on to cool the lobby, and a small fan at that. While standing at the check out counter I noticed that behind the desk the walls were tore up and in need of repair, and there was another fan going behind the desk to cool the employees. I got a bad feeling then. We head to our room with out ton of luggage only to discover that there was no elevator and we had to carry all of it ourselves.  We get to the room and it smelled like a bar, total cigarette overpowering us. We go down and explain that we requested a non-smoking room. They give us a new room. The room is not what was pictured. In the pictures it showed the beds as having down comforters on them and not the old, ugly, nasty bedspreads that cheap hotels usually have. It was in need of major renovations. We called Expedia, who we booked through, only to be told that nobody else had openings for the 10 days were gonna be there. So, we stayed here. There was free breakfast, free parking, two of the major reasons this hotel was picked to begin...I booked this hotel after reading the reviews of it extensively. The pictures looked really nice, and it was rated at 3 stars. We get there, and as we walked in I noticed that the front doors were open and they had a fan on to cool the lobby, and a small fan at that. While standing at the check out counter I noticed that behind the desk the walls were tore up and in need of repair, and there was another fan going behind the desk to cool the employees. I got a bad feeling then. We head to our room with out ton of luggage only to discover that there was no elevator and we had to carry all of it ourselves.  We get to the room and it smelled like a bar, total cigarette overpowering us. We go down and explain that we requested a non-smoking room. They give us a new room. The room is not what was pictured. In the pictures it showed the beds as having down comforters on them and not the old, ugly, nasty bedspreads that cheap hotels usually have. It was in need of major renovations. We called Expedia, who we booked through, only to be told that nobody else had openings for the 10 days were gonna be there. So, we stayed here. There was free breakfast, free parking, two of the major reasons this hotel was picked to begin with. The first morning we went down for breakfast, we were really disappointed. The selection was make your own waffles ( which I LOVE) a couple fo different fruite, 3 cereals, toast, and bagels and juice. I could not make myself eat the waffles. They were horrible. I have never turned down a waffle and I could not eat them. The rest of the trip I didn't even bother going down there. So, my advice to all travelers would be to NOT stay at this hotel. We had never stayed at a Clarion before, and will not in the future. I am not sure if they are all this bad, but my guess would be yes. Oh, and the walls were paper thin, you could here everyone's everything. The matresses were old and hard as bricks, the pillow they give you, and it is only one each was lumpy and bumpy. The spread on the bed had repairs on the other side and looked like it was about 30 years old. And to top it all off these room were obviously not deisgned with a traveler in mind. it was hard to get ready. There were hardly any elecrtical outlets, only a couple of mirrors. The bath tub filled up as you took a shower, The shower was so low I had to practically do a backbend to wash my hair. The bathroom didn't have good ventilation and so steamed up bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r69413940-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>69413940</t>
+  </si>
+  <si>
+    <t>07/02/2010</t>
+  </si>
+  <si>
+    <t>Not bad at all for a budget hotel</t>
+  </si>
+  <si>
+    <t>We had a very decent experience at Clarion. The rooms were clean and proper, the bed was comfortable, the breakfast was correct for a standard complimentary continental. The parking was available (yes, there was no gates or security equipment, but it didn't seem to be a problem for us...). Our TV was not properly programmed when we arrived, but they fixed it in twenty minutes after I called the reception. The room had thick curtains, what gave us a good isolation from the outside light in the morning. They were very well acoustically isolated as well, very calm. The service was nice (they were responsive when I called). It's a very functional hotel for sleeping and having a rest after a day of tourism. 
+We were looking for a hotel that fits in our budget, and this one was perfect. There are some groceries, restaurants and shops around, giving us a lot of flexibility. 
+Negative points: location (a bit far from LA, but not too much from the airport; you will need a car to go to LA). Lots of traffic to LA touristic spots. However, it is not very far from Hermosa beach and Long beach, if you want to know the cold June LA beaches. Internet access was a little bit slow as well... but who cares?!
+Of course, it is not a five stars Bervelly Hills hotel, but if you want to spend your money in visits...We had a very decent experience at Clarion. The rooms were clean and proper, the bed was comfortable, the breakfast was correct for a standard complimentary continental. The parking was available (yes, there was no gates or security equipment, but it didn't seem to be a problem for us...). Our TV was not properly programmed when we arrived, but they fixed it in twenty minutes after I called the reception. The room had thick curtains, what gave us a good isolation from the outside light in the morning. They were very well acoustically isolated as well, very calm. The service was nice (they were responsive when I called). It's a very functional hotel for sleeping and having a rest after a day of tourism. We were looking for a hotel that fits in our budget, and this one was perfect. There are some groceries, restaurants and shops around, giving us a lot of flexibility. Negative points: location (a bit far from LA, but not too much from the airport; you will need a car to go to LA). Lots of traffic to LA touristic spots. However, it is not very far from Hermosa beach and Long beach, if you want to know the cold June LA beaches. Internet access was a little bit slow as well... but who cares?!Of course, it is not a five stars Bervelly Hills hotel, but if you want to spend your money in visits rather than in hotels, that's the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a very decent experience at Clarion. The rooms were clean and proper, the bed was comfortable, the breakfast was correct for a standard complimentary continental. The parking was available (yes, there was no gates or security equipment, but it didn't seem to be a problem for us...). Our TV was not properly programmed when we arrived, but they fixed it in twenty minutes after I called the reception. The room had thick curtains, what gave us a good isolation from the outside light in the morning. They were very well acoustically isolated as well, very calm. The service was nice (they were responsive when I called). It's a very functional hotel for sleeping and having a rest after a day of tourism. 
+We were looking for a hotel that fits in our budget, and this one was perfect. There are some groceries, restaurants and shops around, giving us a lot of flexibility. 
+Negative points: location (a bit far from LA, but not too much from the airport; you will need a car to go to LA). Lots of traffic to LA touristic spots. However, it is not very far from Hermosa beach and Long beach, if you want to know the cold June LA beaches. Internet access was a little bit slow as well... but who cares?!
+Of course, it is not a five stars Bervelly Hills hotel, but if you want to spend your money in visits...We had a very decent experience at Clarion. The rooms were clean and proper, the bed was comfortable, the breakfast was correct for a standard complimentary continental. The parking was available (yes, there was no gates or security equipment, but it didn't seem to be a problem for us...). Our TV was not properly programmed when we arrived, but they fixed it in twenty minutes after I called the reception. The room had thick curtains, what gave us a good isolation from the outside light in the morning. They were very well acoustically isolated as well, very calm. The service was nice (they were responsive when I called). It's a very functional hotel for sleeping and having a rest after a day of tourism. We were looking for a hotel that fits in our budget, and this one was perfect. There are some groceries, restaurants and shops around, giving us a lot of flexibility. Negative points: location (a bit far from LA, but not too much from the airport; you will need a car to go to LA). Lots of traffic to LA touristic spots. However, it is not very far from Hermosa beach and Long beach, if you want to know the cold June LA beaches. Internet access was a little bit slow as well... but who cares?!Of course, it is not a five stars Bervelly Hills hotel, but if you want to spend your money in visits rather than in hotels, that's the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r53482980-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>53482980</t>
+  </si>
+  <si>
+    <t>01/14/2010</t>
+  </si>
+  <si>
+    <t>baffled that this place is rated #1 in carson &amp; #2 for business on tripadvisor</t>
+  </si>
+  <si>
+    <t>Omg. I will never go here again.  First, there was barely any parking in the parking lot. When I first walk in, I didn't see anyone at the front desk. As I was standing there looking around for someone to help me, I finally see someone who had been sitting down the whole time. After waiting awhile she finally got up and helped me. As if get to my room, I noticed that there was no microwave. What is the point of requesting certain options, when you are not going to get them? The door did not seem very secure. I didn't feel very confident that if someone were to try to break in, that they would not be able to. The paint was chipped on the wall and some of the furniture. Instead of the option I chose online to have a microwave, I got a dirty couch.  There was free continental breakfast, but it was not nothing to write home about. I am baffeled as to how this place got such high ratings.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>Omg. I will never go here again.  First, there was barely any parking in the parking lot. When I first walk in, I didn't see anyone at the front desk. As I was standing there looking around for someone to help me, I finally see someone who had been sitting down the whole time. After waiting awhile she finally got up and helped me. As if get to my room, I noticed that there was no microwave. What is the point of requesting certain options, when you are not going to get them? The door did not seem very secure. I didn't feel very confident that if someone were to try to break in, that they would not be able to. The paint was chipped on the wall and some of the furniture. Instead of the option I chose online to have a microwave, I got a dirty couch.  There was free continental breakfast, but it was not nothing to write home about. I am baffeled as to how this place got such high ratings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r47076848-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>47076848</t>
+  </si>
+  <si>
+    <t>10/17/2009</t>
+  </si>
+  <si>
+    <t>Excellent for just crashing out!</t>
+  </si>
+  <si>
+    <t>This is a brilliant hotel that both my friend and I enjoyed very much. It was just a great place to crash out and sleep after long days of shopping and travelling. 
+Yes, it may be far out and I would advise hiring a car as you will feel stranded. There are plenty of shops and restaurants near by that offer plenty to eat and buy! There's even an Ikea over the road!
+It took me 10 mins from LAX airport and no longer. The I-405 is right next to the hotel, so it is great for getting to places easily. From the airport take the I-105 to the I-405 south - follow that all the way to Avalon Bvld. Exit there and turn left at traffic lights and keep right. Dominguez St. is the first right. So easy to find.
+The hotel is basic - but what do you expect for the price you pay. We had fresh towels every day. Beds were made etc. Fridge in room for drinks etc. There is a drinks machine and snach machine in the hotel lobby.  Breakfast was ok. Nothing special. As someone said previously-Carbs fest-I totally agree. Waffles, Croissants, Bagels, Bread and Cakes. But it was ok. Plenty of juice and coffee as well. Just remeber not to take a flask to refil and take away - they don't seem to happy about that!
+All in all - had a great...This is a brilliant hotel that both my friend and I enjoyed very much. It was just a great place to crash out and sleep after long days of shopping and travelling. Yes, it may be far out and I would advise hiring a car as you will feel stranded. There are plenty of shops and restaurants near by that offer plenty to eat and buy! There's even an Ikea over the road!It took me 10 mins from LAX airport and no longer. The I-405 is right next to the hotel, so it is great for getting to places easily. From the airport take the I-105 to the I-405 south - follow that all the way to Avalon Bvld. Exit there and turn left at traffic lights and keep right. Dominguez St. is the first right. So easy to find.The hotel is basic - but what do you expect for the price you pay. We had fresh towels every day. Beds were made etc. Fridge in room for drinks etc. There is a drinks machine and snach machine in the hotel lobby.  Breakfast was ok. Nothing special. As someone said previously-Carbs fest-I totally agree. Waffles, Croissants, Bagels, Bread and Cakes. But it was ok. Plenty of juice and coffee as well. Just remeber not to take a flask to refil and take away - they don't seem to happy about that!All in all - had a great time and would recommend this hotel to anyone  - although people have different opinions!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>This is a brilliant hotel that both my friend and I enjoyed very much. It was just a great place to crash out and sleep after long days of shopping and travelling. 
+Yes, it may be far out and I would advise hiring a car as you will feel stranded. There are plenty of shops and restaurants near by that offer plenty to eat and buy! There's even an Ikea over the road!
+It took me 10 mins from LAX airport and no longer. The I-405 is right next to the hotel, so it is great for getting to places easily. From the airport take the I-105 to the I-405 south - follow that all the way to Avalon Bvld. Exit there and turn left at traffic lights and keep right. Dominguez St. is the first right. So easy to find.
+The hotel is basic - but what do you expect for the price you pay. We had fresh towels every day. Beds were made etc. Fridge in room for drinks etc. There is a drinks machine and snach machine in the hotel lobby.  Breakfast was ok. Nothing special. As someone said previously-Carbs fest-I totally agree. Waffles, Croissants, Bagels, Bread and Cakes. But it was ok. Plenty of juice and coffee as well. Just remeber not to take a flask to refil and take away - they don't seem to happy about that!
+All in all - had a great...This is a brilliant hotel that both my friend and I enjoyed very much. It was just a great place to crash out and sleep after long days of shopping and travelling. Yes, it may be far out and I would advise hiring a car as you will feel stranded. There are plenty of shops and restaurants near by that offer plenty to eat and buy! There's even an Ikea over the road!It took me 10 mins from LAX airport and no longer. The I-405 is right next to the hotel, so it is great for getting to places easily. From the airport take the I-105 to the I-405 south - follow that all the way to Avalon Bvld. Exit there and turn left at traffic lights and keep right. Dominguez St. is the first right. So easy to find.The hotel is basic - but what do you expect for the price you pay. We had fresh towels every day. Beds were made etc. Fridge in room for drinks etc. There is a drinks machine and snach machine in the hotel lobby.  Breakfast was ok. Nothing special. As someone said previously-Carbs fest-I totally agree. Waffles, Croissants, Bagels, Bread and Cakes. But it was ok. Plenty of juice and coffee as well. Just remeber not to take a flask to refil and take away - they don't seem to happy about that!All in all - had a great time and would recommend this hotel to anyone  - although people have different opinions!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r46550674-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>46550674</t>
+  </si>
+  <si>
+    <t>10/11/2009</t>
+  </si>
+  <si>
+    <t>It gets a few bad reviews on here BUT I thought it was GREAT!</t>
+  </si>
+  <si>
+    <t>If you have a car then this  H(m)otel is a great place to stay. Its about 20 - 30mins from the airport so after a long flight its not too far to navigate to when your feeling tired. Right next to the freeway its a great base for exploring the whole LAX area.The rooms are large and clean with everything you would need -nice toiletries,coffee machine, fridge, cable and free wifi .Handy having the mall over the road especially Target for snacks and drinks for the fridge!.The breakfast was a carb fest -waffles, croissants,muffins, toast and cereal but better than nothing i guess.There is a really good Sushi restaurant nearby (over the traffic lights in the strip mall) and the usual dennys / starbucks / chillis style restaurants all within walking distance from the hotel.This hotel also has is a guest laundry which is very handy when traveling / touring $3 to wash and dry my whole suitcase full of clothes!I have no hesitation in recommending this hotel.Cheap and cheerful it is!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>If you have a car then this  H(m)otel is a great place to stay. Its about 20 - 30mins from the airport so after a long flight its not too far to navigate to when your feeling tired. Right next to the freeway its a great base for exploring the whole LAX area.The rooms are large and clean with everything you would need -nice toiletries,coffee machine, fridge, cable and free wifi .Handy having the mall over the road especially Target for snacks and drinks for the fridge!.The breakfast was a carb fest -waffles, croissants,muffins, toast and cereal but better than nothing i guess.There is a really good Sushi restaurant nearby (over the traffic lights in the strip mall) and the usual dennys / starbucks / chillis style restaurants all within walking distance from the hotel.This hotel also has is a guest laundry which is very handy when traveling / touring $3 to wash and dry my whole suitcase full of clothes!I have no hesitation in recommending this hotel.Cheap and cheerful it is!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r43212980-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>43212980</t>
+  </si>
+  <si>
+    <t>09/20/2009</t>
+  </si>
+  <si>
+    <t>Decent hotel in great location</t>
+  </si>
+  <si>
+    <t>The hotel is definitely older and definitely could use an elevator.  It seems to be a big trucker stop as when we came back from our friends party near by  late at night we couldn't find a parking place.  There was a few trucks parked in one of the main parking areas instead of in the back where there are few regular parking places.  It is right near Ikea and the South Bay Pavillion, real close to the 405 and 110 junction.The price was great and seems to be in a safe neighborhood.  After stopping by the Comfort Suites in Gardena we were just glad to get somewhere that we felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>The hotel is definitely older and definitely could use an elevator.  It seems to be a big trucker stop as when we came back from our friends party near by  late at night we couldn't find a parking place.  There was a few trucks parked in one of the main parking areas instead of in the back where there are few regular parking places.  It is right near Ikea and the South Bay Pavillion, real close to the 405 and 110 junction.The price was great and seems to be in a safe neighborhood.  After stopping by the Comfort Suites in Gardena we were just glad to get somewhere that we felt safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r40125195-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>40125195</t>
+  </si>
+  <si>
+    <t>09/08/2009</t>
+  </si>
+  <si>
+    <t>Hotwire Rated this "motel" a 3 Star. -  Not a good rating &amp; a terrible experience</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotwire as a 3 star in the Torrance,Gardena, Carson area. I am very familiar with the area and the ratings of hotels so I figured that I would get one of the shown ( Radisson, Doubletree ) properties in the area. 
+This was not the case. This was formerly a Quality Inn, and even when it was that property it was never in the best condition and did not deserve a 3 Star Rating.
+We were not very pleased with many things about this property.
+Many truckers stay at the property using most of the parking spaces towards the entryways into the property. As well as there were people sleeping in their cars  and smoking marijuana, the staff said there was nothing they could do about it. 
+The halls were darkly lit and in the middle of summer they were not cooling the hotel adequately. There was food that someone spilled on the floor next to door to our room for over a day. I would have expected someone in housekeeping to sweep it up but it was there on the floor the afternoon before we left and at 8 am when we got out of this dump.
+The room itself was a basic room with a king bed, the air conditioning rattled and smelled funny when it was running and the outlets in the bathroom did not work making it impossible for the use...I booked this hotel through Hotwire as a 3 star in the Torrance,Gardena, Carson area. I am very familiar with the area and the ratings of hotels so I figured that I would get one of the shown ( Radisson, Doubletree ) properties in the area. This was not the case. This was formerly a Quality Inn, and even when it was that property it was never in the best condition and did not deserve a 3 Star Rating.We were not very pleased with many things about this property.Many truckers stay at the property using most of the parking spaces towards the entryways into the property. As well as there were people sleeping in their cars  and smoking marijuana, the staff said there was nothing they could do about it. The halls were darkly lit and in the middle of summer they were not cooling the hotel adequately. There was food that someone spilled on the floor next to door to our room for over a day. I would have expected someone in housekeeping to sweep it up but it was there on the floor the afternoon before we left and at 8 am when we got out of this dump.The room itself was a basic room with a king bed, the air conditioning rattled and smelled funny when it was running and the outlets in the bathroom did not work making it impossible for the use of a blow dryer curling iron etc.  I had to do my hair in the bedroom area with a hand held mirror.There was a very loud party going on in the pool area past closing time two days in a row which moved into a gazebo directly behind our room. It took three trips and two calls down to the front desk to ask the staff to please do something about the noise to no avail. They finally did something when I made a call directly to Hotwire  to complain.  Sadly I would not recommend this hotel to anyone but a trucker or a group of guys wanting to party for a weekend.  The only good selling point would have to be the waffle maker at the hotel, making your own fresh waffles that were very good was a nice change to the normal continental breakfast.I feel duped by Hotwire with the bait and switch. They state that : Quality 3-star hotels   Quality 3-star hotelsThese quality establishments make comfort and personalized service their priority. These full-service properties usually feature:    * An inviting, relaxed lobby    * On-site dining    * Room service    * Family-style roomsWith Hotels being the Doubletree and Holiday Inn.  Economy 2-star hotels   Economy 2-star hotelsThese economy establishments offer reliable accommodations with a few extra features. Features may include:    * In-room coffee maker    * Cable TV    * Alarm clock    * Continental breakfastOff-site dining is usually located within walking distance.Are like La Quinta, Comfort Inn and Days Inn. Hotwire needs to change how they rate these properties!MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotwire as a 3 star in the Torrance,Gardena, Carson area. I am very familiar with the area and the ratings of hotels so I figured that I would get one of the shown ( Radisson, Doubletree ) properties in the area. 
+This was not the case. This was formerly a Quality Inn, and even when it was that property it was never in the best condition and did not deserve a 3 Star Rating.
+We were not very pleased with many things about this property.
+Many truckers stay at the property using most of the parking spaces towards the entryways into the property. As well as there were people sleeping in their cars  and smoking marijuana, the staff said there was nothing they could do about it. 
+The halls were darkly lit and in the middle of summer they were not cooling the hotel adequately. There was food that someone spilled on the floor next to door to our room for over a day. I would have expected someone in housekeeping to sweep it up but it was there on the floor the afternoon before we left and at 8 am when we got out of this dump.
+The room itself was a basic room with a king bed, the air conditioning rattled and smelled funny when it was running and the outlets in the bathroom did not work making it impossible for the use...I booked this hotel through Hotwire as a 3 star in the Torrance,Gardena, Carson area. I am very familiar with the area and the ratings of hotels so I figured that I would get one of the shown ( Radisson, Doubletree ) properties in the area. This was not the case. This was formerly a Quality Inn, and even when it was that property it was never in the best condition and did not deserve a 3 Star Rating.We were not very pleased with many things about this property.Many truckers stay at the property using most of the parking spaces towards the entryways into the property. As well as there were people sleeping in their cars  and smoking marijuana, the staff said there was nothing they could do about it. The halls were darkly lit and in the middle of summer they were not cooling the hotel adequately. There was food that someone spilled on the floor next to door to our room for over a day. I would have expected someone in housekeeping to sweep it up but it was there on the floor the afternoon before we left and at 8 am when we got out of this dump.The room itself was a basic room with a king bed, the air conditioning rattled and smelled funny when it was running and the outlets in the bathroom did not work making it impossible for the use of a blow dryer curling iron etc.  I had to do my hair in the bedroom area with a hand held mirror.There was a very loud party going on in the pool area past closing time two days in a row which moved into a gazebo directly behind our room. It took three trips and two calls down to the front desk to ask the staff to please do something about the noise to no avail. They finally did something when I made a call directly to Hotwire  to complain.  Sadly I would not recommend this hotel to anyone but a trucker or a group of guys wanting to party for a weekend.  The only good selling point would have to be the waffle maker at the hotel, making your own fresh waffles that were very good was a nice change to the normal continental breakfast.I feel duped by Hotwire with the bait and switch. They state that : Quality 3-star hotels   Quality 3-star hotelsThese quality establishments make comfort and personalized service their priority. These full-service properties usually feature:    * An inviting, relaxed lobby    * On-site dining    * Room service    * Family-style roomsWith Hotels being the Doubletree and Holiday Inn.  Economy 2-star hotels   Economy 2-star hotelsThese economy establishments offer reliable accommodations with a few extra features. Features may include:    * In-room coffee maker    * Cable TV    * Alarm clock    * Continental breakfastOff-site dining is usually located within walking distance.Are like La Quinta, Comfort Inn and Days Inn. Hotwire needs to change how they rate these properties!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r36624428-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>36624428</t>
+  </si>
+  <si>
+    <t>08/03/2009</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>Old hotel in need of repair.Dark room and hallways.Grounds dirty in need of care.Blankets in ni smoking roon had cig. burn holes.I would not stay here again even if it was free.Very poor value.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r33135976-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>33135976</t>
+  </si>
+  <si>
+    <t>06/25/2009</t>
+  </si>
+  <si>
+    <t>Never stay in this hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels and this is the worse one I had ever stayed. It is worse than a motel! I will never stay in this hotel (or this hotel chain) again.The room I stayed in was dirty and the bathroom tub was clotted. The tiles around the tub were peeling off and the faucet was leaking. The hallway was dark and has an unpleasant odor. They were even having big crocoaches in the rooms. The exercise room is very small (about 11 ft x 15ft) and is smelly. And there is a fee to use their Business Center!!!</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r32223497-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>32223497</t>
+  </si>
+  <si>
+    <t>06/13/2009</t>
+  </si>
+  <si>
+    <t>no problems, good breakfast</t>
+  </si>
+  <si>
+    <t>out of all the motels and hotels I stayed in on a california road trip, I really liked this one. OK, it's not near anything in LA but we'd just got off a long flight and were ever so pleased to have a very quiet room in the main block. The room was huge, massive comfortable bed, fridge and hot drink making facilities.The only annoyance was an underpowered shower comfortalbe for those under 5 foot 5. We are both tall but adapted!The breakfast was much better than lots of the places- you can make your own waffles which are gorgeous, but I would recommend getting there before 9 to avoid the queues.there is a swimming pool but we didn't use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>out of all the motels and hotels I stayed in on a california road trip, I really liked this one. OK, it's not near anything in LA but we'd just got off a long flight and were ever so pleased to have a very quiet room in the main block. The room was huge, massive comfortable bed, fridge and hot drink making facilities.The only annoyance was an underpowered shower comfortalbe for those under 5 foot 5. We are both tall but adapted!The breakfast was much better than lots of the places- you can make your own waffles which are gorgeous, but I would recommend getting there before 9 to avoid the queues.there is a swimming pool but we didn't use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r25219534-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>25219534</t>
+  </si>
+  <si>
+    <t>02/26/2009</t>
+  </si>
+  <si>
+    <t>Great location, good value, good service</t>
+  </si>
+  <si>
+    <t>its a good value hotel with a great location. All major attractions are within 30 minutes drive by car, the staff were extremely helpful in printing out directions for all our visits.the mall across the road is handy with good fast food outlets and there is a big supermarket there too. the room was very spacious ,with 2 double beds and bathroom with bath and shower and fresh towels everyday.breakfast was a good bonus, fresh waffles,juice,bagels ,cereal ,toast, danish pastries,tea coffee. there is ample parking on site and is free.   Free wireless internet was very useful.we enjoyed our stay there and will definitely go back.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r22711468-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>22711468</t>
+  </si>
+  <si>
+    <t>12/13/2008</t>
+  </si>
+  <si>
+    <t>If only it had an elevator ...</t>
+  </si>
+  <si>
+    <t>Good location, close the 405 ramp and in good shape. The area has several restaurants and stores around; doesn't seemed sketchy. Ikea is right across from the hotel.Room was spacious, but the heater was a bit noisy. The double-pane windows were both leaking with plenty of mist inside, reducing transparency. Fix them!Front desk staff seemed careless, but wasn't rude or unfriendly. Great breakfast in the morning, but I don't know why they had to have the lady helping us making waffles - and keeping an eye on everyone.I'd return here if we're passing through, but it's not a destination - just a good place to rest. My only wish is that they would put in an elevator - at least I didn't see one.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>Good location, close the 405 ramp and in good shape. The area has several restaurants and stores around; doesn't seemed sketchy. Ikea is right across from the hotel.Room was spacious, but the heater was a bit noisy. The double-pane windows were both leaking with plenty of mist inside, reducing transparency. Fix them!Front desk staff seemed careless, but wasn't rude or unfriendly. Great breakfast in the morning, but I don't know why they had to have the lady helping us making waffles - and keeping an eye on everyone.I'd return here if we're passing through, but it's not a destination - just a good place to rest. My only wish is that they would put in an elevator - at least I didn't see one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r22672856-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>22672856</t>
+  </si>
+  <si>
+    <t>12/12/2008</t>
+  </si>
+  <si>
+    <t>Excellent (if ask for a room away from 405 side)</t>
+  </si>
+  <si>
+    <t>This hotel is located adjacent to 405 in Carson.  It is important when checking in to ask for a room away from the 405 side, as some of the guests have noted that they heard the traffic all night.I did that and was given room 226, a good room to ask for as it was a quiet, clean room, with a clean rug and bathroom and two beds, a refrigerator, iron, and ample cabinet space, overlooking the pool area and not far from the front entrance.  There is a mall across the street with a Target, Sears and other major outlets, and a restaurant next door (didn't eat there).  Breakfast is ok with juice and a few other items, and there is a large dining area.  There is a fitness center open fom 7 am to 10 pm and a nice lobby.  I stayed two nights on business and was very pleased with the room and hotel.  There was also available parking space in front and on the side of the hotel.  Considering that this was $47 per night on Hotwire, that is a great deal for a Los Angeles area hotel in a fairly nice part of Carson..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>This hotel is located adjacent to 405 in Carson.  It is important when checking in to ask for a room away from the 405 side, as some of the guests have noted that they heard the traffic all night.I did that and was given room 226, a good room to ask for as it was a quiet, clean room, with a clean rug and bathroom and two beds, a refrigerator, iron, and ample cabinet space, overlooking the pool area and not far from the front entrance.  There is a mall across the street with a Target, Sears and other major outlets, and a restaurant next door (didn't eat there).  Breakfast is ok with juice and a few other items, and there is a large dining area.  There is a fitness center open fom 7 am to 10 pm and a nice lobby.  I stayed two nights on business and was very pleased with the room and hotel.  There was also available parking space in front and on the side of the hotel.  Considering that this was $47 per night on Hotwire, that is a great deal for a Los Angeles area hotel in a fairly nice part of Carson..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r20430281-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>20430281</t>
+  </si>
+  <si>
+    <t>09/27/2008</t>
+  </si>
+  <si>
+    <t>could be better however not all bad</t>
+  </si>
+  <si>
+    <t>This hotel looks like it has seen better days, the rooms need to have brighter lighting and they could use an update in the decor.  with that being said though the rooms are spacious they were clean,  noticed a very slight odor when first walked in but not too bad.   Good connection to the net,  my room was quiet and there is food and shopping within walking distance.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r17323056-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>17323056</t>
+  </si>
+  <si>
+    <t>06/28/2008</t>
+  </si>
+  <si>
+    <t>Excellent Location. Great accommodations. Poor Front Desk</t>
+  </si>
+  <si>
+    <t>This hotel is perfect if you want to be smack in the center of things and right off the 405 highway. It is a half hour from just about every destination in LA. Including Hollywood, Disneyland and Malibu. The building and suite were average. Nothing extra special, but definitely comfortable and clean. The roomkeeping staff are detailed and do a good job of cleaning up.They offer a decent continental breakfast with cereal, mini muffins, fruit, toast, yogurt and fresh made waffles. But would be much better with some eggs and sausage or bacon. Get there early, cause they tend to run out of things towards the end of breakfast. The pool at the hotel is fantastic actually. Very clean, outdoors, with lots of sunshine throughout the day. Now here's the bad part...the front desk staff act like you owe them something. We were there 6 days and didn't so much as get freakin smile from the girl behind the desk. Not rude or anything, just very poor attitude. They would do better to put some of the cleaning staff behind the counter cause they were far more cheery. Overall, well worth the stay given the location and price.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>This hotel is perfect if you want to be smack in the center of things and right off the 405 highway. It is a half hour from just about every destination in LA. Including Hollywood, Disneyland and Malibu. The building and suite were average. Nothing extra special, but definitely comfortable and clean. The roomkeeping staff are detailed and do a good job of cleaning up.They offer a decent continental breakfast with cereal, mini muffins, fruit, toast, yogurt and fresh made waffles. But would be much better with some eggs and sausage or bacon. Get there early, cause they tend to run out of things towards the end of breakfast. The pool at the hotel is fantastic actually. Very clean, outdoors, with lots of sunshine throughout the day. Now here's the bad part...the front desk staff act like you owe them something. We were there 6 days and didn't so much as get freakin smile from the girl behind the desk. Not rude or anything, just very poor attitude. They would do better to put some of the cleaning staff behind the counter cause they were far more cheery. Overall, well worth the stay given the location and price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r12385364-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>12385364</t>
+  </si>
+  <si>
+    <t>01/06/2008</t>
+  </si>
+  <si>
+    <t>You can do better elsewhere</t>
+  </si>
+  <si>
+    <t>Noisy, too close to the freeway.  That side of hotel impossible to sleep.Hotel needs a good cleaning, and upgrading.Non-smoking room smelled of smoke."Breakfast" seemed like fake eggs, weak coffee, a toast your own bread.No secure parking area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r10507322-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>10507322</t>
+  </si>
+  <si>
+    <t>11/01/2007</t>
+  </si>
+  <si>
+    <t>decent place for the price</t>
+  </si>
+  <si>
+    <t>this hotel was ok for the price. got an amazing price of $41 per night on priceline...  had a convention in long beach, and this hotel was central to long beach and other places I wanted to visit while in southern california.room was clean, bed was ok.  other reviews on trip advisor make this place out to be bad, but not that bad, but not that good.a few issues:wireless connection shotty at best. even in the hotel lobby didnt work that well.my room key would deactivate every day, and everyday had to get it rekeyed at the front desk. other people had this problem too.a little peeling wallpaper by the window, but my room, looked recently refurbished.  new tile in bathroom, except for 70s tile around tub surround.dont expect luxury in carson california. overall felt generally safe, although some "thuggy" looking people. Carson isnt the best area overall.  probably would not stay there again, and would prefer something different, since the internet connection was the main reason I choose this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>this hotel was ok for the price. got an amazing price of $41 per night on priceline...  had a convention in long beach, and this hotel was central to long beach and other places I wanted to visit while in southern california.room was clean, bed was ok.  other reviews on trip advisor make this place out to be bad, but not that bad, but not that good.a few issues:wireless connection shotty at best. even in the hotel lobby didnt work that well.my room key would deactivate every day, and everyday had to get it rekeyed at the front desk. other people had this problem too.a little peeling wallpaper by the window, but my room, looked recently refurbished.  new tile in bathroom, except for 70s tile around tub surround.dont expect luxury in carson california. overall felt generally safe, although some "thuggy" looking people. Carson isnt the best area overall.  probably would not stay there again, and would prefer something different, since the internet connection was the main reason I choose this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r4727524-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>4727524</t>
+  </si>
+  <si>
+    <t>03/22/2006</t>
+  </si>
+  <si>
+    <t>Run down cheap hotel. Security lacking!</t>
+  </si>
+  <si>
+    <t>This hotel is located across from a mall. There are people coming and going all night through the side doors of this hotel. These doors are propped open.  The hallways of this hotel look like they have been patched and painted hundreds of times.  There is only ONE person on duty at the front desk at night.  The free breakfast you get is located in a room which only holds about 10 people maximum.  There are big rig trucks parked in the parking lot taking up several parking places. One person complained to the front desk while I was there that his big rig was broken into! This doesnt surpise me with the lack of security and location across from the mall.  There is no way I will stay at this hotel again. I recommend you stay elsewhere if you want to feel safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located across from a mall. There are people coming and going all night through the side doors of this hotel. These doors are propped open.  The hallways of this hotel look like they have been patched and painted hundreds of times.  There is only ONE person on duty at the front desk at night.  The free breakfast you get is located in a room which only holds about 10 people maximum.  There are big rig trucks parked in the parking lot taking up several parking places. One person complained to the front desk while I was there that his big rig was broken into! This doesnt surpise me with the lack of security and location across from the mall.  There is no way I will stay at this hotel again. I recommend you stay elsewhere if you want to feel safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r4624816-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>4624816</t>
+  </si>
+  <si>
+    <t>03/14/2006</t>
+  </si>
+  <si>
+    <t>Thank you Quality Inn Carson!!!</t>
+  </si>
+  <si>
+    <t>While traveling to Los Angeles for a business trip I decided to stay the night in Carson (the Quality Inn is immediately off the 405 Freeway). I couldn't have made a better choice. When I walked in the front door the Front Desk Attendant, Lauren, greeted me with a smile. They seemed sincerely interested in personalizing my stay in the Los Angeles area. After visiting with them for a while I went up to a nice, clean, comfortable, room. The night was quiet and restful (I later discovered that they only use the Serta Mattress'). I knew that this hotel had a Hot Breakfast, but I was very pleased to walk into a very clean breakfast room full of sunlight and great food. Among some of the choices were Scrambled Eggs, Home-made Waffles, Country Style Potatoes, several Juices, cold cereals, assorted pastries, breads and much more. All of this was continually replenished by their friendly Breakfast Room staff. I was very pleasantly surprised to say the least. The check out was smooth and hassle free. I would highly recommend this hotel to anyone. My stay at the Quality Inn Carson could not have been any better thanks to the friendly people and great service. Let's face it, Hotels are a dime a dozen; they all have Beds, TV's and assorted amenities - it's the service, convenience and value that will keep bringing me back to the Quality Inn and I...While traveling to Los Angeles for a business trip I decided to stay the night in Carson (the Quality Inn is immediately off the 405 Freeway). I couldn't have made a better choice. When I walked in the front door the Front Desk Attendant, Lauren, greeted me with a smile. They seemed sincerely interested in personalizing my stay in the Los Angeles area. After visiting with them for a while I went up to a nice, clean, comfortable, room. The night was quiet and restful (I later discovered that they only use the Serta Mattress'). I knew that this hotel had a Hot Breakfast, but I was very pleased to walk into a very clean breakfast room full of sunlight and great food. Among some of the choices were Scrambled Eggs, Home-made Waffles, Country Style Potatoes, several Juices, cold cereals, assorted pastries, breads and much more. All of this was continually replenished by their friendly Breakfast Room staff. I was very pleasantly surprised to say the least. The check out was smooth and hassle free. I would highly recommend this hotel to anyone. My stay at the Quality Inn Carson could not have been any better thanks to the friendly people and great service. Let's face it, Hotels are a dime a dozen; they all have Beds, TV's and assorted amenities - it's the service, convenience and value that will keep bringing me back to the Quality Inn and I will gladly refer my friends, family and colleagues.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>While traveling to Los Angeles for a business trip I decided to stay the night in Carson (the Quality Inn is immediately off the 405 Freeway). I couldn't have made a better choice. When I walked in the front door the Front Desk Attendant, Lauren, greeted me with a smile. They seemed sincerely interested in personalizing my stay in the Los Angeles area. After visiting with them for a while I went up to a nice, clean, comfortable, room. The night was quiet and restful (I later discovered that they only use the Serta Mattress'). I knew that this hotel had a Hot Breakfast, but I was very pleased to walk into a very clean breakfast room full of sunlight and great food. Among some of the choices were Scrambled Eggs, Home-made Waffles, Country Style Potatoes, several Juices, cold cereals, assorted pastries, breads and much more. All of this was continually replenished by their friendly Breakfast Room staff. I was very pleasantly surprised to say the least. The check out was smooth and hassle free. I would highly recommend this hotel to anyone. My stay at the Quality Inn Carson could not have been any better thanks to the friendly people and great service. Let's face it, Hotels are a dime a dozen; they all have Beds, TV's and assorted amenities - it's the service, convenience and value that will keep bringing me back to the Quality Inn and I...While traveling to Los Angeles for a business trip I decided to stay the night in Carson (the Quality Inn is immediately off the 405 Freeway). I couldn't have made a better choice. When I walked in the front door the Front Desk Attendant, Lauren, greeted me with a smile. They seemed sincerely interested in personalizing my stay in the Los Angeles area. After visiting with them for a while I went up to a nice, clean, comfortable, room. The night was quiet and restful (I later discovered that they only use the Serta Mattress'). I knew that this hotel had a Hot Breakfast, but I was very pleased to walk into a very clean breakfast room full of sunlight and great food. Among some of the choices were Scrambled Eggs, Home-made Waffles, Country Style Potatoes, several Juices, cold cereals, assorted pastries, breads and much more. All of this was continually replenished by their friendly Breakfast Room staff. I was very pleasantly surprised to say the least. The check out was smooth and hassle free. I would highly recommend this hotel to anyone. My stay at the Quality Inn Carson could not have been any better thanks to the friendly people and great service. Let's face it, Hotels are a dime a dozen; they all have Beds, TV's and assorted amenities - it's the service, convenience and value that will keep bringing me back to the Quality Inn and I will gladly refer my friends, family and colleagues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r4371764-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>4371764</t>
+  </si>
+  <si>
+    <t>01/22/2006</t>
+  </si>
+  <si>
+    <t>NO SECURITY! Did not get any sleep, felt unsafe!</t>
+  </si>
+  <si>
+    <t>I stayed there 2 nights. There was a party each night in the same room across from mine 2 doors down. My daughter and niece were staying in the room next to our room.people were sitting in the hallwaysuntil 4AM, people entering and exiting the room all night long, loud music, laughter. The first night I had to ask the people in the hallways to please be quiet. After that I placed a call to the front desk. They came up and asked them to be quiet. Nothing changed. Did not get any sleep until 4AM. The next night the same things happened but only LOUDER. 3 calls were placed to the front desk. Nothing changed. I got NO SLEEP at all that night. The offending room was on the end of the building with an open unlocked door to the parking lot so anyone could access the building. I expressed my displeasure to the hotel with absolutely no satisfaction from them. Do not go to this hotel! No security!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed there 2 nights. There was a party each night in the same room across from mine 2 doors down. My daughter and niece were staying in the room next to our room.people were sitting in the hallwaysuntil 4AM, people entering and exiting the room all night long, loud music, laughter. The first night I had to ask the people in the hallways to please be quiet. After that I placed a call to the front desk. They came up and asked them to be quiet. Nothing changed. Did not get any sleep until 4AM. The next night the same things happened but only LOUDER. 3 calls were placed to the front desk. Nothing changed. I got NO SLEEP at all that night. The offending room was on the end of the building with an open unlocked door to the parking lot so anyone could access the building. I expressed my displeasure to the hotel with absolutely no satisfaction from them. Do not go to this hotel! No security!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r3212789-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>3212789</t>
+  </si>
+  <si>
+    <t>02/19/2005</t>
+  </si>
+  <si>
+    <t>Security lacking</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights at this hotel, it was clean and the room was not bad, however the first night someone threw eggs on our car.  The next morning there were 2 alcohol bottles sitting beside the trash can with other food garbage at our exit door.  The outside doors were continuously propped open for anyone to walk in, it is in a very busy area, right off the interstate and across from a mall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r2703655-Motel_6_Carson-Carson_California.html</t>
+  </si>
+  <si>
+    <t>2703655</t>
+  </si>
+  <si>
+    <t>10/13/2004</t>
+  </si>
+  <si>
+    <t>Not terrible</t>
+  </si>
+  <si>
+    <t>I chose this place because it was convenient to where I would be doing business and because they have high-speed Internet.The hotel is cheap compared to other area hotels, and you can see why. It's next to a Pep Boys and is very smelly inside. It feels pretty worn-down and dirty.They did have high-speed net access, although it's wireless ONLY, so make sure you have a wireless card. The breakfast was OK. Pool was nice, no working hot tub.Not terrible, and if you want to stay in Carson cheap, this is probably the place to do it. I've been in worse places.</t>
+  </si>
+  <si>
+    <t>October 2004</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2819,6215 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>207</v>
+      </c>
+      <c r="X24" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" t="s">
+        <v>227</v>
+      </c>
+      <c r="L26" t="s">
+        <v>228</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>229</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>230</v>
+      </c>
+      <c r="X26" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>238</v>
+      </c>
+      <c r="X27" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>273</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>282</v>
+      </c>
+      <c r="X32" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>285</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>286</v>
+      </c>
+      <c r="J33" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" t="s">
+        <v>288</v>
+      </c>
+      <c r="L33" t="s">
+        <v>289</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>290</v>
+      </c>
+      <c r="X33" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>298</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>300</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>301</v>
+      </c>
+      <c r="J35" t="s">
+        <v>302</v>
+      </c>
+      <c r="K35" t="s">
+        <v>303</v>
+      </c>
+      <c r="L35" t="s">
+        <v>304</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>315</v>
+      </c>
+      <c r="X36" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>323</v>
+      </c>
+      <c r="X37" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>332</v>
+      </c>
+      <c r="X38" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L39" t="s">
+        <v>339</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>341</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>349</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>357</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>358</v>
+      </c>
+      <c r="X41" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>361</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>362</v>
+      </c>
+      <c r="J42" t="s">
+        <v>363</v>
+      </c>
+      <c r="K42" t="s">
+        <v>364</v>
+      </c>
+      <c r="L42" t="s">
+        <v>365</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="X42" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>373</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>375</v>
+      </c>
+      <c r="X43" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>392</v>
+      </c>
+      <c r="X45" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>396</v>
+      </c>
+      <c r="J46" t="s">
+        <v>397</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>383</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>400</v>
+      </c>
+      <c r="X46" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>404</v>
+      </c>
+      <c r="J47" t="s">
+        <v>405</v>
+      </c>
+      <c r="K47" t="s">
+        <v>406</v>
+      </c>
+      <c r="L47" t="s">
+        <v>407</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>408</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>417</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>418</v>
+      </c>
+      <c r="X48" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>421</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>422</v>
+      </c>
+      <c r="J49" t="s">
+        <v>423</v>
+      </c>
+      <c r="K49" t="s">
+        <v>424</v>
+      </c>
+      <c r="L49" t="s">
+        <v>425</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>408</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>426</v>
+      </c>
+      <c r="X49" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" t="s">
+        <v>431</v>
+      </c>
+      <c r="K50" t="s">
+        <v>432</v>
+      </c>
+      <c r="L50" t="s">
+        <v>433</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>434</v>
+      </c>
+      <c r="X50" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>437</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>438</v>
+      </c>
+      <c r="J51" t="s">
+        <v>439</v>
+      </c>
+      <c r="K51" t="s">
+        <v>440</v>
+      </c>
+      <c r="L51" t="s">
+        <v>441</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>442</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>443</v>
+      </c>
+      <c r="X51" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>446</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>447</v>
+      </c>
+      <c r="J52" t="s">
+        <v>448</v>
+      </c>
+      <c r="K52" t="s">
+        <v>449</v>
+      </c>
+      <c r="L52" t="s">
+        <v>450</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>451</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>452</v>
+      </c>
+      <c r="X52" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>456</v>
+      </c>
+      <c r="J53" t="s">
+        <v>457</v>
+      </c>
+      <c r="K53" t="s">
+        <v>458</v>
+      </c>
+      <c r="L53" t="s">
+        <v>459</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>460</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>461</v>
+      </c>
+      <c r="X53" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>464</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" t="s">
+        <v>466</v>
+      </c>
+      <c r="K54" t="s">
+        <v>467</v>
+      </c>
+      <c r="L54" t="s">
+        <v>468</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>460</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>461</v>
+      </c>
+      <c r="X54" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>470</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>471</v>
+      </c>
+      <c r="J55" t="s">
+        <v>472</v>
+      </c>
+      <c r="K55" t="s">
+        <v>473</v>
+      </c>
+      <c r="L55" t="s">
+        <v>474</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>475</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>461</v>
+      </c>
+      <c r="X55" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>477</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>478</v>
+      </c>
+      <c r="J56" t="s">
+        <v>479</v>
+      </c>
+      <c r="K56" t="s">
+        <v>480</v>
+      </c>
+      <c r="L56" t="s">
+        <v>481</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>482</v>
+      </c>
+      <c r="O56" t="s">
+        <v>108</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>483</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>484</v>
+      </c>
+      <c r="J57" t="s">
+        <v>485</v>
+      </c>
+      <c r="K57" t="s">
+        <v>486</v>
+      </c>
+      <c r="L57" t="s">
+        <v>487</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>488</v>
+      </c>
+      <c r="O57" t="s">
+        <v>79</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>490</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>491</v>
+      </c>
+      <c r="J58" t="s">
+        <v>492</v>
+      </c>
+      <c r="K58" t="s">
+        <v>493</v>
+      </c>
+      <c r="L58" t="s">
+        <v>494</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>495</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>507</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>510</v>
+      </c>
+      <c r="J61" t="s">
+        <v>511</v>
+      </c>
+      <c r="K61" t="s">
+        <v>512</v>
+      </c>
+      <c r="L61" t="s">
+        <v>513</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>514</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" t="s">
+        <v>520</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>521</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>524</v>
+      </c>
+      <c r="J63" t="s">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s">
+        <v>527</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>528</v>
+      </c>
+      <c r="O63" t="s">
+        <v>108</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>529</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>530</v>
+      </c>
+      <c r="J64" t="s">
+        <v>531</v>
+      </c>
+      <c r="K64" t="s">
+        <v>532</v>
+      </c>
+      <c r="L64" t="s">
+        <v>533</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>534</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>540</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>541</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>542</v>
+      </c>
+      <c r="J66" t="s">
+        <v>543</v>
+      </c>
+      <c r="K66" t="s">
+        <v>544</v>
+      </c>
+      <c r="L66" t="s">
+        <v>545</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>547</v>
+      </c>
+      <c r="J67" t="s">
+        <v>548</v>
+      </c>
+      <c r="K67" t="s">
+        <v>549</v>
+      </c>
+      <c r="L67" t="s">
+        <v>550</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>557</v>
+      </c>
+      <c r="X68" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>560</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" t="s">
+        <v>562</v>
+      </c>
+      <c r="K69" t="s">
+        <v>563</v>
+      </c>
+      <c r="L69" t="s">
+        <v>564</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>565</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>566</v>
+      </c>
+      <c r="X69" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>568</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>569</v>
+      </c>
+      <c r="J70" t="s">
+        <v>570</v>
+      </c>
+      <c r="K70" t="s">
+        <v>571</v>
+      </c>
+      <c r="L70" t="s">
+        <v>572</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>573</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>575</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>576</v>
+      </c>
+      <c r="J71" t="s">
+        <v>577</v>
+      </c>
+      <c r="K71" t="s">
+        <v>578</v>
+      </c>
+      <c r="L71" t="s">
+        <v>579</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>580</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>582</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>583</v>
+      </c>
+      <c r="J72" t="s">
+        <v>584</v>
+      </c>
+      <c r="K72" t="s">
+        <v>585</v>
+      </c>
+      <c r="L72" t="s">
+        <v>586</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>587</v>
+      </c>
+      <c r="O72" t="s">
+        <v>108</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>588</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>589</v>
+      </c>
+      <c r="J73" t="s">
+        <v>590</v>
+      </c>
+      <c r="K73" t="s">
+        <v>591</v>
+      </c>
+      <c r="L73" t="s">
+        <v>592</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>593</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>600</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>601</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>602</v>
+      </c>
+      <c r="J75" t="s">
+        <v>603</v>
+      </c>
+      <c r="K75" t="s">
+        <v>604</v>
+      </c>
+      <c r="L75" t="s">
+        <v>605</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>600</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>607</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>608</v>
+      </c>
+      <c r="J76" t="s">
+        <v>609</v>
+      </c>
+      <c r="K76" t="s">
+        <v>610</v>
+      </c>
+      <c r="L76" t="s">
+        <v>611</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>565</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>613</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>614</v>
+      </c>
+      <c r="J77" t="s">
+        <v>615</v>
+      </c>
+      <c r="K77" t="s">
+        <v>616</v>
+      </c>
+      <c r="L77" t="s">
+        <v>617</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>618</v>
+      </c>
+      <c r="O77" t="s">
+        <v>108</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>620</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>621</v>
+      </c>
+      <c r="J78" t="s">
+        <v>622</v>
+      </c>
+      <c r="K78" t="s">
+        <v>623</v>
+      </c>
+      <c r="L78" t="s">
+        <v>624</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>625</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>627</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>628</v>
+      </c>
+      <c r="J79" t="s">
+        <v>629</v>
+      </c>
+      <c r="K79" t="s">
+        <v>630</v>
+      </c>
+      <c r="L79" t="s">
+        <v>631</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>632</v>
+      </c>
+      <c r="O79" t="s">
+        <v>59</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>634</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>635</v>
+      </c>
+      <c r="J80" t="s">
+        <v>636</v>
+      </c>
+      <c r="K80" t="s">
+        <v>637</v>
+      </c>
+      <c r="L80" t="s">
+        <v>638</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>639</v>
+      </c>
+      <c r="O80" t="s">
+        <v>79</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>641</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>642</v>
+      </c>
+      <c r="J81" t="s">
+        <v>643</v>
+      </c>
+      <c r="K81" t="s">
+        <v>644</v>
+      </c>
+      <c r="L81" t="s">
+        <v>645</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>639</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>648</v>
+      </c>
+      <c r="J82" t="s">
+        <v>649</v>
+      </c>
+      <c r="K82" t="s">
+        <v>650</v>
+      </c>
+      <c r="L82" t="s">
+        <v>651</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>652</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>653</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>654</v>
+      </c>
+      <c r="J83" t="s">
+        <v>655</v>
+      </c>
+      <c r="K83" t="s">
+        <v>656</v>
+      </c>
+      <c r="L83" t="s">
+        <v>657</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>658</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>659</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>660</v>
+      </c>
+      <c r="J84" t="s">
+        <v>661</v>
+      </c>
+      <c r="K84" t="s">
+        <v>662</v>
+      </c>
+      <c r="L84" t="s">
+        <v>663</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>632</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>665</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>666</v>
+      </c>
+      <c r="J85" t="s">
+        <v>667</v>
+      </c>
+      <c r="K85" t="s">
+        <v>668</v>
+      </c>
+      <c r="L85" t="s">
+        <v>669</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>670</v>
+      </c>
+      <c r="O85" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>671</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>672</v>
+      </c>
+      <c r="J86" t="s">
+        <v>673</v>
+      </c>
+      <c r="K86" t="s">
+        <v>674</v>
+      </c>
+      <c r="L86" t="s">
+        <v>675</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>676</v>
+      </c>
+      <c r="O86" t="s">
+        <v>59</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>678</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>679</v>
+      </c>
+      <c r="J87" t="s">
+        <v>680</v>
+      </c>
+      <c r="K87" t="s">
+        <v>681</v>
+      </c>
+      <c r="L87" t="s">
+        <v>682</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>683</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>685</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>686</v>
+      </c>
+      <c r="J88" t="s">
+        <v>687</v>
+      </c>
+      <c r="K88" t="s">
+        <v>688</v>
+      </c>
+      <c r="L88" t="s">
+        <v>689</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>690</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>691</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>692</v>
+      </c>
+      <c r="J89" t="s">
+        <v>693</v>
+      </c>
+      <c r="K89" t="s">
+        <v>694</v>
+      </c>
+      <c r="L89" t="s">
+        <v>695</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>696</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>698</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>699</v>
+      </c>
+      <c r="J90" t="s">
+        <v>700</v>
+      </c>
+      <c r="K90" t="s">
+        <v>701</v>
+      </c>
+      <c r="L90" t="s">
+        <v>702</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>703</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>704</v>
+      </c>
+      <c r="J91" t="s">
+        <v>705</v>
+      </c>
+      <c r="K91" t="s">
+        <v>706</v>
+      </c>
+      <c r="L91" t="s">
+        <v>707</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>709</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>710</v>
+      </c>
+      <c r="J92" t="s">
+        <v>711</v>
+      </c>
+      <c r="K92" t="s">
+        <v>712</v>
+      </c>
+      <c r="L92" t="s">
+        <v>713</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>715</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>716</v>
+      </c>
+      <c r="J93" t="s">
+        <v>717</v>
+      </c>
+      <c r="K93" t="s">
+        <v>718</v>
+      </c>
+      <c r="L93" t="s">
+        <v>719</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>720</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>722</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>723</v>
+      </c>
+      <c r="J94" t="s">
+        <v>724</v>
+      </c>
+      <c r="K94" t="s">
+        <v>725</v>
+      </c>
+      <c r="L94" t="s">
+        <v>726</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>728</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>729</v>
+      </c>
+      <c r="J95" t="s">
+        <v>730</v>
+      </c>
+      <c r="K95" t="s">
+        <v>731</v>
+      </c>
+      <c r="L95" t="s">
+        <v>732</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>7578</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>733</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>734</v>
+      </c>
+      <c r="J96" t="s">
+        <v>735</v>
+      </c>
+      <c r="K96" t="s">
+        <v>736</v>
+      </c>
+      <c r="L96" t="s">
+        <v>737</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>738</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>737</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_528.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_528.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="829">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>va5236</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>simonecQ3136VH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r538082675-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Tigerfactor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r531814078-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Charlene S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r511475756-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>evergreen66</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r507450169-Motel_6_Carson-Carson_California.html</t>
@@ -275,6 +290,9 @@
 Motel 6: You should fully renovate the back building and find a way to discourage smokers. It's like a completely different hotel. If you stick people back there,...We're here for a several-day event. The first night we were in the back building and were very nearly ready to bail and pay twice the price somewhere else. The back building is 2 stars. You are safe and can sleep, but don't want to stay for long.It's a non-smoking hotel but people smoke in the back building. It is not as recently or nicely renovated. The AC doesn't work as well. The windows don't seem to be as nice. The smell is what my kid described as a bowling alley that people have been smoking and spraying air freshener in for years. The front building, however, is cool, clean, more recently remodeled, and smells neutral - it's a much different stay. Once we changed rooms everything was fine and it was the nice budget-friendly hotel we were hoping for. It gets 4 stars in the budget hotel category.The front desk and housekeeping have been nice with each encounter. I don't think the housekeeping in the back building can fight a fair fight - it's not their fault it feels less clean than the front building. There is a laundromat ($4 /load to wash and dry) and a pool. If you go, insist on a room in the front building. Motel 6: You should fully renovate the back building and find a way to discourage smokers. It's like a completely different hotel. If you stick people back there, you should only charge them half price. Or just turn it into a smoking building.More</t>
   </si>
   <si>
+    <t>Jenn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r499944442-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
 It was noisy all the time.  Our room was down the hall just past the front desk, so...I chose to stay at a Motel 6 for the first part of our California vacation to save a little money, and because for the 2 days we'd be in that area, we wouldn't be in the hotel much anyway. The outside of the hotel looked more modern, and I liked the fact that you had to go into the hotel to get to your room...no rooms opened directly to the outside.  The rooms were also pretty spacious, with plenty of room to accommodate a rollaway bed.  The room had a mini fridge and microwave, and I thought the beds were comfortable.However, there were a few downsides.  FRONT DESK STAFF:Never in view at the front desk, they were always sitting just out of sight so you'd have to stand there and wait or say "excuse me" to get their attention.  I will say that all of the staff I dealt with at the front desk were polite, but not all were professional.  One girl was sitting off to the side of the desk eating I guess, and after waiting to be helped for a while, she finally emerged with a mouth full of food and I'm guessing she said, "Can I help you?", but honestly I could not understand because she literally had her mouth FULL OF FOOD.NOISE LEVEL:It was noisy all the time.  Our room was down the hall just past the front desk, so I know they were aware of the noise level in the halls, and they didn't address it.  People were really loud and kids were running up and down the halls yelling and playing.ROOM:Our room was incredibly humid.  We had the a/c cranked up in the room and all that did was make it cold and humid.  The sheets felt wet, and papers I had in the room were wet from humidity.  It was a very gross feeling.  BATHROOM:The sink did not have hot water, and the water pressure was very weak.  Brushing your teeth and washing hands was time consuming because the water was just slightly stronger than a slow trickle.  When I washed my hands, I had to move every square inch of my hand under the tiny stream of water to get all the soap off.  The water pressure in the shower was just ok.  Not as bad as the sink, but could have been stronger.  The toilet was another issue.  We had to flush 2 or 3 times to get the toilet to completely flush.  It also was running constantly.  When we left the room one morning to go to Universal Studios, I asked them at the front desk if maintenance could check it out while we were gone, and she called to have it looked at while I was standing there.  When we came back that evening, it had not changed.  We could hear it running all night long, and it still required repeated flushing to get it to work.POOL:The pool closes at 7?? After a day out in the sun at Universal, we were looking forward to swimming that evening.  What hotel pool closes at 7 pm?  I found that surprising.I wasn't looking for a resort experience at the Motel 6, but I do want a room that's in working order and is clean and comfortable.  At $110 a night, I certainly don't think that's too much to expect.  I do not feel it was worth the money.  We spent the next two nights at the Marriott Vacation Club Pulse in downtown San Diego, and for only $48 more a night, we had a COMPLETELY different experience.  I think this Motel 6 needs to step up their game.More</t>
   </si>
   <si>
+    <t>Sarah T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r490255971-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -330,6 +351,9 @@
     <t>We rented 3 rooms because our adult children were with us. We all had rooms on the first floor. Staff was courteous and helpful. Rooms were super clean. Our beds were very very comfortable with clean smelling linen every day. Rates were affordable. Motel located across the street from a huge mall. We were conveniently close to everything to include being close to many great places to eat. Motel is close to the freeway. Highly recommend this hotel for families and people on a limited budget. Don't forget to bring your own shampoo and conditioner  and a blow dryer. There's a refrigerator and microwave in the room.More</t>
   </si>
   <si>
+    <t>trocarshop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r487803124-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>What I Like- Location- Easy check out- Free coffee in the morning til 10am- clean room- enough towels providedDon't Like- Hallway smell is awful- Windows unlocked and screen broken. Easy access to criminals. - Water on bathroom sink is weak. - Our booking was cancelled because my card was declined. I didn't get any notification from hotel nor booking.com.   Motel told me they are not obligated to tell me as per policy. This policy is not customer centric and should be changed. Is it really that hard to inform customers? Good thing it was not high season they still have empty rooms. i paid the rooms using the same card.More</t>
   </si>
   <si>
+    <t>Stacy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r484479638-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>I must admit, I HAVE NEVER STAYED AT ANY HOTEL'S 6 in my life....but I must admit, when I searched online and reviewed other comments...I said ok.  I am stationed in Germany, and I had to go back to Southern California to see my sister who is dying from Cancer, and I needed a place basically just to lay my head, take a hot shower and return to the hospital.  My EXPECTATIONS of what a Motel 6 looked like was totally wrong.  My king size bed was comfortable....I think my bathroom was for accessible handicap...but it still was all good.  If I had to return to southern California, I would go back to the Motel 6, in Carson California....the staff was nice and helpful, when the batteries was low in the remote control, and they gave me batteries with no problems...there is a laundry facility and business center...the only thing I would add is to put a desk or small table w/chair in the room so others can work on their labtops.  I would recommend this Motel 6 to friends and familyMore</t>
   </si>
   <si>
+    <t>LisaPisaPie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r455680402-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>Being from out of state I was very nervous about renting a room for 6 nights at Motel 6 but once we arrived in the parking lot, I knew it was the perfect property for my child and I to enjoy our trip! It was in a great part of town, restaurants and shopping centers surrounding the area. The room was clean, the A/C worked great (especially when that humidity hits and you are not used to it) and the staff was friendly. I plan on staying there when we go back this year.More</t>
   </si>
   <si>
+    <t>Valente S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r441006438-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>I like being here the people in the motel6 is very helpful and nice and i hope you visit and enjoy ,on my staying, (thankz to manager, Liz, front desk malyn Francis, Bayron and all house keeping all them are hard workers and all the other persons very niceMore</t>
   </si>
   <si>
+    <t>N R R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r430153812-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>No much to said on this one!!for pleasure it's no the right place to stay !i my body asked a question to the security guard ,and the security guard was very disrespectful and courteous personal from front desk good but very little of knowledge  to give you information about the area !to much traffic people going in and out !!!More</t>
   </si>
   <si>
+    <t>bhallballard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r418577633-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>Great Place to stay, clean.  It was spacious, rooms kept up well, maintenance of the hotel was great, nice environment and friendly staff.  Linens were changed everyday as requested.  New towels and hand towels put out every day if needed. Air conditioning shower and bath clean.  Microwave and Refrigerator clean when we arrived overall I think it is a great place for anyone to stay.More</t>
   </si>
   <si>
+    <t>Roman S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r417336195-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>I first booked the trip through trip advisor and then it was booked through agoda. We went to the main office to check in and they said we did not have a reservation. And that I was to go to the motel 6 in Torrance but my confirmation was for the motel 6 in Carson. So it was a little bit of a run around. The rooms were average, not the cleanest but adequate. It wasn't the best for the money. More</t>
   </si>
   <si>
+    <t>americagirl22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r403972976-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>It had been a while since I last stayed in a Motel 6 (probably 8 years) so I was pleasantly surprised with their new look. I had a kingsize bedroom, and not only the bed was kingsize. The room was huge! I think two beds would have fitted in there as well. Very friendly staff upon check-in as well and a nice light and welcoming lobby.The motel is across from a mall and an Ikea which can be convenient if you want to go shopping. The Free Wifi worked fine. Overall I had a very pleasant stay here and good value for moneyMore</t>
   </si>
   <si>
+    <t>missie1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r380983176-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>Make sure to ask for a room away from pets.  We had 2 dogs barking in the room next to us all night.   We stayed here before our flight and it fit the bill.  Great price, big room, comfy bed and great A/C.More</t>
   </si>
   <si>
+    <t>Jennifer P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r380829833-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -552,6 +603,9 @@
     <t>My family and I came to visit family and vacation, we had a last minute change of plans and needed a hotel for the night.  Great place for us to stay. There was nothing really wrong with the room besides hairline cracks on some parts of the floor and the bathroom handle wouldn't lock, other them that we had a great stay.  More</t>
   </si>
   <si>
+    <t>fax2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r363785099-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -573,6 +627,9 @@
     <t>It is a good hotel for the price. The rooms are clean And the hotel is well kept up inside and out. The hotel has lots of parking. and it is near the hotel so you can hear people comming and going all night.More</t>
   </si>
   <si>
+    <t>Toni B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r343032687-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -600,6 +657,9 @@
     <t>We picked this hotel because it was so close (within a mile) to the Stub Hub center the venue we were in town for. Lots of restaurants and food near the hotel, a Target and little mall is right across the street. The rooms are a nice size, nothing fancy, but definitely can tell they've been updated. Nice they all come with a micro/fridge. We didn't stay at the hotel long, other than to get ready and sleep. I wouldn't normally stay at a Motel 6, but the group I was with picked it for the location and it turned out to be a great experience for the price! Good location LAX is about 15 minutes away, Downtown is 30 minutes, and Long Beach is only about 15 minutes.More</t>
   </si>
   <si>
+    <t>gisellgomez7710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r342927522-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -618,6 +678,9 @@
     <t>We stayed here because its about 5 minutes from the stub hub center and my husband was trying out for that team. Hotel is nice on the outside. Room was very big, king size bed, wood flooring. There's a microwave and fridge included. When I opened the fridge there was a jamba juice container which stank up the room. Thankfully the windows open up all the way and we had to get a freshener from the front desk to make it smell better. The room felt empty though because at how big it was. A couch for sure can fit.The TV was horrible, basic channels and they were blurry with lines across from it. No hair dryer, iron or coffee provided. Also when you turn on the water to shower it is extremely noisy. I was woken up at 5 am from the people to the left of our room because they were showering. Close to the freeway to that was a plus.More</t>
   </si>
   <si>
+    <t>christie b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r337616111-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -645,6 +708,9 @@
     <t>I stayed here on Dec.24th and 25th looking for a place cheap, clean and quiet. The lobby was nice and clean and different from what I expected. I checked in with no problems and was surprised when I opened the door to my room (in a good way). My room was clean spacious had a microwave and mini frig and a little table to eat at.The bathroom was nice and clean and larger than usual. I just wanted to rest. The two problems I had was the second day kids were slamming the door and running down the hallway. Also my fitted sheet looked like it had a stain or two so I slept on top. Other than that loved it here and would visit again. I was very surprised being that it was a Motel 6 but the rate and experience was awesome.More</t>
   </si>
   <si>
+    <t>Adrian R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r306436280-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -672,6 +738,9 @@
     <t>They did not have the room available even though I had a guarantee reservation. The manager was off during the weekend and was told to take the room and call Monday to get a refund because they were sold out.  There were four of us and only one bed.  I called and emailed the general manager several times and she never responded.  I filled out a survey from Motel 6 and then she finally responded by email.  I replied and told her what had happened and also sent her numerous emails and she did not respond anymore.  I sent an email to the customer service department and she responded again. She claims that my CC was declined during the preauthorization and had to give my room to someone else.  The CC that was supposedly declined at 2 PM was the same one I used to pay the room at 3 PM.  She claims that she was available by phone that day but the front desk told us that she was gone for the weekend and to call her back on Monday.  Motel 6 website indicates that if they fail to provide a guaranteed room that they will pay for accommodations at other establishment and that was never offered.  The front desk never even mentioned that the CC was declined or that the room was given away to someone else.  We were told that it was a mistake between this motel...They did not have the room available even though I had a guarantee reservation. The manager was off during the weekend and was told to take the room and call Monday to get a refund because they were sold out.  There were four of us and only one bed.  I called and emailed the general manager several times and she never responded.  I filled out a survey from Motel 6 and then she finally responded by email.  I replied and told her what had happened and also sent her numerous emails and she did not respond anymore.  I sent an email to the customer service department and she responded again. She claims that my CC was declined during the preauthorization and had to give my room to someone else.  The CC that was supposedly declined at 2 PM was the same one I used to pay the room at 3 PM.  She claims that she was available by phone that day but the front desk told us that she was gone for the weekend and to call her back on Monday.  Motel 6 website indicates that if they fail to provide a guaranteed room that they will pay for accommodations at other establishment and that was never offered.  The front desk never even mentioned that the CC was declined or that the room was given away to someone else.  We were told that it was a mistake between this motel 6 and the reservation center.  The general manager just made up stories to not provide a refund.  She is not very honest and has a very good imagination to come up with all these excuses.  Stay away from this property.More</t>
   </si>
   <si>
+    <t>Terrah_90745</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r306406770-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -690,6 +759,9 @@
     <t>We had our family reunion at this hotel, so a lot of our family stayed here.  We reserved the conference room for our opening day's Meet &amp; Greet and the hotel staff did not have a key to let us in to setup. So, we were not let into the room until after our start time and the room was FILTHLY!  We had to clean it ourselves and setup the room. To top off our Meet &amp; Greet, the room's air conditioning did not work properly, so it felt like 100 degrees in there. None of the security doors/exits are secure. A few of the doors were propped open all weekend &amp; one door is jammed &amp; doesn't close all the way.  I heard there was a security guard, but didn't see him at all that entire weekend. Many people loitering in the hallways at all times of the day &amp; night.More</t>
   </si>
   <si>
+    <t>808AlexnRuth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r295807635-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -714,6 +786,9 @@
     <t>The best motel I ever stayed at. The location is closed to everything. Is nice and clean and friendly people and works. This Motel got the best manager and fair with the people. I'm only review what I see and experience with my stay.More</t>
   </si>
   <si>
+    <t>Chris D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r267982102-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -741,6 +816,9 @@
     <t>Everything about the stay was great. The room was immaculate. Clean sheets, plenty of towels &amp; AC system was superb! Perfectly placed off the 405 Freeway with so many things to do within walking distance. I would definitely recommend this placeMore</t>
   </si>
   <si>
+    <t>Teresa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r263779696-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -765,6 +843,9 @@
     <t>I came to the hotel in afternoon, I was impressed from the start. Lobby was beautiful, The price was cheaper than I thought it would be.  I originally booked for two nights, I had to stay and extra night and spoke to Jainine K.  Jainine was super friendly and made it super easy to stay longer.  Thanks!! We will be backMore</t>
   </si>
   <si>
+    <t>jrpaine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r258442078-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -792,6 +873,9 @@
     <t>The location of the hotel was convenient, but the prices were high for what we got.  The hotel seemed to be fairly clean, but it was also fairly dingy.  The walls were thin enough for occupants of the rooms to be heard in the hall and vice-versa.  The TV had poor picture quality, which made watching it frustrating.We slept well enough, but it was not up to some of the most basic standards.More</t>
   </si>
   <si>
+    <t>GranoLV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r255241214-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -819,6 +903,9 @@
     <t>I recently had the extreme pleasure of staying at the motel 6 in Carson California, while attending a business conference in Long Beach. I was unfamiliar with the area, while in the lobby trying desperately to find my way, out of no where Ms. Khan came to my rescue, gave me directions, arranged for a car to come and pick me up, and to my utter surprise she even gave me names of good places to eat.  In this day and age where the business world moves at such a rapid pace, and there isn't much time for human interaction, Ms. Khan took the time to make me feel at ease, show me where I needed to be, and went out of her way to make sure I got to my conference on time, and without the stress I was feeling when we first met. As if that wasn't enough, later that afternoon, she called me to make sure that I had a ride back to the hotel. I was completely amazed at the care and concern that this beautiful young lady took to ensure my comfort. It's too bad this review only allows for 5 star rating, Ms. Khan is definitely a 10... look forward to my next conference.More</t>
   </si>
   <si>
+    <t>Nina J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r255138782-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -846,6 +933,9 @@
     <t>Not the first time I've stayed and it won't be the last. I always enjoy staying here when I am in the area. The staff is always friendly and helpful, the housekeepers are smiling and happy, the hotel is always very clean. I also used the meeting room for my training seminar and it worked out great!More</t>
   </si>
   <si>
+    <t>Matt_and_Dennis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r252559314-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -870,6 +960,9 @@
     <t>We stayed at the hotel from Dec.27 2014 - Jan.17, and what can we say!?! We had the best time ever in the States and in this Motel. We ve never found a better Motel like this. The Stuff ist VERY friendly and helpful (best greeting to Liz; the Man with the short black hair and the glasses on (didn t remember his name..sorry Pal); and the man who fixed our safe)... but all in all....everyone in this Motel was very friendly. We re looking forward to see u guy again this year. :) To the Rooms : The Rooms are imho in a very good condition and the are very clean. Everything works like a charm (TV,Toilet etc). We had a Microwave Oven and a Fridge at our room. Free Wi-Fi with moderate speed was also for free.Be sure to tip the Housekeeping Ladys well....they did a great job. The Beds are very clean and very cozy and comfortable...i ve slept like a toddler...lol....Also the Motel is located in a good neighbourhood. You have everything around you....and when i say everything...i meant it.. Southbay Pavillion shopping centre, Gas Stations, Target, Ikea....you can shop what ever u want....it is and it was great.  The Motel for itself is in a great condition. The Pool was also very clean. Everything in and around the Motel was very clean. They have also washing machines and dryers...and if you don t have enough...We stayed at the hotel from Dec.27 2014 - Jan.17, and what can we say!?! We had the best time ever in the States and in this Motel. We ve never found a better Motel like this. The Stuff ist VERY friendly and helpful (best greeting to Liz; the Man with the short black hair and the glasses on (didn t remember his name..sorry Pal); and the man who fixed our safe)... but all in all....everyone in this Motel was very friendly. We re looking forward to see u guy again this year. :) To the Rooms : The Rooms are imho in a very good condition and the are very clean. Everything works like a charm (TV,Toilet etc). We had a Microwave Oven and a Fridge at our room. Free Wi-Fi with moderate speed was also for free.Be sure to tip the Housekeeping Ladys well....they did a great job. The Beds are very clean and very cozy and comfortable...i ve slept like a toddler...lol....Also the Motel is located in a good neighbourhood. You have everything around you....and when i say everything...i meant it.. Southbay Pavillion shopping centre, Gas Stations, Target, Ikea....you can shop what ever u want....it is and it was great.  The Motel for itself is in a great condition. The Pool was also very clean. Everything in and around the Motel was very clean. They have also washing machines and dryers...and if you don t have enough quarters....the staff will help you to change your singles. :)) Did i forgot somethin?? Hmm...let me think....oh yes...we stayed there for 3 WEEKS and we can t wait to come back. :))) If you re looking for one of the best Motel 6 ever on the Westcoast...don t look an further. You ve found it. Enjoy your stay...as much as we did. :)) Thank you for reading. Best regards...from the "2 Germans"...of Room 118.More</t>
   </si>
   <si>
+    <t xml:space="preserve">sportsfan284 </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r243277326-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -897,6 +990,9 @@
     <t>nice place and kept up well but why is the lobby music blasting when people try and sleep ? especially when you're right near the lobby area...iron/blow dryer are upon request also. great area with many food places near by and places to shop..More</t>
   </si>
   <si>
+    <t>Habiib07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r238787552-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -921,6 +1017,9 @@
     <t>This place is infected with roaches, I don't know how some people feel about that, as for me I'm just sick. I don't like roaches,or any other kind of pets they might have. Disappointed, Just disappointed. But they do have a few shops near by, "ikea, target, starbucks, etc.. Close to the freeway (405).. The staff was very kind, it was very helpful.More</t>
   </si>
   <si>
+    <t>Chris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r237849424-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -942,6 +1041,9 @@
     <t>This hotel always pleases, the staff and management are excellent, friendly and helpful. The rooms are clean, everything functions properly and most important the beds are comfy. The hotel is across the street from many excellent restaurants and a shopping mall. This is the place to stay if you are looking for good value and convenience.More</t>
   </si>
   <si>
+    <t>Deb2M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r234600064-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -969,6 +1071,9 @@
     <t>Had to stay in Carson, CA for 3 weeks for work. Motel 6 was very well located with shopping and many restaurants across the street. The staff was extremely helpful. The young fellow who cleans the pool, grounds and appears to do just about anything asked of him on a daily basis, truly truly deserves a big raise. The most striking was his happy positive demeanor every day. The rooms were kept nicely cleaned and all indoor and out door facilities were well looked after.  We will definitely say here again.More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r226965572-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -996,6 +1101,9 @@
     <t>First off, the management at Motel 6 Carson is clueless. The property is in disrepair, and has been for over a year. They need to focus on improving the room lock system, as I had to have my key activated daily. There is the constant smell of marijuana in the hallways. The worst part, during weekends, numerous motorcycle gangs stay there, loud, loud, loud; cannot sleep, because the bikers are racing in the back parking lot. Another issue is the room rate, good luck getting a straight answer about how much the rooms cost; apparently, it's variable. Recommendation DO NOT BOOK A ROOM THERE! There are many more nice lodgings throughout the city. One last thing, don't bother speaking with the manager, it doesn't help.More</t>
   </si>
   <si>
+    <t>Donald B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r226167143-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1020,6 +1128,9 @@
     <t>Stay August 27 until Aug 31. From the moment I checked in until I checked out I was surprise by the friendly and professional staff. They answered all my questions with a smile. The room was very cleaned with only the essentials. Located across the street from a major shopping center right off the 405 freeway there were restaurants in all price ranges within walking distant. The area is very safe and is within easy reach of all major areas of the Los Angeles region. I will definitely stay here when I return to Los Angeles.More</t>
   </si>
   <si>
+    <t>Tesskat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r216483733-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1047,6 +1158,9 @@
     <t>This place is a nice place to stay; the rooms were great. The only negative was there was alot of activity during the night. There appeared to be some partying going on. It wasn't too loud or disturbing, it just made me and my friends uncomfortable when walking to and from the parking lot. More</t>
   </si>
   <si>
+    <t>Passionbiztravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r215247459-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1074,6 +1188,9 @@
     <t>Best Motel 6 I've ever stayed at. Friendly staff, totally modern lobby, and updated, clean rooms. Clean pool area and right across the street from a shopping center. Fridge, microwave and appreciating the powerful A/C on a hot summer day. Usual and towels are somewhat low quality but clean. No bathroom amenities but I'd rather have a clean room and comfortable bed then a cheap shampoo or lotion.More</t>
   </si>
   <si>
+    <t>Melinda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r212917445-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1098,6 +1215,9 @@
     <t>the management at this motel must be part of the problem, cause when reported at check out she said she would give us a refund of $153. and she only processed $25.00. Having test at Harbor General Hospital I needed to stay an extra day.It was worse every night hookers, pot smoke and barking dogs and day and night. The windows in rooms in back have no protection then the screen that pops off and the truckers drugs and hookers use this area for traffic of the illegal kind.had my children with me and had to put towels at door to block pot smell. The exterior/interior doors are open to the general public no locks. so if you do not want to get high or laid and be in a safe location do not stay at this motelMore</t>
   </si>
   <si>
+    <t>Mrs S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r207033869-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1125,6 +1245,9 @@
     <t>By far the best Motel 6 I have ever seen or stayed in! Awesome location next to mall and a variety of restaurants and stores. The rooms are definitely up to par, very clean, comfortable, and beautifully put together. The best part of staying here is the staff. They give you the feeling that you are staying as guests with your family and not just renting a room. They all had great personalities and so friendly that they left a lasting impression on me. Bri, Mayra, and Jason just to name a few that I noticed working very hard while also smiling and being sociable with the customers. Housekeeping makes everything look brand new and maintenance leaves nothing unattended. The whole establishment was a really complete reflection of the general manager Jainine Khan who went above and beyond to make sure all of us Motel 6 customers were satisfied with our stay. Thanks a bunch! We will return again and again, as well as recommend this location to family and friends.More</t>
   </si>
   <si>
+    <t>ralphralph910</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r204110655-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1152,6 +1275,9 @@
     <t>Well, didnt expect too much as it was a Motel but overall pleased.-Newly renovated but don't expect too much-Adequate room space as we have lots of luggage-Cheap-Ample parking space-In front of target, ikea and about a dozen places to eat around.-Walking distance to starbucks-Close to freewaySome things I hope they can improve-Elevator (lack of it). Had to carry my 2 full size suit case up the stairs-No laundry areaMore</t>
   </si>
   <si>
+    <t>Edugieivy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r202886519-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1176,6 +1302,9 @@
     <t>The staff at the motel were great. Rooms are good sized. I was able to request fridge, Microwave etc as I was staying a couple of weeks with the kids. The whole place was clean. Location was perfect for me. Shops, restaurants and things to do near by. Big thanks to housekeeping and maintenance crew who worked 6th-22 April, you were all great.More</t>
   </si>
   <si>
+    <t>MIT493</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r198790343-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1203,6 +1332,9 @@
     <t>The motel is clean, nice lobby, beds are comfy, great location for eating out.  The day I went I was able to check in early because the room was clean.  The  staff was great.  They do have transport truck and buses that park in lot when they stay there, so it takes up a lot of parking spaces.More</t>
   </si>
   <si>
+    <t>MitchB1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r198694801-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1227,6 +1359,9 @@
     <t>I have travelled worldwide and stayed in some of the finest hotels money can buy. I can unequivocally and wholeheartedly say with convictin that the service, staff, rooms and maintenance of this establishment exceeded even my high standards. They are pet friendly too which is a bonus and have a pool, gazebo and BBQ pit. Parking is always readily available and well lit, free coffee and a business center coming soon. In addition the location is conveniently located near the 405 freeway and major shops, restaurants and a gym. All around I would give this motel 6 a six star rating out of a possible 5 and u can rest assured Janine and her staff will do their utmost to ensure your stay is both pleasureable and memorable. More</t>
   </si>
   <si>
+    <t>Howeller63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r198075016-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1251,6 +1386,9 @@
     <t>Ignor old reviews this is pretty much redone and very nice. Clean, comfy beds, great location for shopping and eating out. The only negatives I had were that we drive transport truck and arrived early after days of driving and no one would allow a check in till 3pm. We waited 8 hrs then stood in line to check in. People check out all morning and rooms cleaned throughout day but won't let you in. Other motels do. Really sucked after days on the road then to stand line? The other issue was if you want a bath I guess thats a perk you cant do unless you bring your own plug. They do not provide. Strange -i like a tub soak when off the road have showers all the time. Just plug it with something yourself. Room was large, wall mounted flat screen, table and chairs, microwave worked great but from some other decade, fridge worked good. Overall great upgrade would stay again. Pets free and truck parking. Our boss forgot to book smoking which sucked but at 3pm check in one came available for us. The pool was awesome too. Wifi not great cuts in and out constantly.More</t>
   </si>
   <si>
+    <t>tnrdhd12863</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r191585248-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1278,6 +1416,9 @@
     <t>WOW...love this motel. The room was amazing. This is not your typical Motel 6. They are renovating now but it is still super clean and quiet. I will stay here everytime I am in town from now on. I also love the idea that my dogs get to stay for free. They also loved the huge room. It is right across the street from the mall and anything you would want to eat is within walking distance. Great job guys...More</t>
   </si>
   <si>
+    <t>Ma Jaselle V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r189926808-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1305,6 +1446,9 @@
     <t>we stayed here last december with my husband and we have a great stay. room is nice and clean as the frontdesk staff JOE was very nice to us also he even help us carry our luggages in the room though i we know his alone during the night.  We didnt worry about leaving our important things inside the room because i had a good impression to this motel. Security is always on the ground to check safetyness.I love staying in this hotel which exceeds my expectations.. thank youMore</t>
   </si>
   <si>
+    <t>MARK A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r189833584-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1329,6 +1473,9 @@
     <t>Room is very nice and huge compare to other Motel 6 I stayed in. Staff (Jojo) was very helpful and accommodating when we checked out. I would definitely stay again here in the future and will recommend this Hotel to all of my friends. And in addition I feel very secured to this location that they have a security during night time.More</t>
   </si>
   <si>
+    <t>JazzV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r185525774-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1353,6 +1500,9 @@
     <t>This is my second time to stay at this hotel and I had a better experience! Compared to the old rooms, the new rooms were much comfortable, with fluffier pillows, newly painted walls, easier access to the lobby, still very clean, new digital aircon/heater and overall, everything feels new. If available, do request for the new rooms!The downside is that they didn't allow local calls that time and the parking area is being renovated.I would stay again next time coz this is the most affordable you can get at a great location and good rooms. For sure when they are done renovating, this can earn 5 stars for a budget hotel.More</t>
   </si>
   <si>
+    <t>Robyn K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r179419350-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1378,6 +1528,9 @@
   </si>
   <si>
     <t>They were doing construction which wasn't listed anywhere when I booked. The parking lot has massive pot holes and even the driveway entrance I thought the bottom of my car would be scrapped off. Telephone was missing buttons, microwave had wrong plate in it so couldn't use it. Vending machine were out of order and the comforter I had had burn holes in it. You can tell the maids barely cleaned the room because under bathroom sink there was trash and also under bed. Even though rooms are inside its not secure.More</t>
+  </si>
+  <si>
+    <t>Somewhere808</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r175620102-Motel_6_Carson-Carson_California.html</t>
@@ -1448,6 +1601,9 @@
 THE...I'm on my last day here at Motel 6 and I have to say that I enjoyed my stay here and will choose to stay here again on my next trip!THE GOOD: Love the location! It is in front of commercial establishments such as IKEA, Target, SouthBay Pavillion (JC Penny, Sears, small food court, and some stores) and there's Starbucks by the intersection. Beside Motel 6 is Carson Buffet for your hungry tummy!The Room: I got a 2-double bed room on the second floor with a toilet and bath, flat screen tv, heater/airconditioning, small refrigirator and microwave. Practically everything I need is here. Oh except for a hair dryer. Had to dry my hair by the A/C on fan mode. The bathroom is ok, with hot and cold shower. The view out my window is not much fun - just the driveway at the back. Room and toilet is generally clean and they will clean it everyday unless you post your do not disturb sign by the door knob.There is a swimming pool ang barbeque area which I believe can be used by everyone. It is quiet most of the times. There's coffee by the lobby ( I thnk its free but I didnt try it) and there's a vendo to buy your soda or bottled water.We got this room via AGODA on a very cheap deal of around &lt;$50 per night which is great!THE BAD: The hotel is being renovated so there are hammerings by noon which may bother anyone on jetlag. The toilet seat in my room kinda moves when you sit down but there are no leaks so had to bear with it. No free breakfast! No restaurant and no room service! Shower on the next room can be heard loudly on my room! There is no elevator so you have to drag your luggages up &amp; down the stairs.The key cards always lose the room programming and I had to to bring it to reception so I can open my door again! I think I had that done around 4- 5 times which sucks. Reception said they are cheap cards and expect that to happen every now &amp; then.For the price, i think we got a little more than what we paid for. :)More</t>
   </si>
   <si>
+    <t>Allison R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r160719724-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1466,6 +1622,9 @@
     <t>I booked this hotel because it came up as being the closest hotel near the Home Depot Center (Wango Tango 2013), and it's reviews were fairly descent so I decided to give it a try. Pulling up to the hotel, it is very obvious that it's undergoing some much needed renovation but the clerk at the front desk (Maria) was really friendly and even gave us some great pointers when it came to the event we were to attend (parking, taking a taxi, calling us a taxi even!). The newly renovated rooms are very updated with minimal style, hard wood flooring and updated appliances. The beds were better than I expected, but bring your own pillows, the one's they give you are incredibly flat and overused. Overall, the location of this hotel is great, the mall and IKEA are literally right across the street and the best part is how cheap the nightly rate was! I would definitely recommend this hotel for anyone that is looking for a soft place to fall after a long day of shopping or rocking out at the Wango Tango concert!More</t>
   </si>
   <si>
+    <t>Rich G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r155019764-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1487,6 +1646,9 @@
     <t>I am from out of town working a construction job. Going to stay here for a month.Immediate Check-in. Awesome rate. Friendly staff.They are in the process of remodeling the other rooms. I have a Remodeled Room.Great Job Motel 6. This room is awesome. Ultra Modern with bamboo flooring. Nook cushion seat with fixed table. Modern Bath. Super Clean. Warm Colors.People complain the room is dark/depressing, Well, "turn on the lights and take your pills"The room is bright and "exciting".Fridge and Microwave.Free WiFi. I tested it, .92 mb download, .52 mb upload. Good for general use.There is a built in media hub below the T.V. Plug in your computer, Play Station, X-Box, IPOD, etc..(bring the proper connection cables for your device- DVI, HDMI, USB, RCA).Shopping Mall across the street and many places to eat.People complain/sent a review of "undesirable" people. LOL. Not here. I work construction to provide for my family. I am an upstanding citizen, and I would never hurt a soul. After work, I am dirty. Holes in my levi's, dirty work boots, I'm Tired and looking beat-up. Please don't judge me as "undesirable". Think first before you judge anyone.This is the best Motel 6 I have ever stayed in. Take the bad reviews with a grain of salt. Everybody likes to complain.More</t>
   </si>
   <si>
+    <t>Jason C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r149042948-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1505,6 +1667,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Cathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r143958595-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1526,6 +1691,9 @@
     <t>The rooms were remodeled with laminate hard wood floors that were loud with every step.  The updated rooms were uninviting and made my mood depressed. That's not the worst part, the actual hotel owner was rude.  I didn't know some of the rooms had microwaves until I called the front desk to ask about having one brought to my room because I have 2 babies and needed to warm their bottles. The rep at the front desk told me I could not have one brought to my room, but I could, in the middle of the night, go to the front desk and have whoever was working at the front desk take to a vacant room where a microwave was so that I could use it.  When I spoke with the rude owner in the morning about the issue he informed that his hotel was not a 3 or 4 star.  Then I found out he blacklisted me from coming again to his hotel.  Wow, what a jerk.More</t>
   </si>
   <si>
+    <t>Ocean72462</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r141052939-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1547,6 +1715,9 @@
     <t>Stayed here first part of September 2012. Checked in at around 11:30 p.m.; tired from a 6 hour road trip up north. We chose this motel cause it was close to some friends we were visiting. First thing was that the night counter person had a very poor attitude. The lady's cleaning the rooms are more friendly. If I hand you something I expect you to hand it back to me, not toss it back to me on the counter. There are no elevators and we had to carry our bags up this flight of stairs to the second floor, no problem. My thing is, the counter person did not even offer any kind of assistance.The good thing is that the room was clean and comfortable. There are a few shopping complex within walking distance.There is no laundry facility. Vending and ice machines only (high priced)(had to get food, drinks, etc. else where).More</t>
   </si>
   <si>
+    <t>Ashleydash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r135021168-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1560,6 +1731,9 @@
   </si>
   <si>
     <t>They tried to put us in a room that was damp with mold all in the bathroom and walls. Carpets were still damp. It was disgusting. They moved us but that's it. They didn't even assure us the room would be shut off! My lungs were hurting along with the other 3 people</t>
+  </si>
+  <si>
+    <t>Ponch H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r134537105-Motel_6_Carson-Carson_California.html</t>
@@ -1589,6 +1763,9 @@
  The following days were better. The day before checkout 1 of the key cards stopped working. We had 2 so didn't bother getting it fixed. The last morning we were woken,hours before check out, by a knock at the door. I answered it and it was the cleaning staff ready to service the room. He said (pointing to paperwork) "Oh, My list shows you as checked out already." I told...Reserved a NON smoking room. Hallway reeked of smoke. Room not too bad. Cigarette burns in the comforter. Air conditioner thermostat knob was broken off so only the fan worked. That was just the first 15 minutes. After spending the next day out, came back to the room in the evening, the room had not been serviced. Beds still unmade, no fresh towels/linens. Called to ask why and to at least get fresh towels and was told "all we have are hand towels you can try tomorrow." O...K...? Had plans so I wasn't able to pursue this further right then. Came back from event around 1:30am. Key card wouldn't unlock door!! Seriously!?  We went to the front desk(1:30am) to figure out why. Somehow we had been checked out of our room and put in another.  ???  The night manager was the bright spot. Not the most talkative or engaging guy, He just took care of things. We asked about the towels and like a magician he produced 4 of everything.  The following days were better. The day before checkout 1 of the key cards stopped working. We had 2 so didn't bother getting it fixed. The last morning we were woken,hours before check out, by a knock at the door. I answered it and it was the cleaning staff ready to service the room. He said (pointing to paperwork) "Oh, My list shows you as checked out already." I told him we were checking out today.We did get a $25 refund for our troubles. That was good. Bottom line, I would only stay here if everything else in a 30 mile radius was sold out.More</t>
   </si>
   <si>
+    <t>vicki g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r131758037-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1610,6 +1787,9 @@
     <t>The pictures show a couple of nicely renovated rooms and nice looking facility.  Do not believe your eyes.  This place was clean but had a strong odor of sickly sweet cleaning supply.  Our room had not been renovated in many years.  Bedding was old and the pillows were a joke.  There are transients living at the hotel as we saw the school bus pick the children up and bring them home. Outside doors were never locked allowing easy access to anyone off the street.    I will never stay in a hotel again that I haven't checked out personally. Other reviews have mentioned breakfast and coffee service.  There is no breakfast and the coffee is served from a machine.   This hotel gives Motel 6 a bad name in my opinion.  Felt we were overcharged for what we received.More</t>
   </si>
   <si>
+    <t>Mathew M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r123878329-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1631,6 +1811,9 @@
     <t>We originally booked this hotel through Hotwire back when it was a Clarion Inn. It was rated a 3-Star hotel with decent amenities. I never got a notice from Hotwire about the name change until I inquired about it a week before our trip. I was resent a confirmation for the Motel 6, also rated a 3-Star with the same amenities, so things seemed okay even for it being a Motel 6.We only planned to stay one night before flying out of LAX the next morning. However, when we checked in, things changed. C.J. at the front desk was extremely helpful. The hotel itself, sketchy and in a questionable part of town. From where our room was located, you had to walk outside around the hotel to the front desk due to major remodeling. The room itself had a broken window that was open, torn curtains, severely peeling wallpaper and a phone with no buttons. Furthermore, none of the amenities that Hotwire had indicated. While walking down the hall, another guest mentioned a group of teenagers had come into the building the night prior and had a loud gathering in the off-limits area of the remodeling. My wife, infant child, and I felt very unsafe and after complaining to Hotwire and having them reserve us a new hotel, we promptly packed up and left as fast as we could.More</t>
   </si>
   <si>
+    <t>georgebird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r121292566-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1649,6 +1832,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>MichiganHappyone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r118494629-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1667,6 +1853,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>SageTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r116679827-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1685,6 +1874,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>Saraisis17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r115687908-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1700,6 +1892,9 @@
     <t>Booked three nights with priceline &amp; was a really good deal- hotel is average- nice staff - location is a little out of the way- but you can't beat the price.</t>
   </si>
   <si>
+    <t>lindays_lovely</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r115641005-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1718,6 +1913,9 @@
     <t>i stayed there for sometime, i would say a good month and one morning i woke up to get some breakfast and a dead ROACH was in the middle of the hallway. I called the front desk three times to get it up and they didnt! We also found one in are bath tub the size of a donut hole. We asked if we could getaway night free but the manger refuse and took 10 dollars off are bill. Also the pool was green for about 2 whole weeks, my husband and i will never stay at this hotel again. I rather stay at a hilton,where i know it will at least be clean and have a good staff!More</t>
   </si>
   <si>
+    <t>Foodie4lifeiam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r105715014-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1740,6 +1938,9 @@
   </si>
   <si>
     <t>This hotel was horrible, old, smelly and I just didn't feel safe. We ended up staying for one night since it was late but booked at a different hotel nearby first thing in the morning. All I need is a clean comfy room and I need to feel like it's a safe environment. This hotel did not provide that for me.More</t>
+  </si>
+  <si>
+    <t>AvbCole</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r100770093-Motel_6_Carson-Carson_California.html</t>
@@ -1776,6 +1977,9 @@
 Also, at one point I keft my phone in the room and come back to find it was not there, on reporting this to reception...getting to the hotel didnt take very long; about 15 minutes from LAX. First impressions was it looked quiet good. The rooms were very cleans and the beds were comfy. We had cable in the room which gave a variety of channels so sometimes it felt good to stay in.Breakfast was a great start to the morning, especially the fresh waffles... the hotel provides the batter and you make the waffles yourself which was quite fun, there was other option such as cereal and toast etc. Hotel staff were very helpful and didn't seem too bothered by anything we asked of them.The mall across the street was very usful, there are many restaurants and shopping facilities so you didnt have to travel far to get a good meal. You need to to travel on the trains to get to any of the main tourist attractions (namely hollywood) but this wasnt too much bother as the days were nice. Though it did usually take about a hour each way, which seems like such a long journey on the way back to the hotel.Downsides -  the hotel had a swimming pool but during our stay we were unable to use it due to some works going on with it, which was quite a disappointment.Also, at one point I keft my phone in the room and come back to find it was not there, on reporting this to reception my phone mysteriously appeared back in my room later that day, which the language being change to spanish... so I do believe it was stolen, but I guess I did get it back.Its a good hotel but the location could be better for attractions.More</t>
   </si>
   <si>
+    <t>rjhoward</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r99479552-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1797,6 +2001,9 @@
     <t>The location is pretty good; shopping and freeways nearby.  That's absolutely all it has going for it.Aside from that, the property is a dump.  Old and threadbare; and it gets worse.  Free Wi-fi?  Doesn't work.  Potholes in the parking lot you could lose your car in.  You can see daylight around our room door.  Thought I had see it all, but this is a new low.  Dark, dingy hallways smelled of pot and fried chicken.  You can hear EVERY WORD EVERYONE SAYS ALL THE WAY UP AND DOWN THE HALL.  ARE YOU GETTING THE HINT?  IT'S *NOISY*.Today is Tuesday; supposed to leave on Friday.  Dunno if I can make it or not.Prepaid through Hotwire, so no refunds or early checkouts.  BTW, don't use Hotwire.  Ever.  They claimed that 80% would recommend this dump.  I don't believe that for a New York minute.More</t>
   </si>
   <si>
+    <t>lesjh74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r90257183-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1818,6 +2025,9 @@
     <t>I felt deceived by the pictures. The rooms look nothing like the pictures. We got a non-smoking room that smelled like smoke, because there are smoking rooms right across the hall, so the enitre hallway and rooms smelled like smoke. Carpets were dirty and had holes in them. Chairs were dirty, trim was coming off the wall. Water pressure in the shower was low. Fitness Center was not in use.Paid $88($97 with tax) for this horrible room. The only nice things were the bed were comfortable, and the lobby was nice(as seen in the picture).The area is not bad, its right across from a mall, lots of place to eat. Good thing we were only down there one night for the CIF football championships.My advice do not stay there until they fix it up.More</t>
   </si>
   <si>
+    <t>Quebermuda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r89101190-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1834,6 +2044,9 @@
   </si>
   <si>
     <t>May 2010</t>
+  </si>
+  <si>
+    <t>IamMcLovin</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r86530687-Motel_6_Carson-Carson_California.html</t>
@@ -1865,6 +2078,9 @@
 By way of compensation, one of the workers offered three nights free of the six, but then the manager withdrew that offer and would only give one. After a lot of back and forth he offered 2 and eventualy I was able to get 3 back, as I had booked through Hotwire,...I stayed in the Clarion in Carson for 6 nights in November 2010, to attend a course nearby in Torrance. On the third night I found a bedbug crawling on the sheets, and it had already bitten me as I could see the blood in it's abdomen, which was pretty gross. I requested to move rooms. The manager was apologetic but offered nothing in the way of a bill reduction or voucher or anything. On the sixth and final night, a group of bikers had a meeting in the hotel, and stayed up until 4am revving engines and shouting, and at one point letting off fireworks, and as my new room was at the front ot the hotel I got 3 hours sleep before the red-eye the following morning.Even aside from these incidents, the hotel was pretty grim. It had a drak gloomy feeling, no elevator to the upper rooms, and just felt plain dirty and run-down. The free wifi was terribly slow, too slow to voice-only skype, and I wasn't comfortable at night with my rental car in the carpark, it wasn't very secure or monitored.By way of compensation, one of the workers offered three nights free of the six, but then the manager withdrew that offer and would only give one. After a lot of back and forth he offered 2 and eventualy I was able to get 3 back, as I had booked through Hotwire, so I only had to pay for 3 of the 6 but even then it wasn't worth it.Avoid this hotel.More</t>
   </si>
   <si>
+    <t>kpayne27</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r73965329-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1883,6 +2099,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>MISSNELSON1399</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r72827857-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1899,6 +2118,9 @@
   </si>
   <si>
     <t>I booked this hotel after reading the reviews of it extensively. The pictures looked really nice, and it was rated at 3 stars. We get there, and as we walked in I noticed that the front doors were open and they had a fan on to cool the lobby, and a small fan at that. While standing at the check out counter I noticed that behind the desk the walls were tore up and in need of repair, and there was another fan going behind the desk to cool the employees. I got a bad feeling then. We head to our room with out ton of luggage only to discover that there was no elevator and we had to carry all of it ourselves.  We get to the room and it smelled like a bar, total cigarette overpowering us. We go down and explain that we requested a non-smoking room. They give us a new room. The room is not what was pictured. In the pictures it showed the beds as having down comforters on them and not the old, ugly, nasty bedspreads that cheap hotels usually have. It was in need of major renovations. We called Expedia, who we booked through, only to be told that nobody else had openings for the 10 days were gonna be there. So, we stayed here. There was free breakfast, free parking, two of the major reasons this hotel was picked to begin...I booked this hotel after reading the reviews of it extensively. The pictures looked really nice, and it was rated at 3 stars. We get there, and as we walked in I noticed that the front doors were open and they had a fan on to cool the lobby, and a small fan at that. While standing at the check out counter I noticed that behind the desk the walls were tore up and in need of repair, and there was another fan going behind the desk to cool the employees. I got a bad feeling then. We head to our room with out ton of luggage only to discover that there was no elevator and we had to carry all of it ourselves.  We get to the room and it smelled like a bar, total cigarette overpowering us. We go down and explain that we requested a non-smoking room. They give us a new room. The room is not what was pictured. In the pictures it showed the beds as having down comforters on them and not the old, ugly, nasty bedspreads that cheap hotels usually have. It was in need of major renovations. We called Expedia, who we booked through, only to be told that nobody else had openings for the 10 days were gonna be there. So, we stayed here. There was free breakfast, free parking, two of the major reasons this hotel was picked to begin with. The first morning we went down for breakfast, we were really disappointed. The selection was make your own waffles ( which I LOVE) a couple fo different fruite, 3 cereals, toast, and bagels and juice. I could not make myself eat the waffles. They were horrible. I have never turned down a waffle and I could not eat them. The rest of the trip I didn't even bother going down there. So, my advice to all travelers would be to NOT stay at this hotel. We had never stayed at a Clarion before, and will not in the future. I am not sure if they are all this bad, but my guess would be yes. Oh, and the walls were paper thin, you could here everyone's everything. The matresses were old and hard as bricks, the pillow they give you, and it is only one each was lumpy and bumpy. The spread on the bed had repairs on the other side and looked like it was about 30 years old. And to top it all off these room were obviously not deisgned with a traveler in mind. it was hard to get ready. There were hardly any elecrtical outlets, only a couple of mirrors. The bath tub filled up as you took a shower, The shower was so low I had to practically do a backbend to wash my hair. The bathroom didn't have good ventilation and so steamed up bad.More</t>
+  </si>
+  <si>
+    <t>hugolpr</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r69413940-Motel_6_Carson-Carson_California.html</t>
@@ -1925,6 +2147,9 @@
 Of course, it is not a five stars Bervelly Hills hotel, but if you want to spend your money in visits...We had a very decent experience at Clarion. The rooms were clean and proper, the bed was comfortable, the breakfast was correct for a standard complimentary continental. The parking was available (yes, there was no gates or security equipment, but it didn't seem to be a problem for us...). Our TV was not properly programmed when we arrived, but they fixed it in twenty minutes after I called the reception. The room had thick curtains, what gave us a good isolation from the outside light in the morning. They were very well acoustically isolated as well, very calm. The service was nice (they were responsive when I called). It's a very functional hotel for sleeping and having a rest after a day of tourism. We were looking for a hotel that fits in our budget, and this one was perfect. There are some groceries, restaurants and shops around, giving us a lot of flexibility. Negative points: location (a bit far from LA, but not too much from the airport; you will need a car to go to LA). Lots of traffic to LA touristic spots. However, it is not very far from Hermosa beach and Long beach, if you want to know the cold June LA beaches. Internet access was a little bit slow as well... but who cares?!Of course, it is not a five stars Bervelly Hills hotel, but if you want to spend your money in visits rather than in hotels, that's the place.More</t>
   </si>
   <si>
+    <t>angel90008</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r53482980-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1944,6 +2169,9 @@
   </si>
   <si>
     <t>Omg. I will never go here again.  First, there was barely any parking in the parking lot. When I first walk in, I didn't see anyone at the front desk. As I was standing there looking around for someone to help me, I finally see someone who had been sitting down the whole time. After waiting awhile she finally got up and helped me. As if get to my room, I noticed that there was no microwave. What is the point of requesting certain options, when you are not going to get them? The door did not seem very secure. I didn't feel very confident that if someone were to try to break in, that they would not be able to. The paint was chipped on the wall and some of the furniture. Instead of the option I chose online to have a microwave, I got a dirty couch.  There was free continental breakfast, but it was not nothing to write home about. I am baffeled as to how this place got such high ratings.More</t>
+  </si>
+  <si>
+    <t>onzy88</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r47076848-Motel_6_Carson-Carson_California.html</t>
@@ -1975,6 +2203,9 @@
 All in all - had a great...This is a brilliant hotel that both my friend and I enjoyed very much. It was just a great place to crash out and sleep after long days of shopping and travelling. Yes, it may be far out and I would advise hiring a car as you will feel stranded. There are plenty of shops and restaurants near by that offer plenty to eat and buy! There's even an Ikea over the road!It took me 10 mins from LAX airport and no longer. The I-405 is right next to the hotel, so it is great for getting to places easily. From the airport take the I-105 to the I-405 south - follow that all the way to Avalon Bvld. Exit there and turn left at traffic lights and keep right. Dominguez St. is the first right. So easy to find.The hotel is basic - but what do you expect for the price you pay. We had fresh towels every day. Beds were made etc. Fridge in room for drinks etc. There is a drinks machine and snach machine in the hotel lobby.  Breakfast was ok. Nothing special. As someone said previously-Carbs fest-I totally agree. Waffles, Croissants, Bagels, Bread and Cakes. But it was ok. Plenty of juice and coffee as well. Just remeber not to take a flask to refil and take away - they don't seem to happy about that!All in all - had a great time and would recommend this hotel to anyone  - although people have different opinions!More</t>
   </si>
   <si>
+    <t>kernowkritter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r46550674-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -1996,6 +2227,9 @@
     <t>If you have a car then this  H(m)otel is a great place to stay. Its about 20 - 30mins from the airport so after a long flight its not too far to navigate to when your feeling tired. Right next to the freeway its a great base for exploring the whole LAX area.The rooms are large and clean with everything you would need -nice toiletries,coffee machine, fridge, cable and free wifi .Handy having the mall over the road especially Target for snacks and drinks for the fridge!.The breakfast was a carb fest -waffles, croissants,muffins, toast and cereal but better than nothing i guess.There is a really good Sushi restaurant nearby (over the traffic lights in the strip mall) and the usual dennys / starbucks / chillis style restaurants all within walking distance from the hotel.This hotel also has is a guest laundry which is very handy when traveling / touring $3 to wash and dry my whole suitcase full of clothes!I have no hesitation in recommending this hotel.Cheap and cheerful it is!More</t>
   </si>
   <si>
+    <t>phileaglesfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r43212980-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2015,6 +2249,9 @@
   </si>
   <si>
     <t>The hotel is definitely older and definitely could use an elevator.  It seems to be a big trucker stop as when we came back from our friends party near by  late at night we couldn't find a parking place.  There was a few trucks parked in one of the main parking areas instead of in the back where there are few regular parking places.  It is right near Ikea and the South Bay Pavillion, real close to the 405 and 110 junction.The price was great and seems to be in a safe neighborhood.  After stopping by the Comfort Suites in Gardena we were just glad to get somewhere that we felt safe.More</t>
+  </si>
+  <si>
+    <t>JASLasVegas</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r40125195-Motel_6_Carson-Carson_California.html</t>
@@ -2045,6 +2282,9 @@
 The room itself was a basic room with a king bed, the air conditioning rattled and smelled funny when it was running and the outlets in the bathroom did not work making it impossible for the use...I booked this hotel through Hotwire as a 3 star in the Torrance,Gardena, Carson area. I am very familiar with the area and the ratings of hotels so I figured that I would get one of the shown ( Radisson, Doubletree ) properties in the area. This was not the case. This was formerly a Quality Inn, and even when it was that property it was never in the best condition and did not deserve a 3 Star Rating.We were not very pleased with many things about this property.Many truckers stay at the property using most of the parking spaces towards the entryways into the property. As well as there were people sleeping in their cars  and smoking marijuana, the staff said there was nothing they could do about it. The halls were darkly lit and in the middle of summer they were not cooling the hotel adequately. There was food that someone spilled on the floor next to door to our room for over a day. I would have expected someone in housekeeping to sweep it up but it was there on the floor the afternoon before we left and at 8 am when we got out of this dump.The room itself was a basic room with a king bed, the air conditioning rattled and smelled funny when it was running and the outlets in the bathroom did not work making it impossible for the use of a blow dryer curling iron etc.  I had to do my hair in the bedroom area with a hand held mirror.There was a very loud party going on in the pool area past closing time two days in a row which moved into a gazebo directly behind our room. It took three trips and two calls down to the front desk to ask the staff to please do something about the noise to no avail. They finally did something when I made a call directly to Hotwire  to complain.  Sadly I would not recommend this hotel to anyone but a trucker or a group of guys wanting to party for a weekend.  The only good selling point would have to be the waffle maker at the hotel, making your own fresh waffles that were very good was a nice change to the normal continental breakfast.I feel duped by Hotwire with the bait and switch. They state that : Quality 3-star hotels   Quality 3-star hotelsThese quality establishments make comfort and personalized service their priority. These full-service properties usually feature:    * An inviting, relaxed lobby    * On-site dining    * Room service    * Family-style roomsWith Hotels being the Doubletree and Holiday Inn.  Economy 2-star hotels   Economy 2-star hotelsThese economy establishments offer reliable accommodations with a few extra features. Features may include:    * In-room coffee maker    * Cable TV    * Alarm clock    * Continental breakfastOff-site dining is usually located within walking distance.Are like La Quinta, Comfort Inn and Days Inn. Hotwire needs to change how they rate these properties!More</t>
   </si>
   <si>
+    <t>rcookTehachapi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r36624428-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2063,6 +2303,9 @@
     <t>July 2009</t>
   </si>
   <si>
+    <t>northsnowbird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r33135976-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2081,6 +2324,9 @@
     <t>June 2009</t>
   </si>
   <si>
+    <t>Drizzy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r32223497-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2099,6 +2345,9 @@
     <t>out of all the motels and hotels I stayed in on a california road trip, I really liked this one. OK, it's not near anything in LA but we'd just got off a long flight and were ever so pleased to have a very quiet room in the main block. The room was huge, massive comfortable bed, fridge and hot drink making facilities.The only annoyance was an underpowered shower comfortalbe for those under 5 foot 5. We are both tall but adapted!The breakfast was much better than lots of the places- you can make your own waffles which are gorgeous, but I would recommend getting there before 9 to avoid the queues.there is a swimming pool but we didn't use it.More</t>
   </si>
   <si>
+    <t>traveller41Uk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r25219534-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2117,6 +2366,9 @@
     <t>February 2009</t>
   </si>
   <si>
+    <t>propete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r22711468-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2138,6 +2390,9 @@
     <t>Good location, close the 405 ramp and in good shape. The area has several restaurants and stores around; doesn't seemed sketchy. Ikea is right across from the hotel.Room was spacious, but the heater was a bit noisy. The double-pane windows were both leaking with plenty of mist inside, reducing transparency. Fix them!Front desk staff seemed careless, but wasn't rude or unfriendly. Great breakfast in the morning, but I don't know why they had to have the lady helping us making waffles - and keeping an eye on everyone.I'd return here if we're passing through, but it's not a destination - just a good place to rest. My only wish is that they would put in an elevator - at least I didn't see one.More</t>
   </si>
   <si>
+    <t>jdmans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r22672856-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2159,6 +2414,9 @@
     <t>This hotel is located adjacent to 405 in Carson.  It is important when checking in to ask for a room away from the 405 side, as some of the guests have noted that they heard the traffic all night.I did that and was given room 226, a good room to ask for as it was a quiet, clean room, with a clean rug and bathroom and two beds, a refrigerator, iron, and ample cabinet space, overlooking the pool area and not far from the front entrance.  There is a mall across the street with a Target, Sears and other major outlets, and a restaurant next door (didn't eat there).  Breakfast is ok with juice and a few other items, and there is a large dining area.  There is a fitness center open fom 7 am to 10 pm and a nice lobby.  I stayed two nights on business and was very pleased with the room and hotel.  There was also available parking space in front and on the side of the hotel.  Considering that this was $47 per night on Hotwire, that is a great deal for a Los Angeles area hotel in a fairly nice part of Carson..More</t>
   </si>
   <si>
+    <t>qcdriver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r20430281-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2177,6 +2435,9 @@
     <t>September 2008</t>
   </si>
   <si>
+    <t>TravelPoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r17323056-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2198,6 +2459,9 @@
     <t>This hotel is perfect if you want to be smack in the center of things and right off the 405 highway. It is a half hour from just about every destination in LA. Including Hollywood, Disneyland and Malibu. The building and suite were average. Nothing extra special, but definitely comfortable and clean. The roomkeeping staff are detailed and do a good job of cleaning up.They offer a decent continental breakfast with cereal, mini muffins, fruit, toast, yogurt and fresh made waffles. But would be much better with some eggs and sausage or bacon. Get there early, cause they tend to run out of things towards the end of breakfast. The pool at the hotel is fantastic actually. Very clean, outdoors, with lots of sunshine throughout the day. Now here's the bad part...the front desk staff act like you owe them something. We were there 6 days and didn't so much as get freakin smile from the girl behind the desk. Not rude or anything, just very poor attitude. They would do better to put some of the cleaning staff behind the counter cause they were far more cheery. Overall, well worth the stay given the location and price.More</t>
   </si>
   <si>
+    <t>ld1244</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r12385364-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2213,6 +2477,9 @@
     <t>Noisy, too close to the freeway.  That side of hotel impossible to sleep.Hotel needs a good cleaning, and upgrading.Non-smoking room smelled of smoke."Breakfast" seemed like fake eggs, weak coffee, a toast your own bread.No secure parking area.</t>
   </si>
   <si>
+    <t>johnk123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r10507322-Motel_6_Carson-Carson_California.html</t>
   </si>
   <si>
@@ -2229,6 +2496,9 @@
   </si>
   <si>
     <t>this hotel was ok for the price. got an amazing price of $41 per night on priceline...  had a convention in long beach, and this hotel was central to long beach and other places I wanted to visit while in southern california.room was clean, bed was ok.  other reviews on trip advisor make this place out to be bad, but not that bad, but not that good.a few issues:wireless connection shotty at best. even in the hotel lobby didnt work that well.my room key would deactivate every day, and everyday had to get it rekeyed at the front desk. other people had this problem too.a little peeling wallpaper by the window, but my room, looked recently refurbished.  new tile in bathroom, except for 70s tile around tub surround.dont expect luxury in carson california. overall felt generally safe, although some "thuggy" looking people. Carson isnt the best area overall.  probably would not stay there again, and would prefer something different, since the internet connection was the main reason I choose this hotel.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32177-d142256-r4727524-Motel_6_Carson-Carson_California.html</t>
@@ -2823,43 +3093,47 @@
       <c r="A2" t="n">
         <v>7578</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2873,50 +3147,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>7578</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2930,50 +3208,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>7578</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2987,50 +3269,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>7578</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3048,50 +3334,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>7578</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3105,50 +3395,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>7578</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3164,56 +3458,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7578</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3231,56 +3529,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>7578</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3292,56 +3594,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>7578</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3359,56 +3665,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X10" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>7578</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3424,56 +3734,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>7578</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3485,56 +3799,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>7578</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3546,56 +3864,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>7578</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3611,56 +3933,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>7578</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3672,56 +3998,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>7578</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3739,56 +4069,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>7578</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3804,56 +4138,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>7578</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3865,56 +4203,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>7578</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3930,56 +4272,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>7578</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3995,56 +4341,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>7578</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4062,50 +4412,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>7578</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4123,56 +4477,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>7578</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -4190,56 +4548,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>7578</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -4257,56 +4619,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>7578</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4324,56 +4690,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>7578</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>248</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4385,56 +4755,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>7578</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>258</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4446,56 +4820,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>7578</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>267</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4513,56 +4891,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>7578</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4578,56 +4960,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>7578</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4645,56 +5031,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="X30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>7578</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4712,56 +5102,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="X31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>7578</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4773,47 +5167,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="X32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="Y32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>7578</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>316</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="J33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
@@ -4830,56 +5228,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="X33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>7578</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>325</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="J34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4897,56 +5299,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>7578</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>333</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4964,56 +5370,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="X35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="Y35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>7578</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>343</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="J36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="K36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="L36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="O36" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5031,56 +5441,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="X36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>7578</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>353</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5096,56 +5510,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="X37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>7578</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5157,56 +5575,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="X38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Y38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>7578</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>372</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5222,56 +5644,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="X39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>7578</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5293,56 +5719,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="X40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Y40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>7578</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5364,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="X41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="Y41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>7578</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>401</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="K42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5435,47 +5869,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="X42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="Y42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>7578</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>411</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="J43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="K43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -5502,56 +5940,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="X43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>7578</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>420</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5573,47 +6015,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>7578</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>430</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -5640,56 +6086,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="X45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="Y45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>7578</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>439</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="J46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5701,56 +6151,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="X46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="Y46" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>7578</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>448</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5772,56 +6226,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="X47" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>7578</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>458</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="J48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="K48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="L48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5843,56 +6301,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="X48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="Y48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>7578</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>468</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="K49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="L49" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="O49" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5914,47 +6376,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="X49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="Y49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>7578</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>477</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="J50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="K50" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="L50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5981,56 +6447,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="X50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="Y50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>7578</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>486</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="J51" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="K51" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="L51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="O51" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -6052,56 +6522,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="X51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>7578</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>496</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="K52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="L52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6123,56 +6597,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="X52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="Y52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>7578</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>477</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="K53" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="L53" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6194,56 +6672,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X53" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>7578</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>515</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="K54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="L54" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6265,56 +6747,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X54" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y54" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>7578</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>522</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="J55" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="K55" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="L55" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6336,56 +6822,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X55" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>7578</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>530</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J56" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K56" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="O56" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -6409,50 +6899,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>7578</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>537</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="J57" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="K57" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="L57" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="O57" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6476,50 +6970,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>7578</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>545</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="J58" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="K58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="L58" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6543,41 +7041,45 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>7578</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>553</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="J59" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
@@ -6606,50 +7108,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>7578</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>559</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="O60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6663,50 +7169,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>7578</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>567</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="J61" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="K61" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="L61" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="O61" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6730,50 +7240,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>7578</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>575</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="O62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6797,50 +7311,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>7578</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>583</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="J63" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="K63" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="L63" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="O63" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6864,50 +7382,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>7578</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>590</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="J64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="K64" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="L64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="O64" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6931,50 +7453,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>7578</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>597</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="J65" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="K65" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="L65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="O65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6994,41 +7520,45 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>7578</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>604</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
@@ -7057,41 +7587,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>7578</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>610</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="J67" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="K67" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="L67" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
@@ -7120,41 +7654,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>7578</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>617</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="J68" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="K68" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="L68" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
@@ -7181,56 +7719,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="X68" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="Y68" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>7578</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="K69" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7252,56 +7794,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="X69" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="Y69" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>7578</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>635</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="J70" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="K70" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="L70" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -7325,50 +7871,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>7578</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>643</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="J71" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="K71" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="L71" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7392,50 +7942,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>7578</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>651</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="J72" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="K72" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="L72" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="O72" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7457,50 +8011,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>7578</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>658</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="J73" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="K73" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="L73" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7524,50 +8082,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>7578</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>666</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>595</v>
+        <v>667</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="J74" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="K74" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="L74" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7591,50 +8153,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>7578</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>673</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
       <c r="J75" t="s">
-        <v>603</v>
+        <v>676</v>
       </c>
       <c r="K75" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="L75" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="O75" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7658,50 +8224,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>7578</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>680</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="J76" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
       <c r="K76" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="L76" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7725,50 +8295,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>7578</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>687</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="J77" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="K77" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="L77" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="O77" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7792,50 +8366,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>7578</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>695</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="J78" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="K78" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="L78" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
       <c r="O78" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7859,50 +8437,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>626</v>
+        <v>702</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>7578</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>703</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="J79" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="K79" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="L79" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="O79" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7926,50 +8508,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>633</v>
+        <v>710</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>7578</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>711</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="J80" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="K80" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="L80" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="O80" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7993,50 +8579,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>640</v>
+        <v>718</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>7578</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>719</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="J81" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="K81" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
       <c r="L81" t="s">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>639</v>
+        <v>717</v>
       </c>
       <c r="O81" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -8060,50 +8650,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>646</v>
+        <v>725</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>7578</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>726</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="J82" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="K82" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="L82" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -8127,50 +8721,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>7578</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>733</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="J83" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="K83" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="L83" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>658</v>
+        <v>739</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -8194,50 +8792,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>7578</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>740</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="J84" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="K84" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="L84" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
       <c r="O84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8261,50 +8863,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>7578</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>747</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="J85" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="K85" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="L85" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="O85" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8328,50 +8934,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>7578</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>754</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>671</v>
+        <v>755</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>672</v>
+        <v>756</v>
       </c>
       <c r="J86" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="K86" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="L86" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="O86" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8395,50 +9005,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>7578</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>762</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>678</v>
+        <v>763</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="J87" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="K87" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="L87" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8462,50 +9076,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>7578</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>770</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="J88" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="K88" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="L88" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8529,50 +9147,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>7578</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>777</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="J89" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
       <c r="K89" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="L89" t="s">
-        <v>695</v>
+        <v>782</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="O89" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8596,41 +9218,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>7578</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>785</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>698</v>
+        <v>786</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="J90" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="K90" t="s">
-        <v>701</v>
+        <v>789</v>
       </c>
       <c r="L90" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
@@ -8649,41 +9275,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>7578</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>791</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>703</v>
+        <v>792</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>704</v>
+        <v>793</v>
       </c>
       <c r="J91" t="s">
-        <v>705</v>
+        <v>794</v>
       </c>
       <c r="K91" t="s">
-        <v>706</v>
+        <v>795</v>
       </c>
       <c r="L91" t="s">
-        <v>707</v>
+        <v>796</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
@@ -8712,41 +9342,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>708</v>
+        <v>797</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>7578</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>798</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="J92" t="s">
-        <v>711</v>
+        <v>801</v>
       </c>
       <c r="K92" t="s">
-        <v>712</v>
+        <v>802</v>
       </c>
       <c r="L92" t="s">
-        <v>713</v>
+        <v>803</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
@@ -8773,50 +9407,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>714</v>
+        <v>804</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>7578</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>798</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="J93" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="K93" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="L93" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8838,41 +9476,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>7578</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>798</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="J94" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="K94" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="L94" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
@@ -8899,41 +9541,45 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>727</v>
+        <v>817</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>7578</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>798</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>728</v>
+        <v>818</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>729</v>
+        <v>819</v>
       </c>
       <c r="J95" t="s">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="K95" t="s">
-        <v>731</v>
+        <v>821</v>
       </c>
       <c r="L95" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
@@ -8960,50 +9606,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>732</v>
+        <v>822</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>7578</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>798</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="J96" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="K96" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="L96" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>3</v>
@@ -9025,7 +9675,7 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
